--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liber\Dropbox\projects\current projects\naval card game\version1dot1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liber\Dropbox\projects\current projects\naval card game\version1dot2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB335A7-3C2F-47FF-9B37-8B71202DE0DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8117ADF-D7F1-4CF1-B06A-F621774637D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="military_assets" sheetId="1" r:id="rId1"/>
-    <sheet name="ship_effects" sheetId="2" r:id="rId2"/>
-    <sheet name="actions" sheetId="3" r:id="rId3"/>
-    <sheet name="territories" sheetId="5" r:id="rId4"/>
-    <sheet name="balance" sheetId="6" r:id="rId5"/>
+    <sheet name="military_asset_final" sheetId="7" r:id="rId1"/>
+    <sheet name="military_assets" sheetId="1" r:id="rId2"/>
+    <sheet name="ship_effects" sheetId="2" r:id="rId3"/>
+    <sheet name="version" sheetId="8" r:id="rId4"/>
+    <sheet name="actions" sheetId="3" r:id="rId5"/>
+    <sheet name="territories" sheetId="5" r:id="rId6"/>
+    <sheet name="balance" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="199">
   <si>
     <t>Title</t>
   </si>
@@ -619,6 +643,21 @@
   </si>
   <si>
     <t>Regain control of one territory you've lost</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>FlavorText</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>USS Nimitz</t>
   </si>
 </sst>
 </file>
@@ -799,7 +838,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F89126C3-7951-42F0-AEBE-1B904EA39480}" type="CELLRANGE">
+                    <a:fld id="{A4911251-5800-4317-AECA-44121B06D98C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -832,7 +871,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AC7F1E9-EABA-461B-B6A0-7900DEE8A88B}" type="CELLRANGE">
+                    <a:fld id="{F5CFC346-9598-4028-B165-FB172FFEEEC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -865,7 +904,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{248090E4-86BE-4C9C-A3BC-E1C2BD3343C4}" type="CELLRANGE">
+                    <a:fld id="{FCE238BA-5FD4-4492-9B32-F03050657F6E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -898,7 +937,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9A6D984-9430-4F96-9331-D580739B08F4}" type="CELLRANGE">
+                    <a:fld id="{34165B02-D541-4659-A1AC-D95193AAE053}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -931,7 +970,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C45F9DE7-F66C-4184-99E1-12AC05FC44B0}" type="CELLRANGE">
+                    <a:fld id="{A12E634F-0DA8-4343-86B5-7E2890C8DE62}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -964,7 +1003,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D945787A-966B-4C56-96BA-68A408E59576}" type="CELLRANGE">
+                    <a:fld id="{F75FEE66-1B44-41C4-89D3-1809AEFAC41B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -997,7 +1036,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFC399B9-124F-486F-85E3-02D13188620D}" type="CELLRANGE">
+                    <a:fld id="{F11B15C3-6ED7-40B7-9B4F-4601309EB2CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1030,7 +1069,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69EA6BAF-0E70-4524-ABFE-280F90577E5E}" type="CELLRANGE">
+                    <a:fld id="{A7B38E37-3AF1-4883-AB8A-080AFB462ABD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1063,7 +1102,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1A9312D-B631-4FB2-9DD4-A011C3EC80F7}" type="CELLRANGE">
+                    <a:fld id="{7B8E9F57-65D2-4290-9795-C15099AF702E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1096,7 +1135,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63EA3426-E31A-4C6E-8B82-2F47A6F7591C}" type="CELLRANGE">
+                    <a:fld id="{EC43C91F-4687-46D5-8276-0F3171B5BA50}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1129,7 +1168,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68853042-E9A8-4BE6-A3E4-DF43A57AD27B}" type="CELLRANGE">
+                    <a:fld id="{9062E8AE-2F91-4555-8DFB-E49BFA342B71}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1162,7 +1201,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFC1022D-CD96-41BD-BB50-226FBCF50A36}" type="CELLRANGE">
+                    <a:fld id="{A7B0F472-9CAF-43BD-8653-670FC4D25929}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1195,7 +1234,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67B2FB76-8742-4452-AC0E-B429E4C90F7A}" type="CELLRANGE">
+                    <a:fld id="{B4A75AC0-F6D2-41B7-901F-4BC7CB2DF0E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1228,7 +1267,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2B235E7-1B3B-414C-BE26-8F8E86151DE4}" type="CELLRANGE">
+                    <a:fld id="{620841E7-C7B0-4818-AEEA-8E04E0F0299E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1261,7 +1300,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF765A96-A5E5-4CCC-A155-6EE9ACD174E3}" type="CELLRANGE">
+                    <a:fld id="{687C2973-86A1-43B3-81D7-AA802CFC97D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1294,7 +1333,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B3D6417-FFCB-4ACC-9EB2-76C64F33FDEF}" type="CELLRANGE">
+                    <a:fld id="{7F350ECF-3AFD-4E18-AC24-4B491B7324E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1327,7 +1366,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7278A91C-1C2A-4B9E-95EC-D9B5494D4C5E}" type="CELLRANGE">
+                    <a:fld id="{8118925F-3595-4DC6-A135-8F478477CA14}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1360,7 +1399,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BB6C9F7-CA30-4392-AED7-31F34934D3D8}" type="CELLRANGE">
+                    <a:fld id="{8429EA7A-667F-4984-A014-114400E5E0B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1393,7 +1432,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32195216-E9DF-40AA-B91B-C3DEC9A6925C}" type="CELLRANGE">
+                    <a:fld id="{141D40A8-2131-4C07-B72B-EC55C91C81CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1426,7 +1465,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E14549A-ECD5-4148-8394-5481CFDDADAD}" type="CELLRANGE">
+                    <a:fld id="{250AB930-BF83-4FBB-87FC-CD94F8F28855}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1459,7 +1498,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7D70241-9417-4DD9-992F-4A0CB561A2C5}" type="CELLRANGE">
+                    <a:fld id="{56744084-CC68-4460-9EC9-6CCF9BB703B4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1492,7 +1531,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B41F497-68B2-42FF-8EC3-4C1BA3116371}" type="CELLRANGE">
+                    <a:fld id="{00F9088F-691B-438D-9E6F-6D11C169349B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1525,7 +1564,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BD0C71D-0BE7-4B18-AAFF-28E9030FB86D}" type="CELLRANGE">
+                    <a:fld id="{041BE47E-EA39-4B9B-8B6E-F8DEF70DAD43}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1558,7 +1597,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D64F7A5E-3EA9-4BCD-895F-F5D0E1AC7A9A}" type="CELLRANGE">
+                    <a:fld id="{52DD5413-61F3-4545-BD41-A4538ED00329}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1591,7 +1630,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97887A24-F05D-4DF2-ACA5-A2193724C98F}" type="CELLRANGE">
+                    <a:fld id="{4202DA67-DCCA-4A51-AA36-3B6BEAFF7B70}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3814,946 +3853,2908 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA93C54-FC77-4A57-AEDF-D4D1B82432EF}">
-  <dimension ref="A1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E8987D-349F-4742-AF8A-4428C54D0A0B}">
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="128.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="str">
+        <f>military_assets!A1</f>
+        <v>Title</v>
+      </c>
+      <c r="E1">
+        <f>military_assets!B1</f>
+        <v>0</v>
+      </c>
+      <c r="F1" t="str">
+        <f>military_assets!C1</f>
+        <v>AIR</v>
+      </c>
+      <c r="G1" t="str">
+        <f>military_assets!D1</f>
+        <v>ASW</v>
+      </c>
+      <c r="H1" t="str">
+        <f>military_assets!E1</f>
+        <v>Attack</v>
+      </c>
+      <c r="I1" t="str">
+        <f>military_assets!F1</f>
+        <v>ShoreAttack</v>
+      </c>
+      <c r="J1" t="str">
+        <f>military_assets!G1</f>
+        <v>Defense</v>
+      </c>
+      <c r="K1" t="str">
+        <f>military_assets!H1</f>
+        <v>Logistics</v>
+      </c>
+      <c r="L1" t="str">
+        <f>military_assets!I1</f>
+        <v>Rosters</v>
+      </c>
+      <c r="M1" t="str">
+        <f>military_assets!J1</f>
+        <v>Type</v>
+      </c>
+      <c r="N1" t="str">
+        <f>military_assets!K1</f>
+        <v>Description</v>
+      </c>
+      <c r="O1" t="str">
+        <f>military_assets!L1</f>
+        <v>Image</v>
+      </c>
+      <c r="P1" t="str">
+        <f>military_assets!M1</f>
+        <v>FlavorText</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>military_assets!N1</f>
+        <v>Version</v>
+      </c>
+      <c r="R1">
+        <f>military_assets!O1</f>
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <f>military_assets!P1</f>
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <f>military_assets!Q1</f>
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <f>military_assets!R1</f>
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <f>military_assets!S1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="str" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>Nimitz Class CVN</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" aca="1" ref="G2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" aca="1" ref="H2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" aca="1" ref="I2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" aca="1" ref="J2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>4</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v>8</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f>ship_effects!$A3&amp;CHAR(10)&amp;ship_effects!$A4&amp;CHAR(10)</f>
+      <c r="L2" t="str" cm="1">
+        <f t="array" aca="1" ref="L2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>USN</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N2" t="str" cm="1">
+        <f t="array" aca="1" ref="N2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v xml:space="preserve">CATOBAR: Compatible with all carrier aircraft squadrons
 E-2C Hawkeye: All friendly air squadrons in combat with this asset have +1 attack and  defense
 </v>
       </c>
-      <c r="M2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" t="str" cm="1">
+        <f t="array" aca="1" ref="O2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>Images/nimitz.jpg</v>
+      </c>
+      <c r="P2" cm="1">
+        <f t="array" aca="1" ref="P2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" cm="1">
+        <f t="array" aca="1" ref="Q2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <f>ship_effects!$A3&amp;CHAR(10)&amp;ship_effects!$A25</f>
-        <v>CATOBAR: Compatible with all carrier aircraft squadrons
-E-2D Hawkeye-I: All friendly air squadrons in combat with this asset have +1 attack and  defense. Enemy air squadrons lose Ambush</v>
-      </c>
-      <c r="M3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>Nimitz Class CVN</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>4</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>8</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>USN</v>
+      </c>
+      <c r="M3" t="str" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v xml:space="preserve">CATOBAR: Compatible with all carrier aircraft squadrons
+E-2C Hawkeye: All friendly air squadrons in combat with this asset have +1 attack and  defense
+</v>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>Images/nimitz.jpg</v>
+      </c>
+      <c r="P3" cm="1">
+        <f t="array" aca="1" ref="P3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" cm="1">
+        <f t="array" aca="1" ref="Q3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
+        <v>Wasp Class LHA</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" aca="1" ref="G4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" aca="1" ref="I4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v>6</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
+      <c r="J4" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
+        <v>2</v>
+      </c>
+      <c r="K4" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v>6</v>
       </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="str">
-        <f>ship_effects!$A6&amp;CHAR(10)</f>
+      <c r="L4" t="str" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
+        <v>USN</v>
+      </c>
+      <c r="M4" t="str" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons
 </v>
       </c>
-      <c r="M4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" t="str" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
+        <v>Images/wasp.jpg</v>
+      </c>
+      <c r="P4" cm="1">
+        <f t="array" aca="1" ref="P4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" cm="1">
+        <f t="array" aca="1" ref="Q4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>Wasp Class LHA</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
         <v>6</v>
       </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="str">
-        <f>ship_effects!$A6&amp;CHAR(10)</f>
+      <c r="J5" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>2</v>
+      </c>
+      <c r="K5" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>6</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>USN</v>
+      </c>
+      <c r="M5" t="str" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
         <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons
 </v>
       </c>
-      <c r="M5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" t="str" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>Images/wasp.jpg</v>
+      </c>
+      <c r="P5" cm="1">
+        <f t="array" aca="1" ref="P5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" cm="1">
+        <f t="array" aca="1" ref="Q5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>Seawolf Class SSN</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>4</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>4</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
         <v>5</v>
       </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A9&amp;CHAR(10)&amp;ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A24</f>
+      <c r="L6" t="str" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>USN</v>
+      </c>
+      <c r="M6" t="str" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
         <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
 Special Purposes: When flipped, opponent must reveal one card from their hand or hidden on the board
 Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
 Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
       </c>
-      <c r="M6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" t="str" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>Images/seawolf.jpg</v>
+      </c>
+      <c r="P6" cm="1">
+        <f t="array" aca="1" ref="P6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" cm="1">
+        <f t="array" aca="1" ref="Q6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="str" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>Virginia Class SSN</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A24</f>
+      <c r="I7" cm="1">
+        <f t="array" aca="1" ref="I7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>4</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>4</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>USN</v>
+      </c>
+      <c r="M7" t="str" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
         <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
 Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
 Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
       </c>
-      <c r="M7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" t="str" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>Images/virginia.jpg</v>
+      </c>
+      <c r="P7" cm="1">
+        <f t="array" aca="1" ref="P7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" cm="1">
+        <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>Virginia Class SSN</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>3</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>4</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>4</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>USN</v>
+      </c>
+      <c r="M8" t="str" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
+Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>Images/virginia.jpg</v>
+      </c>
+      <c r="P8" cm="1">
+        <f t="array" aca="1" ref="P8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" cm="1">
+        <f t="array" aca="1" ref="Q8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="str" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
+        <v>Ohio Class SSGN</v>
+      </c>
+      <c r="E9" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" aca="1" ref="F9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" aca="1" ref="G9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" cm="1">
+        <f t="array" aca="1" ref="H9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
+      <c r="I9" cm="1">
+        <f t="array" aca="1" ref="I9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
+        <v>4</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" aca="1" ref="J9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
         <v>3</v>
       </c>
-      <c r="I8">
+      <c r="K9" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
         <v>6</v>
       </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A10&amp;CHAR(10)&amp;ship_effects!$A22</f>
+      <c r="L9" t="str" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
+        <v>USN</v>
+      </c>
+      <c r="M9" t="str" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
         <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
 Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, it deals 1 damage directly to your opponent
 Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
       </c>
-      <c r="M8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="O9" t="str" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
+        <v>Images/ohio.jpg</v>
+      </c>
+      <c r="P9" cm="1">
+        <f t="array" aca="1" ref="P9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" cm="1">
+        <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="str" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>Ticonderoga Class CG</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" aca="1" ref="F10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" aca="1" ref="G10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" aca="1" ref="H10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>2</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" aca="1" ref="I10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>1</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" aca="1" ref="J10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <f>ship_effects!$A11&amp;CHAR(10)</f>
+      <c r="K10" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>4</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>USN</v>
+      </c>
+      <c r="M10" t="str" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" aca="1" ref="N10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
         <v xml:space="preserve">AEGIS: +2 Help Defense
 </v>
       </c>
-      <c r="M9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="O10" t="str" cm="1">
+        <f t="array" aca="1" ref="O10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>Images/ticonderoga.jpg</v>
+      </c>
+      <c r="P10" cm="1">
+        <f t="array" aca="1" ref="P10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" cm="1">
+        <f t="array" aca="1" ref="Q10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="str" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>Ticonderoga Class CG</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" aca="1" ref="F11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" aca="1" ref="G11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" aca="1" ref="H11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>2</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" aca="1" ref="I11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>1</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" aca="1" ref="J11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="1" t="str">
-        <f>ship_effects!$A11&amp;CHAR(10)</f>
+      <c r="K11" cm="1">
+        <f t="array" aca="1" ref="K11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>4</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>USN</v>
+      </c>
+      <c r="M11" t="str" cm="1">
+        <f t="array" aca="1" ref="M11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" aca="1" ref="N11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
         <v xml:space="preserve">AEGIS: +2 Help Defense
 </v>
       </c>
-      <c r="M10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="1" t="str">
-        <f>ship_effects!$A22</f>
+      <c r="O11" t="str" cm="1">
+        <f t="array" aca="1" ref="O11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>Images/ticonderoga.jpg</v>
+      </c>
+      <c r="P11" cm="1">
+        <f t="array" aca="1" ref="P11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" cm="1">
+        <f t="array" aca="1" ref="Q11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>Ticonderoga Class CG</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" aca="1" ref="F12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" aca="1" ref="G12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>2</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" aca="1" ref="I12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>1</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" aca="1" ref="J12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>3</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>4</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>USN</v>
+      </c>
+      <c r="M12" t="str" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v xml:space="preserve">AEGIS: +2 Help Defense
+</v>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>Images/ticonderoga.jpg</v>
+      </c>
+      <c r="P12" cm="1">
+        <f t="array" aca="1" ref="P12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" cm="1">
+        <f t="array" aca="1" ref="Q12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>Arleigh Burke Class DDG</v>
+      </c>
+      <c r="E13" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" aca="1" ref="F13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" aca="1" ref="G13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>2</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" aca="1" ref="I13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" cm="1">
+        <f t="array" aca="1" ref="J13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>2</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>3</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>USN</v>
+      </c>
+      <c r="M13" t="str" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v xml:space="preserve">AEGIS: +2 Help Defense
+</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>Images/arleighburke.jpg</v>
+      </c>
+      <c r="P13" cm="1">
+        <f t="array" aca="1" ref="P13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" cm="1">
+        <f t="array" aca="1" ref="Q13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="str" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>Arleigh Burke Class DDG</v>
+      </c>
+      <c r="E14" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>2</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" aca="1" ref="I14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>2</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>3</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>USN</v>
+      </c>
+      <c r="M14" t="str" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v xml:space="preserve">AEGIS: +2 Help Defense
+</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" aca="1" ref="O14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>Images/arleighburke.jpg</v>
+      </c>
+      <c r="P14" cm="1">
+        <f t="array" aca="1" ref="P14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" cm="1">
+        <f t="array" aca="1" ref="Q14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>Arleigh Burke Class DDG</v>
+      </c>
+      <c r="E15" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" aca="1" ref="F15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" aca="1" ref="G15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" aca="1" ref="H15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>2</v>
+      </c>
+      <c r="I15" cm="1">
+        <f t="array" aca="1" ref="I15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>1</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" aca="1" ref="J15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>2</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" aca="1" ref="K15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>3</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>USN</v>
+      </c>
+      <c r="M15" t="str" cm="1">
+        <f t="array" aca="1" ref="M15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" aca="1" ref="N15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v xml:space="preserve">AEGIS: +2 Help Defense
+</v>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" aca="1" ref="O15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>Images/arleighburke.jpg</v>
+      </c>
+      <c r="P15" cm="1">
+        <f t="array" aca="1" ref="P15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" cm="1">
+        <f t="array" aca="1" ref="Q15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="str" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>F/A-18 Superhornet Strike Squadron</v>
+      </c>
+      <c r="E16" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" aca="1" ref="F16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" aca="1" ref="G16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" aca="1" ref="H16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>4</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" aca="1" ref="I16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>4</v>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" aca="1" ref="J16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>3</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" aca="1" ref="K16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>2</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" aca="1" ref="L16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>USN</v>
+      </c>
+      <c r="M16" t="str" cm="1">
+        <f t="array" aca="1" ref="M16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>Fixed-Wing</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" aca="1" ref="N16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
         <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
       </c>
-      <c r="M11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
+      <c r="O16" t="str" cm="1">
+        <f t="array" aca="1" ref="O16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>Images/f18.jpg</v>
+      </c>
+      <c r="P16" cm="1">
+        <f t="array" aca="1" ref="P16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" cm="1">
+        <f t="array" aca="1" ref="Q16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="D17" t="str" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
+        <v>F-35B Lightning II</v>
+      </c>
+      <c r="E17" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" aca="1" ref="F17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" aca="1" ref="G17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" aca="1" ref="H17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
+        <v>4</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" aca="1" ref="I17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
         <v>3</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f>ship_effects!$A22</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
-      </c>
-      <c r="M12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
+      <c r="J17" cm="1">
+        <f t="array" aca="1" ref="J17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
+        <v>2</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" aca="1" ref="K17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
         <v>3</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)</f>
+      <c r="L17" t="str" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
+        <v>USN</v>
+      </c>
+      <c r="M17" t="str" cm="1">
+        <f t="array" aca="1" ref="M17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
+        <v>VTOL</v>
+      </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" aca="1" ref="N17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
         <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
 Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
 </v>
       </c>
-      <c r="M13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)</f>
+      <c r="O17" t="str" cm="1">
+        <f t="array" aca="1" ref="O17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
+        <v>Images/f35b.jpg</v>
+      </c>
+      <c r="P17" cm="1">
+        <f t="array" aca="1" ref="P17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" cm="1">
+        <f t="array" aca="1" ref="Q17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="D18" t="str" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>F-35B Lightning II</v>
+      </c>
+      <c r="E18" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" aca="1" ref="F18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" aca="1" ref="G18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" aca="1" ref="H18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>4</v>
+      </c>
+      <c r="I18" cm="1">
+        <f t="array" aca="1" ref="I18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>3</v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" aca="1" ref="J18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>2</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" aca="1" ref="K18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>3</v>
+      </c>
+      <c r="L18" t="str" cm="1">
+        <f t="array" aca="1" ref="L18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>USN</v>
+      </c>
+      <c r="M18" t="str" cm="1">
+        <f t="array" aca="1" ref="M18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>VTOL</v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" aca="1" ref="N18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
         <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
 Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
 </v>
       </c>
-      <c r="M14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="O18" t="str" cm="1">
+        <f t="array" aca="1" ref="O18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>Images/f35b.jpg</v>
+      </c>
+      <c r="P18" cm="1">
+        <f t="array" aca="1" ref="P18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" cm="1">
+        <f t="array" aca="1" ref="Q18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="D19" t="str" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>F-35C  Lightning II</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" aca="1" ref="F19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" aca="1" ref="G19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" aca="1" ref="H19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>4</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" aca="1" ref="I19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>4</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" aca="1" ref="J19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" aca="1" ref="K19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>2</v>
+      </c>
+      <c r="L19" t="str" cm="1">
+        <f t="array" aca="1" ref="L19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>USN</v>
+      </c>
+      <c r="M19" t="str" cm="1">
+        <f t="array" aca="1" ref="M19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>Fixed-Wing</v>
+      </c>
+      <c r="N19" t="str" cm="1">
+        <f t="array" aca="1" ref="N19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
+Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+</v>
+      </c>
+      <c r="O19" t="str" cm="1">
+        <f t="array" aca="1" ref="O19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>Images/f35c.jpg</v>
+      </c>
+      <c r="P19" cm="1">
+        <f t="array" aca="1" ref="P19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" cm="1">
+        <f t="array" aca="1" ref="Q19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="D20" t="str" cm="1">
+        <f t="array" aca="1" ref="D20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>F-35C  Lightning II</v>
+      </c>
+      <c r="E20" cm="1">
+        <f t="array" aca="1" ref="E20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" aca="1" ref="F20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" cm="1">
+        <f t="array" aca="1" ref="G20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" cm="1">
+        <f t="array" aca="1" ref="H20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>4</v>
+      </c>
+      <c r="I20" cm="1">
+        <f t="array" aca="1" ref="I20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>4</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" aca="1" ref="J20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>2</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" aca="1" ref="K20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>2</v>
+      </c>
+      <c r="L20" t="str" cm="1">
+        <f t="array" aca="1" ref="L20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>USN</v>
+      </c>
+      <c r="M20" t="str" cm="1">
+        <f t="array" aca="1" ref="M20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>Fixed-Wing</v>
+      </c>
+      <c r="N20" t="str" cm="1">
+        <f t="array" aca="1" ref="N20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
+Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+</v>
+      </c>
+      <c r="O20" t="str" cm="1">
+        <f t="array" aca="1" ref="O20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>Images/f35c.jpg</v>
+      </c>
+      <c r="P20" cm="1">
+        <f t="array" aca="1" ref="P20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" cm="1">
+        <f t="array" aca="1" ref="Q20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="D21" t="str" cm="1">
+        <f t="array" aca="1" ref="D21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>AV-8B Harrier II</v>
+      </c>
+      <c r="E21" cm="1">
+        <f t="array" aca="1" ref="E21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" aca="1" ref="F21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" cm="1">
+        <f t="array" aca="1" ref="G21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" cm="1">
+        <f t="array" aca="1" ref="H21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>3</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" aca="1" ref="I21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>3</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" aca="1" ref="J21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>2</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" aca="1" ref="K21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>1</v>
+      </c>
+      <c r="L21" t="str" cm="1">
+        <f t="array" aca="1" ref="L21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>USN</v>
+      </c>
+      <c r="M21" t="str" cm="1">
+        <f t="array" aca="1" ref="M21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>VTOL</v>
+      </c>
+      <c r="N21" t="str" cm="1">
+        <f t="array" aca="1" ref="N21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="O21" t="str" cm="1">
+        <f t="array" aca="1" ref="O21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>Images/harrier.jpg</v>
+      </c>
+      <c r="P21" cm="1">
+        <f t="array" aca="1" ref="P21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" cm="1">
+        <f t="array" aca="1" ref="Q21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="D22" t="str" cm="1">
+        <f t="array" aca="1" ref="D22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>Kuznetsov Class CV</v>
+      </c>
+      <c r="E22" cm="1">
+        <f t="array" aca="1" ref="E22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" aca="1" ref="F22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" cm="1">
+        <f t="array" aca="1" ref="G22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" cm="1">
+        <f t="array" aca="1" ref="H22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>4</v>
+      </c>
+      <c r="I22" cm="1">
+        <f t="array" aca="1" ref="I22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>4</v>
+      </c>
+      <c r="J22" cm="1">
+        <f t="array" aca="1" ref="J22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>5</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" aca="1" ref="K22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
         <v>7</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="1" t="str">
-        <f>ship_effects!$A22</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
-      </c>
-      <c r="M15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>7</v>
-      </c>
-      <c r="J16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="1" t="str">
-        <f>ship_effects!$A23&amp;CHAR(10)</f>
+      <c r="L22" t="str" cm="1">
+        <f t="array" aca="1" ref="L22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M22" t="str" cm="1">
+        <f t="array" aca="1" ref="M22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N22" t="str" cm="1">
+        <f t="array" aca="1" ref="N22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
         <v xml:space="preserve">STOBAR: Compatible with STOBAR and VTOL squadrons
 </v>
       </c>
-      <c r="M16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17">
+      <c r="O22" t="str" cm="1">
+        <f t="array" aca="1" ref="O22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>Images/kuznetsov.jpg</v>
+      </c>
+      <c r="P22" cm="1">
+        <f t="array" aca="1" ref="P22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" cm="1">
+        <f t="array" aca="1" ref="Q22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="D23" t="str" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
+        <v>Kirov Class CGN</v>
+      </c>
+      <c r="E23" cm="1">
+        <f t="array" aca="1" ref="E23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" aca="1" ref="F23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" cm="1">
+        <f t="array" aca="1" ref="G23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" cm="1">
+        <f t="array" aca="1" ref="H23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
         <v>6</v>
       </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
+      <c r="I23" cm="1">
+        <f t="array" aca="1" ref="I23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
+        <v>4</v>
+      </c>
+      <c r="J23" cm="1">
+        <f t="array" aca="1" ref="J23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
         <v>6</v>
       </c>
-      <c r="I17">
+      <c r="K23" cm="1">
+        <f t="array" aca="1" ref="K23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
         <v>6</v>
       </c>
-      <c r="J17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="1" t="str">
-        <f>ship_effects!$A21&amp;CHAR(10)</f>
+      <c r="L23" t="str" cm="1">
+        <f t="array" aca="1" ref="L23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M23" t="str" cm="1">
+        <f t="array" aca="1" ref="M23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N23" t="str" cm="1">
+        <f t="array" aca="1" ref="N23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
         <v xml:space="preserve">S-300 (L): +2 Help Defense
 </v>
       </c>
-      <c r="M17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
+      <c r="O23" t="str" cm="1">
+        <f t="array" aca="1" ref="O23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
+        <v>Images/kirov.jpg</v>
+      </c>
+      <c r="P23" cm="1">
+        <f t="array" aca="1" ref="P23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" cm="1">
+        <f t="array" aca="1" ref="Q23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="D24" t="str" cm="1">
+        <f t="array" aca="1" ref="D24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>Kirov Class CGN</v>
+      </c>
+      <c r="E24" cm="1">
+        <f t="array" aca="1" ref="E24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" cm="1">
+        <f t="array" aca="1" ref="F24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" cm="1">
+        <f t="array" aca="1" ref="G24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" cm="1">
+        <f t="array" aca="1" ref="H24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>6</v>
+      </c>
+      <c r="I24" cm="1">
+        <f t="array" aca="1" ref="I24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>4</v>
+      </c>
+      <c r="J24" cm="1">
+        <f t="array" aca="1" ref="J24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>6</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" aca="1" ref="K24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>6</v>
+      </c>
+      <c r="L24" t="str" cm="1">
+        <f t="array" aca="1" ref="L24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M24" t="str" cm="1">
+        <f t="array" aca="1" ref="M24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N24" t="str" cm="1">
+        <f t="array" aca="1" ref="N24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v xml:space="preserve">S-300 (L): +2 Help Defense
+</v>
+      </c>
+      <c r="O24" t="str" cm="1">
+        <f t="array" aca="1" ref="O24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>Images/kirov.jpg</v>
+      </c>
+      <c r="P24" cm="1">
+        <f t="array" aca="1" ref="P24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" cm="1">
+        <f t="array" aca="1" ref="Q24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="D25" t="str" cm="1">
+        <f t="array" aca="1" ref="D25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>Kirov Class CGN</v>
+      </c>
+      <c r="E25" cm="1">
+        <f t="array" aca="1" ref="E25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" cm="1">
+        <f t="array" aca="1" ref="F25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" cm="1">
+        <f t="array" aca="1" ref="G25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" cm="1">
+        <f t="array" aca="1" ref="H25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>6</v>
+      </c>
+      <c r="I25" cm="1">
+        <f t="array" aca="1" ref="I25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>4</v>
+      </c>
+      <c r="J25" cm="1">
+        <f t="array" aca="1" ref="J25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>6</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" aca="1" ref="K25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>6</v>
+      </c>
+      <c r="L25" t="str" cm="1">
+        <f t="array" aca="1" ref="L25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M25" t="str" cm="1">
+        <f t="array" aca="1" ref="M25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N25" t="str" cm="1">
+        <f t="array" aca="1" ref="N25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v xml:space="preserve">S-300 (L): +2 Help Defense
+</v>
+      </c>
+      <c r="O25" t="str" cm="1">
+        <f t="array" aca="1" ref="O25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>Images/kirov.jpg</v>
+      </c>
+      <c r="P25" cm="1">
+        <f t="array" aca="1" ref="P25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" cm="1">
+        <f t="array" aca="1" ref="Q25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="D26" t="str" cm="1">
+        <f t="array" aca="1" ref="D26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>Slava Class CG</v>
+      </c>
+      <c r="E26" cm="1">
+        <f t="array" aca="1" ref="E26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" aca="1" ref="F26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" cm="1">
+        <f t="array" aca="1" ref="G26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" cm="1">
+        <f t="array" aca="1" ref="H26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>4</v>
+      </c>
+      <c r="I26" cm="1">
+        <f t="array" aca="1" ref="I26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>2</v>
+      </c>
+      <c r="J26" cm="1">
+        <f t="array" aca="1" ref="J26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>2</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" aca="1" ref="K26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
         <v>3</v>
       </c>
-      <c r="J18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="1" t="str">
-        <f>ship_effects!$A20&amp;CHAR(10)</f>
+      <c r="L26" t="str" cm="1">
+        <f t="array" aca="1" ref="L26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M26" t="str" cm="1">
+        <f t="array" aca="1" ref="M26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N26" t="str" cm="1">
+        <f t="array" aca="1" ref="N26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
         <v xml:space="preserve">S-300 (S): +1 Help Defense
 </v>
       </c>
-      <c r="M18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20">
+      <c r="O26" t="str" cm="1">
+        <f t="array" aca="1" ref="O26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>Images/slava.jpg</v>
+      </c>
+      <c r="P26" cm="1">
+        <f t="array" aca="1" ref="P26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" cm="1">
+        <f t="array" aca="1" ref="Q26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="D27" t="str" cm="1">
+        <f t="array" aca="1" ref="D27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>Slava Class CG</v>
+      </c>
+      <c r="E27" cm="1">
+        <f t="array" aca="1" ref="E27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" aca="1" ref="F27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" aca="1" ref="G27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" cm="1">
+        <f t="array" aca="1" ref="H27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>4</v>
+      </c>
+      <c r="I27" cm="1">
+        <f t="array" aca="1" ref="I27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>2</v>
+      </c>
+      <c r="J27" cm="1">
+        <f t="array" aca="1" ref="J27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>2</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" aca="1" ref="K27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
         <v>3</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="1" t="str">
-        <f>ship_effects!$A22</f>
+      <c r="L27" t="str" cm="1">
+        <f t="array" aca="1" ref="L27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M27" t="str" cm="1">
+        <f t="array" aca="1" ref="M27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N27" t="str" cm="1">
+        <f t="array" aca="1" ref="N27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v xml:space="preserve">S-300 (S): +1 Help Defense
+</v>
+      </c>
+      <c r="O27" t="str" cm="1">
+        <f t="array" aca="1" ref="O27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>Images/slava.jpg</v>
+      </c>
+      <c r="P27" cm="1">
+        <f t="array" aca="1" ref="P27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" cm="1">
+        <f t="array" aca="1" ref="Q27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="D28" t="str" cm="1">
+        <f t="array" aca="1" ref="D28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>Udaloy Class DDG</v>
+      </c>
+      <c r="E28" cm="1">
+        <f t="array" aca="1" ref="E28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" aca="1" ref="F28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" cm="1">
+        <f t="array" aca="1" ref="G28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" cm="1">
+        <f t="array" aca="1" ref="H28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>2</v>
+      </c>
+      <c r="I28" cm="1">
+        <f t="array" aca="1" ref="I28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>2</v>
+      </c>
+      <c r="J28" cm="1">
+        <f t="array" aca="1" ref="J28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>2</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" aca="1" ref="K28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>2</v>
+      </c>
+      <c r="L28" t="str" cm="1">
+        <f t="array" aca="1" ref="L28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M28" t="str" cm="1">
+        <f t="array" aca="1" ref="M28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N28" cm="1">
+        <f t="array" aca="1" ref="N28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" t="str" cm="1">
+        <f t="array" aca="1" ref="O28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>Images/udaloy.jpg</v>
+      </c>
+      <c r="P28" cm="1">
+        <f t="array" aca="1" ref="P28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" cm="1">
+        <f t="array" aca="1" ref="Q28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="D29" t="str" cm="1">
+        <f t="array" aca="1" ref="D29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>Udaloy Class DDG</v>
+      </c>
+      <c r="E29" cm="1">
+        <f t="array" aca="1" ref="E29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" aca="1" ref="F29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" cm="1">
+        <f t="array" aca="1" ref="G29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" cm="1">
+        <f t="array" aca="1" ref="H29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>2</v>
+      </c>
+      <c r="I29" cm="1">
+        <f t="array" aca="1" ref="I29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>2</v>
+      </c>
+      <c r="J29" cm="1">
+        <f t="array" aca="1" ref="J29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>2</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" aca="1" ref="K29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>2</v>
+      </c>
+      <c r="L29" t="str" cm="1">
+        <f t="array" aca="1" ref="L29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M29" t="str" cm="1">
+        <f t="array" aca="1" ref="M29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N29" cm="1">
+        <f t="array" aca="1" ref="N29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" t="str" cm="1">
+        <f t="array" aca="1" ref="O29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>Images/udaloy.jpg</v>
+      </c>
+      <c r="P29" cm="1">
+        <f t="array" aca="1" ref="P29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" cm="1">
+        <f t="array" aca="1" ref="Q29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="str" cm="1">
+        <f t="array" aca="1" ref="D30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>Gorshkov Class FFG</v>
+      </c>
+      <c r="E30" cm="1">
+        <f t="array" aca="1" ref="E30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" aca="1" ref="F30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" cm="1">
+        <f t="array" aca="1" ref="G30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" cm="1">
+        <f t="array" aca="1" ref="H30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>3</v>
+      </c>
+      <c r="I30" cm="1">
+        <f t="array" aca="1" ref="I30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>1</v>
+      </c>
+      <c r="J30" cm="1">
+        <f t="array" aca="1" ref="J30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>2</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" aca="1" ref="K30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>1</v>
+      </c>
+      <c r="L30" t="str" cm="1">
+        <f t="array" aca="1" ref="L30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M30" t="str" cm="1">
+        <f t="array" aca="1" ref="M30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N30" t="str" cm="1">
+        <f t="array" aca="1" ref="N30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
         <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
       </c>
-      <c r="M20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21">
+      <c r="O30" t="str" cm="1">
+        <f t="array" aca="1" ref="O30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>Images/gorshkov.jpg</v>
+      </c>
+      <c r="P30" cm="1">
+        <f t="array" aca="1" ref="P30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" cm="1">
+        <f t="array" aca="1" ref="Q30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="str" cm="1">
+        <f t="array" aca="1" ref="D31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>Gorshkov Class FFG</v>
+      </c>
+      <c r="E31" cm="1">
+        <f t="array" aca="1" ref="E31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" aca="1" ref="F31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" cm="1">
+        <f t="array" aca="1" ref="G31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" cm="1">
+        <f t="array" aca="1" ref="H31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="I31" cm="1">
+        <f t="array" aca="1" ref="I31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>1</v>
+      </c>
+      <c r="J31" cm="1">
+        <f t="array" aca="1" ref="J31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>2</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" aca="1" ref="K31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>1</v>
+      </c>
+      <c r="L31" t="str" cm="1">
+        <f t="array" aca="1" ref="L31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M31" t="str" cm="1">
+        <f t="array" aca="1" ref="M31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>Ship</v>
+      </c>
+      <c r="N31" t="str" cm="1">
+        <f t="array" aca="1" ref="N31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="O31" t="str" cm="1">
+        <f t="array" aca="1" ref="O31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>Images/gorshkov.jpg</v>
+      </c>
+      <c r="P31" cm="1">
+        <f t="array" aca="1" ref="P31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" cm="1">
+        <f t="array" aca="1" ref="Q31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>21</v>
+      </c>
+      <c r="D32" t="str" cm="1">
+        <f t="array" aca="1" ref="D32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
+        <v>Yassen Class SSGN</v>
+      </c>
+      <c r="E32" cm="1">
+        <f t="array" aca="1" ref="E32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" cm="1">
+        <f t="array" aca="1" ref="F32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" cm="1">
+        <f t="array" aca="1" ref="G32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" cm="1">
+        <f t="array" aca="1" ref="H32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
         <v>3</v>
       </c>
-      <c r="I21">
+      <c r="I32" cm="1">
+        <f t="array" aca="1" ref="I32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" cm="1">
+        <f t="array" aca="1" ref="J32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
         <v>3</v>
       </c>
-      <c r="J21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+      <c r="K32" cm="1">
+        <f t="array" aca="1" ref="K32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
+        <v>3</v>
+      </c>
+      <c r="L32" t="str" cm="1">
+        <f t="array" aca="1" ref="L32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M32" t="str" cm="1">
+        <f t="array" aca="1" ref="M32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N32" t="str" cm="1">
+        <f t="array" aca="1" ref="N32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
         <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
 Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
       </c>
-      <c r="M21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22">
+      <c r="O32" t="str" cm="1">
+        <f t="array" aca="1" ref="O32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
+        <v>Images/yasen.jpg</v>
+      </c>
+      <c r="P32" cm="1">
+        <f t="array" aca="1" ref="P32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" cm="1">
+        <f t="array" aca="1" ref="Q32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>21</v>
+      </c>
+      <c r="D33" t="str" cm="1">
+        <f t="array" aca="1" ref="D33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>Yassen Class SSGN</v>
+      </c>
+      <c r="E33" cm="1">
+        <f t="array" aca="1" ref="E33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" cm="1">
+        <f t="array" aca="1" ref="F33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" cm="1">
+        <f t="array" aca="1" ref="G33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" cm="1">
+        <f t="array" aca="1" ref="H33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
         <v>3</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="I33" cm="1">
+        <f t="array" aca="1" ref="I33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" cm="1">
+        <f t="array" aca="1" ref="J33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>3</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" aca="1" ref="K33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>3</v>
+      </c>
+      <c r="L33" t="str" cm="1">
+        <f t="array" aca="1" ref="L33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M33" t="str" cm="1">
+        <f t="array" aca="1" ref="M33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N33" t="str" cm="1">
+        <f t="array" aca="1" ref="N33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+      </c>
+      <c r="O33" t="str" cm="1">
+        <f t="array" aca="1" ref="O33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>Images/yasen.jpg</v>
+      </c>
+      <c r="P33" cm="1">
+        <f t="array" aca="1" ref="P33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" cm="1">
+        <f t="array" aca="1" ref="Q33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
         <v>22</v>
       </c>
-      <c r="L22" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A19</f>
+      <c r="D34" t="str" cm="1">
+        <f t="array" aca="1" ref="D34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>Lada Class SSK</v>
+      </c>
+      <c r="E34" cm="1">
+        <f t="array" aca="1" ref="E34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" cm="1">
+        <f t="array" aca="1" ref="F34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" cm="1">
+        <f t="array" aca="1" ref="G34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" cm="1">
+        <f t="array" aca="1" ref="H34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>3</v>
+      </c>
+      <c r="I34" cm="1">
+        <f t="array" aca="1" ref="I34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" cm="1">
+        <f t="array" aca="1" ref="J34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>1</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" aca="1" ref="K34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>1</v>
+      </c>
+      <c r="L34" t="str" cm="1">
+        <f t="array" aca="1" ref="L34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M34" t="str" cm="1">
+        <f t="array" aca="1" ref="M34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N34" t="str" cm="1">
+        <f t="array" aca="1" ref="N34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
         <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
 Coastal Defender: Cannot attack</v>
       </c>
-      <c r="M22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23">
+      <c r="O34" t="str" cm="1">
+        <f t="array" aca="1" ref="O34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>Images/lada.jpg</v>
+      </c>
+      <c r="P34" cm="1">
+        <f t="array" aca="1" ref="P34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" cm="1">
+        <f t="array" aca="1" ref="Q34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
+      </c>
+      <c r="D35" t="str" cm="1">
+        <f t="array" aca="1" ref="D35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>Lada Class SSK</v>
+      </c>
+      <c r="E35" cm="1">
+        <f t="array" aca="1" ref="E35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" cm="1">
+        <f t="array" aca="1" ref="F35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" cm="1">
+        <f t="array" aca="1" ref="G35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" cm="1">
+        <f t="array" aca="1" ref="H35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>3</v>
+      </c>
+      <c r="I35" cm="1">
+        <f t="array" aca="1" ref="I35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" cm="1">
+        <f t="array" aca="1" ref="J35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>1</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" aca="1" ref="K35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>1</v>
+      </c>
+      <c r="L35" t="str" cm="1">
+        <f t="array" aca="1" ref="L35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M35" t="str" cm="1">
+        <f t="array" aca="1" ref="M35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N35" t="str" cm="1">
+        <f t="array" aca="1" ref="N35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Coastal Defender: Cannot attack</v>
+      </c>
+      <c r="O35" t="str" cm="1">
+        <f t="array" aca="1" ref="O35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>Images/lada.jpg</v>
+      </c>
+      <c r="P35" cm="1">
+        <f t="array" aca="1" ref="P35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" cm="1">
+        <f t="array" aca="1" ref="Q35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>23</v>
+      </c>
+      <c r="D36" t="str" cm="1">
+        <f t="array" aca="1" ref="D36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
+        <v>Oscar II SSGN</v>
+      </c>
+      <c r="E36" cm="1">
+        <f t="array" aca="1" ref="E36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" cm="1">
+        <f t="array" aca="1" ref="F36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" cm="1">
+        <f t="array" aca="1" ref="G36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" cm="1">
+        <f t="array" aca="1" ref="H36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
         <v>6</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
+      <c r="I36" cm="1">
+        <f t="array" aca="1" ref="I36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" cm="1">
+        <f t="array" aca="1" ref="J36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
+        <v>2</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" aca="1" ref="K36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
         <v>5</v>
       </c>
-      <c r="J23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A10&amp;CHAR(10)&amp;ship_effects!$A24</f>
+      <c r="L36" t="str" cm="1">
+        <f t="array" aca="1" ref="L36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M36" t="str" cm="1">
+        <f t="array" aca="1" ref="M36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N36" t="str" cm="1">
+        <f t="array" aca="1" ref="N36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
         <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
 Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, it deals 1 damage directly to your opponent
 Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
       </c>
-      <c r="M23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
+      <c r="O36" t="str" cm="1">
+        <f t="array" aca="1" ref="O36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
+        <v>Images/oscar2.jpg</v>
+      </c>
+      <c r="P36" cm="1">
+        <f t="array" aca="1" ref="P36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" cm="1">
+        <f t="array" aca="1" ref="Q36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="D37" t="str" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>Oscar II SSGN</v>
+      </c>
+      <c r="E37" cm="1">
+        <f t="array" aca="1" ref="E37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" cm="1">
+        <f t="array" aca="1" ref="F37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" cm="1">
+        <f t="array" aca="1" ref="G37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" cm="1">
+        <f t="array" aca="1" ref="H37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>6</v>
+      </c>
+      <c r="I37" cm="1">
+        <f t="array" aca="1" ref="I37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" cm="1">
+        <f t="array" aca="1" ref="J37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>2</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" aca="1" ref="K37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>5</v>
+      </c>
+      <c r="L37" t="str" cm="1">
+        <f t="array" aca="1" ref="L37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M37" t="str" cm="1">
+        <f t="array" aca="1" ref="M37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N37" t="str" cm="1">
+        <f t="array" aca="1" ref="N37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, it deals 1 damage directly to your opponent
+Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+      </c>
+      <c r="O37" t="str" cm="1">
+        <f t="array" aca="1" ref="O37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>Images/oscar2.jpg</v>
+      </c>
+      <c r="P37" cm="1">
+        <f t="array" aca="1" ref="P37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" cm="1">
+        <f t="array" aca="1" ref="Q37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="D38" t="str" cm="1">
+        <f t="array" aca="1" ref="D38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>Mig-29K Strike Squadron</v>
+      </c>
+      <c r="E38" cm="1">
+        <f t="array" aca="1" ref="E38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" cm="1">
+        <f t="array" aca="1" ref="F38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" cm="1">
+        <f t="array" aca="1" ref="G38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" cm="1">
+        <f t="array" aca="1" ref="H38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>4</v>
+      </c>
+      <c r="I38" cm="1">
+        <f t="array" aca="1" ref="I38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
         <v>3</v>
       </c>
-      <c r="H24">
+      <c r="J38" cm="1">
+        <f t="array" aca="1" ref="J38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="K38" cm="1">
+        <f t="array" aca="1" ref="K38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>1</v>
+      </c>
+      <c r="L38" t="str" cm="1">
+        <f t="array" aca="1" ref="L38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M38" t="str" cm="1">
+        <f t="array" aca="1" ref="M38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>Fixed-Wing</v>
+      </c>
+      <c r="N38" t="str" cm="1">
+        <f t="array" aca="1" ref="N38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="O38" t="str" cm="1">
+        <f t="array" aca="1" ref="O38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>Images/mig29k.jpg</v>
+      </c>
+      <c r="P38" cm="1">
+        <f t="array" aca="1" ref="P38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" cm="1">
+        <f t="array" aca="1" ref="Q38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>24</v>
+      </c>
+      <c r="D39" t="str" cm="1">
+        <f t="array" aca="1" ref="D39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>Mig-29K Strike Squadron</v>
+      </c>
+      <c r="E39" cm="1">
+        <f t="array" aca="1" ref="E39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" cm="1">
+        <f t="array" aca="1" ref="F39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" cm="1">
+        <f t="array" aca="1" ref="G39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" cm="1">
+        <f t="array" aca="1" ref="H39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>4</v>
+      </c>
+      <c r="I39" cm="1">
+        <f t="array" aca="1" ref="I39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>3</v>
+      </c>
+      <c r="J39" cm="1">
+        <f t="array" aca="1" ref="J39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>3</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" aca="1" ref="K39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>1</v>
+      </c>
+      <c r="L39" t="str" cm="1">
+        <f t="array" aca="1" ref="L39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M39" t="str" cm="1">
+        <f t="array" aca="1" ref="M39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>Fixed-Wing</v>
+      </c>
+      <c r="N39" t="str" cm="1">
+        <f t="array" aca="1" ref="N39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="O39" t="str" cm="1">
+        <f t="array" aca="1" ref="O39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>Images/mig29k.jpg</v>
+      </c>
+      <c r="P39" cm="1">
+        <f t="array" aca="1" ref="P39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" cm="1">
+        <f t="array" aca="1" ref="Q39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="D40" t="str" cm="1">
+        <f t="array" aca="1" ref="D40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>Su-33 Flanker-D Strike Squadron</v>
+      </c>
+      <c r="E40" cm="1">
+        <f t="array" aca="1" ref="E40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" cm="1">
+        <f t="array" aca="1" ref="F40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" cm="1">
+        <f t="array" aca="1" ref="G40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" cm="1">
+        <f t="array" aca="1" ref="H40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>4</v>
+      </c>
+      <c r="I40" cm="1">
+        <f t="array" aca="1" ref="I40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>4</v>
+      </c>
+      <c r="J40" cm="1">
+        <f t="array" aca="1" ref="J40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>3</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" aca="1" ref="K40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>1</v>
+      </c>
+      <c r="L40" t="str" cm="1">
+        <f t="array" aca="1" ref="L40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M40" t="str" cm="1">
+        <f t="array" aca="1" ref="M40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>Fixed-Wing</v>
+      </c>
+      <c r="N40" t="str" cm="1">
+        <f t="array" aca="1" ref="N40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="O40" t="str" cm="1">
+        <f t="array" aca="1" ref="O40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>Images/su33.jpg</v>
+      </c>
+      <c r="P40" cm="1">
+        <f t="array" aca="1" ref="P40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" cm="1">
+        <f t="array" aca="1" ref="Q40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
         <v>27</v>
       </c>
-      <c r="L24" s="1" t="str">
-        <f>ship_effects!$A22</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
-      </c>
-      <c r="M24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="1" t="str">
-        <f>ship_effects!$A22</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
-      </c>
-      <c r="M25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+      <c r="D41" t="str" cm="1">
+        <f t="array" aca="1" ref="D41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>Akula Class SSN</v>
+      </c>
+      <c r="E41" cm="1">
+        <f t="array" aca="1" ref="E41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" cm="1">
+        <f t="array" aca="1" ref="F41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" cm="1">
+        <f t="array" aca="1" ref="G41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" cm="1">
+        <f t="array" aca="1" ref="H41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>2</v>
+      </c>
+      <c r="I41" cm="1">
+        <f t="array" aca="1" ref="I41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" cm="1">
+        <f t="array" aca="1" ref="J41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>2</v>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" aca="1" ref="K41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>2</v>
+      </c>
+      <c r="L41" t="str" cm="1">
+        <f t="array" aca="1" ref="L41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M41" t="str" cm="1">
+        <f t="array" aca="1" ref="M41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N41" t="str" cm="1">
+        <f t="array" aca="1" ref="N41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
         <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
 Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
       </c>
-      <c r="M26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+      <c r="O41" t="str" cm="1">
+        <f t="array" aca="1" ref="O41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>Images/akula.jpg</v>
+      </c>
+      <c r="P41" cm="1">
+        <f t="array" aca="1" ref="P41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" cm="1">
+        <f t="array" aca="1" ref="Q41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="D42" t="str" cm="1">
+        <f t="array" aca="1" ref="D42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>Akula Class SSN</v>
+      </c>
+      <c r="E42" cm="1">
+        <f t="array" aca="1" ref="E42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" cm="1">
+        <f t="array" aca="1" ref="F42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" cm="1">
+        <f t="array" aca="1" ref="G42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" cm="1">
+        <f t="array" aca="1" ref="H42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>2</v>
+      </c>
+      <c r="I42" cm="1">
+        <f t="array" aca="1" ref="I42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" cm="1">
+        <f t="array" aca="1" ref="J42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>2</v>
+      </c>
+      <c r="K42" cm="1">
+        <f t="array" aca="1" ref="K42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>2</v>
+      </c>
+      <c r="L42" t="str" cm="1">
+        <f t="array" aca="1" ref="L42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M42" t="str" cm="1">
+        <f t="array" aca="1" ref="M42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N42" t="str" cm="1">
+        <f t="array" aca="1" ref="N42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
         <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
 Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
       </c>
-      <c r="M27" t="s">
-        <v>155</v>
+      <c r="O42" t="str" cm="1">
+        <f t="array" aca="1" ref="O42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>Images/akula.jpg</v>
+      </c>
+      <c r="P42" cm="1">
+        <f t="array" aca="1" ref="P42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" cm="1">
+        <f t="array" aca="1" ref="Q42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>27</v>
+      </c>
+      <c r="D43" t="str" cm="1">
+        <f t="array" aca="1" ref="D43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>Akula Class SSN</v>
+      </c>
+      <c r="E43" cm="1">
+        <f t="array" aca="1" ref="E43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" cm="1">
+        <f t="array" aca="1" ref="F43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" cm="1">
+        <f t="array" aca="1" ref="G43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" cm="1">
+        <f t="array" aca="1" ref="H43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>2</v>
+      </c>
+      <c r="I43" cm="1">
+        <f t="array" aca="1" ref="I43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" cm="1">
+        <f t="array" aca="1" ref="J43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>2</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" aca="1" ref="K43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>2</v>
+      </c>
+      <c r="L43" t="str" cm="1">
+        <f t="array" aca="1" ref="L43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M43" t="str" cm="1">
+        <f t="array" aca="1" ref="M43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N43" t="str" cm="1">
+        <f t="array" aca="1" ref="N43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+      </c>
+      <c r="O43" t="str" cm="1">
+        <f t="array" aca="1" ref="O43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>Images/akula.jpg</v>
+      </c>
+      <c r="P43" cm="1">
+        <f t="array" aca="1" ref="P43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" cm="1">
+        <f t="array" aca="1" ref="Q43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="D44" t="str" cm="1">
+        <f t="array" aca="1" ref="D44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>Akula Class SSN</v>
+      </c>
+      <c r="E44" cm="1">
+        <f t="array" aca="1" ref="E44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" cm="1">
+        <f t="array" aca="1" ref="F44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" cm="1">
+        <f t="array" aca="1" ref="G44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" cm="1">
+        <f t="array" aca="1" ref="H44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>2</v>
+      </c>
+      <c r="I44" cm="1">
+        <f t="array" aca="1" ref="I44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" cm="1">
+        <f t="array" aca="1" ref="J44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>2</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" aca="1" ref="K44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>2</v>
+      </c>
+      <c r="L44" t="str" cm="1">
+        <f t="array" aca="1" ref="L44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>RUS</v>
+      </c>
+      <c r="M44" t="str" cm="1">
+        <f t="array" aca="1" ref="M44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>Submarine</v>
+      </c>
+      <c r="N44" t="str" cm="1">
+        <f t="array" aca="1" ref="N44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+      </c>
+      <c r="O44" t="str" cm="1">
+        <f t="array" aca="1" ref="O44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>Images/akula.jpg</v>
+      </c>
+      <c r="P44" cm="1">
+        <f t="array" aca="1" ref="P44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" cm="1">
+        <f t="array" aca="1" ref="Q44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -4763,6 +6764,984 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA93C54-FC77-4A57-AEDF-D4D1B82432EF}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="128.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="37.140625" customWidth="1"/>
+    <col min="13" max="13" width="41.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>ship_effects!$A3&amp;CHAR(10)&amp;ship_effects!$A4&amp;CHAR(10)</f>
+        <v xml:space="preserve">CATOBAR: Compatible with all carrier aircraft squadrons
+E-2C Hawkeye: All friendly air squadrons in combat with this asset have +1 attack and  defense
+</v>
+      </c>
+      <c r="L2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>ship_effects!$A3&amp;CHAR(10)&amp;ship_effects!$A25</f>
+        <v>CATOBAR: Compatible with all carrier aircraft squadrons
+E-2D Hawkeye-I: All friendly air squadrons in combat with this asset have +1 attack and  defense. Enemy air squadrons lose Ambush</v>
+      </c>
+      <c r="L3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>ship_effects!$A6&amp;CHAR(10)</f>
+        <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons
+</v>
+      </c>
+      <c r="L4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>ship_effects!$A6&amp;CHAR(10)</f>
+        <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons
+</v>
+      </c>
+      <c r="L5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A9&amp;CHAR(10)&amp;ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Special Purposes: When flipped, opponent must reveal one card from their hand or hidden on the board
+Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
+Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+      </c>
+      <c r="L6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
+Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+      </c>
+      <c r="L7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A10&amp;CHAR(10)&amp;ship_effects!$A22</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, it deals 1 damage directly to your opponent
+Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="L8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>ship_effects!$A11&amp;CHAR(10)</f>
+        <v xml:space="preserve">AEGIS: +2 Help Defense
+</v>
+      </c>
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f>ship_effects!$A11&amp;CHAR(10)</f>
+        <v xml:space="preserve">AEGIS: +2 Help Defense
+</v>
+      </c>
+      <c r="L10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f>ship_effects!$A22</f>
+        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="L11" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f>ship_effects!$A22</f>
+        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)</f>
+        <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
+Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N13">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)</f>
+        <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
+Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f>ship_effects!$A22</f>
+        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f>ship_effects!$A23&amp;CHAR(10)</f>
+        <v xml:space="preserve">STOBAR: Compatible with STOBAR and VTOL squadrons
+</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f>ship_effects!$A21&amp;CHAR(10)</f>
+        <v xml:space="preserve">S-300 (L): +2 Help Defense
+</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f>ship_effects!$A20&amp;CHAR(10)</f>
+        <v xml:space="preserve">S-300 (S): +1 Help Defense
+</v>
+      </c>
+      <c r="L18" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f>ship_effects!$A22</f>
+        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="L20" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+      </c>
+      <c r="L21" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A19</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Coastal Defender: Cannot attack</v>
+      </c>
+      <c r="L22" t="s">
+        <v>150</v>
+      </c>
+      <c r="N22">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A10&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, it deals 1 damage directly to your opponent
+Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+      </c>
+      <c r="L23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N23">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f>ship_effects!$A22</f>
+        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="L24" t="s">
+        <v>152</v>
+      </c>
+      <c r="N24">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f>ship_effects!$A22</f>
+        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+      </c>
+      <c r="L25" t="s">
+        <v>153</v>
+      </c>
+      <c r="N25">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+      </c>
+      <c r="L26" t="s">
+        <v>154</v>
+      </c>
+      <c r="N26">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+      </c>
+      <c r="L27" t="s">
+        <v>155</v>
+      </c>
+      <c r="N27">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424B9FA-5F3A-48BD-A332-49100C2F7779}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -4905,7 +7884,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDD38FE-6B3B-4E1F-8807-B1BFA1DBFEAD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE9B4C7-500D-47EB-BE6D-92AD1D35CF94}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -5406,7 +8405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4612BAA-2E94-43DB-8D32-B8E4A4E5FFFC}">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -5978,7 +8977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8A294D-8A6F-470F-8FC6-DE99DB04E18C}">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -5997,31 +8996,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>military_assets!B1</f>
+        <f>military_assets!A1</f>
         <v>Title</v>
       </c>
       <c r="B1" t="str">
-        <f>military_assets!K1</f>
+        <f>military_assets!J1</f>
         <v>Type</v>
       </c>
       <c r="C1" t="str">
+        <f>military_assets!E1</f>
+        <v>Attack</v>
+      </c>
+      <c r="E1" t="str">
         <f>military_assets!F1</f>
-        <v>Attack</v>
-      </c>
-      <c r="E1" t="str">
+        <v>ShoreAttack</v>
+      </c>
+      <c r="F1" t="str">
         <f>military_assets!G1</f>
-        <v>ShoreAttack</v>
-      </c>
-      <c r="F1" t="str">
+        <v>Defense</v>
+      </c>
+      <c r="G1" t="str">
         <f>military_assets!H1</f>
-        <v>Defense</v>
-      </c>
-      <c r="G1" t="str">
+        <v>Logistics</v>
+      </c>
+      <c r="I1" t="str">
         <f>military_assets!I1</f>
-        <v>Logistics</v>
-      </c>
-      <c r="I1" t="str">
-        <f>military_assets!J1</f>
         <v>Rosters</v>
       </c>
       <c r="J1" t="s">
@@ -6042,31 +9041,31 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>military_assets!B2</f>
+        <f>military_assets!A2</f>
         <v>Nimitz Class CVN</v>
       </c>
       <c r="B2" t="str">
-        <f>military_assets!K2</f>
+        <f>military_assets!J2</f>
         <v>Ship</v>
       </c>
       <c r="C2">
+        <f>military_assets!E2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
         <f>military_assets!F2</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>military_assets!G2</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
         <f>military_assets!H2</f>
-        <v>4</v>
-      </c>
-      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="str">
         <f>military_assets!I2</f>
-        <v>8</v>
-      </c>
-      <c r="I2" t="str">
-        <f>military_assets!J2</f>
         <v>USN</v>
       </c>
       <c r="J2">
@@ -6092,31 +9091,31 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>military_assets!B3</f>
+        <f>military_assets!A3</f>
         <v>Gerald R Ford CVN</v>
       </c>
       <c r="B3" t="str">
-        <f>military_assets!K3</f>
+        <f>military_assets!J3</f>
         <v>Ship</v>
       </c>
       <c r="C3">
+        <f>military_assets!E3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
         <f>military_assets!F3</f>
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>military_assets!G3</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
         <f>military_assets!H3</f>
-        <v>4</v>
-      </c>
-      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="str">
         <f>military_assets!I3</f>
-        <v>9</v>
-      </c>
-      <c r="I3" t="str">
-        <f>military_assets!J3</f>
         <v>USN</v>
       </c>
       <c r="J3">
@@ -6142,31 +9141,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>military_assets!B4</f>
+        <f>military_assets!A4</f>
         <v>Wasp Class LHA</v>
       </c>
       <c r="B4" t="str">
-        <f>military_assets!K4</f>
+        <f>military_assets!J4</f>
         <v>Ship</v>
       </c>
       <c r="C4">
+        <f>military_assets!E4</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
         <f>military_assets!F4</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
         <f>military_assets!G4</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>military_assets!H4</f>
         <v>6</v>
       </c>
-      <c r="F4">
-        <f>military_assets!H4</f>
-        <v>2</v>
-      </c>
-      <c r="G4">
+      <c r="I4" t="str">
         <f>military_assets!I4</f>
-        <v>6</v>
-      </c>
-      <c r="I4" t="str">
-        <f>military_assets!J4</f>
         <v>USN</v>
       </c>
       <c r="J4">
@@ -6192,31 +9191,31 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>military_assets!B5</f>
+        <f>military_assets!A5</f>
         <v>America Class LHA</v>
       </c>
       <c r="B5" t="str">
-        <f>military_assets!K5</f>
+        <f>military_assets!J5</f>
         <v>Ship</v>
       </c>
       <c r="C5">
+        <f>military_assets!E5</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
         <f>military_assets!F5</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
         <f>military_assets!G5</f>
-        <v>5</v>
-      </c>
-      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <f>military_assets!H5</f>
-        <v>3</v>
-      </c>
-      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="str">
         <f>military_assets!I5</f>
-        <v>6</v>
-      </c>
-      <c r="I5" t="str">
-        <f>military_assets!J5</f>
         <v>USN</v>
       </c>
       <c r="J5">
@@ -6242,31 +9241,31 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>military_assets!B6</f>
+        <f>military_assets!A6</f>
         <v>Seawolf Class SSN</v>
       </c>
       <c r="B6" t="str">
-        <f>military_assets!K6</f>
+        <f>military_assets!J6</f>
         <v>Submarine</v>
       </c>
       <c r="C6">
+        <f>military_assets!E6</f>
+        <v>4</v>
+      </c>
+      <c r="E6">
         <f>military_assets!F6</f>
-        <v>4</v>
-      </c>
-      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <f>military_assets!G6</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <f>military_assets!H6</f>
-        <v>4</v>
-      </c>
-      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="str">
         <f>military_assets!I6</f>
-        <v>5</v>
-      </c>
-      <c r="I6" t="str">
-        <f>military_assets!J6</f>
         <v>USN</v>
       </c>
       <c r="J6">
@@ -6342,31 +9341,31 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>military_assets!B7</f>
+        <f>military_assets!A7</f>
         <v>Virginia Class SSN</v>
       </c>
       <c r="B8" t="str">
-        <f>military_assets!K7</f>
+        <f>military_assets!J7</f>
         <v>Submarine</v>
       </c>
       <c r="C8">
+        <f>military_assets!E7</f>
+        <v>3</v>
+      </c>
+      <c r="E8">
         <f>military_assets!F7</f>
-        <v>3</v>
-      </c>
-      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <f>military_assets!G7</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <f>military_assets!H7</f>
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="I8" t="str">
         <f>military_assets!I7</f>
-        <v>4</v>
-      </c>
-      <c r="I8" t="str">
-        <f>military_assets!J7</f>
         <v>USN</v>
       </c>
       <c r="J8">
@@ -6392,31 +9391,31 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>military_assets!B8</f>
+        <f>military_assets!A8</f>
         <v>Ohio Class SSGN</v>
       </c>
       <c r="B9" t="str">
-        <f>military_assets!K8</f>
+        <f>military_assets!J8</f>
         <v>Submarine</v>
       </c>
       <c r="C9">
+        <f>military_assets!E8</f>
+        <v>5</v>
+      </c>
+      <c r="E9">
         <f>military_assets!F8</f>
-        <v>5</v>
-      </c>
-      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
         <f>military_assets!G8</f>
-        <v>4</v>
-      </c>
-      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
         <f>military_assets!H8</f>
-        <v>3</v>
-      </c>
-      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="str">
         <f>military_assets!I8</f>
-        <v>6</v>
-      </c>
-      <c r="I9" t="str">
-        <f>military_assets!J8</f>
         <v>USN</v>
       </c>
       <c r="J9">
@@ -6442,31 +9441,31 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>military_assets!B9</f>
+        <f>military_assets!A9</f>
         <v>Ticonderoga Class CG</v>
       </c>
       <c r="B10" t="str">
-        <f>military_assets!K9</f>
+        <f>military_assets!J9</f>
         <v>Ship</v>
       </c>
       <c r="C10">
+        <f>military_assets!E9</f>
+        <v>2</v>
+      </c>
+      <c r="E10">
         <f>military_assets!F9</f>
-        <v>2</v>
-      </c>
-      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <f>military_assets!G9</f>
-        <v>1</v>
-      </c>
-      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
         <f>military_assets!H9</f>
-        <v>3</v>
-      </c>
-      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="str">
         <f>military_assets!I9</f>
-        <v>4</v>
-      </c>
-      <c r="I10" t="str">
-        <f>military_assets!J9</f>
         <v>USN</v>
       </c>
       <c r="J10">
@@ -6492,31 +9491,31 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>military_assets!B10</f>
+        <f>military_assets!A10</f>
         <v>Arleigh Burke Class DDG</v>
       </c>
       <c r="B11" t="str">
-        <f>military_assets!K10</f>
+        <f>military_assets!J10</f>
         <v>Ship</v>
       </c>
       <c r="C11">
+        <f>military_assets!E10</f>
+        <v>2</v>
+      </c>
+      <c r="E11">
         <f>military_assets!F10</f>
-        <v>2</v>
-      </c>
-      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <f>military_assets!G10</f>
-        <v>1</v>
-      </c>
-      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <f>military_assets!H10</f>
-        <v>2</v>
-      </c>
-      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="str">
         <f>military_assets!I10</f>
-        <v>3</v>
-      </c>
-      <c r="I11" t="str">
-        <f>military_assets!J10</f>
         <v>USN</v>
       </c>
       <c r="J11">
@@ -6542,31 +9541,31 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>military_assets!B11</f>
+        <f>military_assets!A11</f>
         <v>Zumwalt Class DDG</v>
       </c>
       <c r="B12" t="str">
-        <f>military_assets!K11</f>
+        <f>military_assets!J11</f>
         <v>Ship</v>
       </c>
       <c r="C12">
+        <f>military_assets!E11</f>
+        <v>2</v>
+      </c>
+      <c r="E12">
         <f>military_assets!F11</f>
-        <v>2</v>
-      </c>
-      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <f>military_assets!G11</f>
-        <v>1</v>
-      </c>
-      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
         <f>military_assets!H11</f>
-        <v>4</v>
-      </c>
-      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="I12" t="str">
         <f>military_assets!I11</f>
-        <v>6</v>
-      </c>
-      <c r="I12" t="str">
-        <f>military_assets!J11</f>
         <v>USN</v>
       </c>
       <c r="J12">
@@ -6592,31 +9591,31 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>military_assets!B12</f>
+        <f>military_assets!A12</f>
         <v>F/A-18 Superhornet Strike Squadron</v>
       </c>
       <c r="B13" t="str">
-        <f>military_assets!K12</f>
+        <f>military_assets!J12</f>
         <v>Fixed-Wing</v>
       </c>
       <c r="C13">
+        <f>military_assets!E12</f>
+        <v>4</v>
+      </c>
+      <c r="E13">
         <f>military_assets!F12</f>
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f>military_assets!G12</f>
-        <v>4</v>
-      </c>
-      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
         <f>military_assets!H12</f>
-        <v>3</v>
-      </c>
-      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="str">
         <f>military_assets!I12</f>
-        <v>2</v>
-      </c>
-      <c r="I13" t="str">
-        <f>military_assets!J12</f>
         <v>USN</v>
       </c>
       <c r="J13">
@@ -6642,31 +9641,31 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>military_assets!B13</f>
+        <f>military_assets!A13</f>
         <v>F-35B Lightning II</v>
       </c>
       <c r="B14" t="str">
-        <f>military_assets!K13</f>
+        <f>military_assets!J13</f>
         <v>VTOL</v>
       </c>
       <c r="C14">
+        <f>military_assets!E13</f>
+        <v>4</v>
+      </c>
+      <c r="E14">
         <f>military_assets!F13</f>
-        <v>4</v>
-      </c>
-      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
         <f>military_assets!G13</f>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f>military_assets!H13</f>
         <v>3</v>
       </c>
-      <c r="F14">
-        <f>military_assets!H13</f>
-        <v>2</v>
-      </c>
-      <c r="G14">
+      <c r="I14" t="str">
         <f>military_assets!I13</f>
-        <v>3</v>
-      </c>
-      <c r="I14" t="str">
-        <f>military_assets!J13</f>
         <v>USN</v>
       </c>
       <c r="J14">
@@ -6692,31 +9691,31 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>military_assets!B14</f>
+        <f>military_assets!A14</f>
         <v>F-35C  Lightning II</v>
       </c>
       <c r="B15" t="str">
-        <f>military_assets!K14</f>
+        <f>military_assets!J14</f>
         <v>Fixed-Wing</v>
       </c>
       <c r="C15">
+        <f>military_assets!E14</f>
+        <v>4</v>
+      </c>
+      <c r="E15">
         <f>military_assets!F14</f>
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f>military_assets!G14</f>
-        <v>4</v>
-      </c>
-      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
         <f>military_assets!H14</f>
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="I15" t="str">
         <f>military_assets!I14</f>
-        <v>2</v>
-      </c>
-      <c r="I15" t="str">
-        <f>military_assets!J14</f>
         <v>USN</v>
       </c>
       <c r="J15">
@@ -6742,31 +9741,31 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>military_assets!B15</f>
+        <f>military_assets!A15</f>
         <v>AV-8B Harrier II</v>
       </c>
       <c r="B16" t="str">
-        <f>military_assets!K15</f>
+        <f>military_assets!J15</f>
         <v>VTOL</v>
       </c>
       <c r="C16">
+        <f>military_assets!E15</f>
+        <v>3</v>
+      </c>
+      <c r="E16">
         <f>military_assets!F15</f>
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f>military_assets!G15</f>
-        <v>3</v>
-      </c>
-      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
         <f>military_assets!H15</f>
-        <v>2</v>
-      </c>
-      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
         <f>military_assets!I15</f>
-        <v>1</v>
-      </c>
-      <c r="I16" t="str">
-        <f>military_assets!J15</f>
         <v>USN</v>
       </c>
       <c r="J16">
@@ -6792,31 +9791,31 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>military_assets!B16</f>
+        <f>military_assets!A16</f>
         <v>Kuznetsov Class CV</v>
       </c>
       <c r="B17" t="str">
-        <f>military_assets!K16</f>
+        <f>military_assets!J16</f>
         <v>Ship</v>
       </c>
       <c r="C17">
+        <f>military_assets!E16</f>
+        <v>4</v>
+      </c>
+      <c r="E17">
         <f>military_assets!F16</f>
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f>military_assets!G16</f>
-        <v>4</v>
-      </c>
-      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
         <f>military_assets!H16</f>
-        <v>5</v>
-      </c>
-      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="I17" t="str">
         <f>military_assets!I16</f>
-        <v>7</v>
-      </c>
-      <c r="I17" t="str">
-        <f>military_assets!J16</f>
         <v>RUS</v>
       </c>
       <c r="J17">
@@ -6842,31 +9841,31 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>military_assets!B17</f>
+        <f>military_assets!A17</f>
         <v>Kirov Class CGN</v>
       </c>
       <c r="B18" t="str">
-        <f>military_assets!K17</f>
+        <f>military_assets!J17</f>
         <v>Ship</v>
       </c>
       <c r="C18">
+        <f>military_assets!E17</f>
+        <v>6</v>
+      </c>
+      <c r="E18">
         <f>military_assets!F17</f>
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <f>military_assets!G17</f>
         <v>6</v>
       </c>
-      <c r="E18">
-        <f>military_assets!G17</f>
-        <v>4</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <f>military_assets!H17</f>
         <v>6</v>
       </c>
-      <c r="G18">
+      <c r="I18" t="str">
         <f>military_assets!I17</f>
-        <v>6</v>
-      </c>
-      <c r="I18" t="str">
-        <f>military_assets!J17</f>
         <v>RUS</v>
       </c>
       <c r="J18">
@@ -6892,31 +9891,31 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>military_assets!B18</f>
+        <f>military_assets!A18</f>
         <v>Slava Class CG</v>
       </c>
       <c r="B19" t="str">
-        <f>military_assets!K18</f>
+        <f>military_assets!J18</f>
         <v>Ship</v>
       </c>
       <c r="C19">
+        <f>military_assets!E18</f>
+        <v>4</v>
+      </c>
+      <c r="E19">
         <f>military_assets!F18</f>
-        <v>4</v>
-      </c>
-      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
         <f>military_assets!G18</f>
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f>military_assets!H18</f>
-        <v>2</v>
-      </c>
-      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="I19" t="str">
         <f>military_assets!I18</f>
-        <v>3</v>
-      </c>
-      <c r="I19" t="str">
-        <f>military_assets!J18</f>
         <v>RUS</v>
       </c>
       <c r="J19">
@@ -6942,31 +9941,31 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>military_assets!B19</f>
+        <f>military_assets!A19</f>
         <v>Udaloy Class DDG</v>
       </c>
       <c r="B20" t="str">
-        <f>military_assets!K19</f>
+        <f>military_assets!J19</f>
         <v>Ship</v>
       </c>
       <c r="C20">
+        <f>military_assets!E19</f>
+        <v>2</v>
+      </c>
+      <c r="E20">
         <f>military_assets!F19</f>
         <v>2</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f>military_assets!G19</f>
         <v>2</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f>military_assets!H19</f>
         <v>2</v>
       </c>
-      <c r="G20">
+      <c r="I20" t="str">
         <f>military_assets!I19</f>
-        <v>2</v>
-      </c>
-      <c r="I20" t="str">
-        <f>military_assets!J19</f>
         <v>RUS</v>
       </c>
       <c r="J20">
@@ -6992,31 +9991,31 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>military_assets!B20</f>
+        <f>military_assets!A20</f>
         <v>Gorshkov Class FFG</v>
       </c>
       <c r="B21" t="str">
-        <f>military_assets!K20</f>
+        <f>military_assets!J20</f>
         <v>Ship</v>
       </c>
       <c r="C21">
+        <f>military_assets!E20</f>
+        <v>3</v>
+      </c>
+      <c r="E21">
         <f>military_assets!F20</f>
-        <v>3</v>
-      </c>
-      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <f>military_assets!G20</f>
-        <v>1</v>
-      </c>
-      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
         <f>military_assets!H20</f>
-        <v>2</v>
-      </c>
-      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
         <f>military_assets!I20</f>
-        <v>1</v>
-      </c>
-      <c r="I21" t="str">
-        <f>military_assets!J20</f>
         <v>RUS</v>
       </c>
       <c r="J21">
@@ -7042,31 +10041,31 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>military_assets!B21</f>
+        <f>military_assets!A21</f>
         <v>Yassen Class SSGN</v>
       </c>
       <c r="B22" t="str">
-        <f>military_assets!K21</f>
+        <f>military_assets!J21</f>
         <v>Submarine</v>
       </c>
       <c r="C22">
+        <f>military_assets!E21</f>
+        <v>3</v>
+      </c>
+      <c r="E22">
         <f>military_assets!F21</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>military_assets!G21</f>
         <v>3</v>
       </c>
-      <c r="E22">
-        <f>military_assets!G21</f>
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <f>military_assets!H21</f>
         <v>3</v>
       </c>
-      <c r="G22">
+      <c r="I22" t="str">
         <f>military_assets!I21</f>
-        <v>3</v>
-      </c>
-      <c r="I22" t="str">
-        <f>military_assets!J21</f>
         <v>RUS</v>
       </c>
       <c r="J22">
@@ -7092,31 +10091,31 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>military_assets!B22</f>
+        <f>military_assets!A22</f>
         <v>Lada Class SSK</v>
       </c>
       <c r="B23" t="str">
-        <f>military_assets!K22</f>
+        <f>military_assets!J22</f>
         <v>Submarine</v>
       </c>
       <c r="C23">
+        <f>military_assets!E22</f>
+        <v>3</v>
+      </c>
+      <c r="E23">
         <f>military_assets!F22</f>
-        <v>3</v>
-      </c>
-      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <f>military_assets!G22</f>
-        <v>0</v>
-      </c>
-      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <f>military_assets!H22</f>
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="I23" t="str">
         <f>military_assets!I22</f>
-        <v>1</v>
-      </c>
-      <c r="I23" t="str">
-        <f>military_assets!J22</f>
         <v>RUS</v>
       </c>
       <c r="J23">
@@ -7142,31 +10141,31 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>military_assets!B23</f>
+        <f>military_assets!A23</f>
         <v>Oscar II SSGN</v>
       </c>
       <c r="B24" t="str">
-        <f>military_assets!K23</f>
+        <f>military_assets!J23</f>
         <v>Submarine</v>
       </c>
       <c r="C24">
+        <f>military_assets!E23</f>
+        <v>6</v>
+      </c>
+      <c r="E24">
         <f>military_assets!F23</f>
-        <v>6</v>
-      </c>
-      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <f>military_assets!G23</f>
-        <v>0</v>
-      </c>
-      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
         <f>military_assets!H23</f>
-        <v>2</v>
-      </c>
-      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="str">
         <f>military_assets!I23</f>
-        <v>5</v>
-      </c>
-      <c r="I24" t="str">
-        <f>military_assets!J23</f>
         <v>RUS</v>
       </c>
       <c r="J24">
@@ -7192,31 +10191,31 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>military_assets!B24</f>
+        <f>military_assets!A24</f>
         <v>Mig-29K Strike Squadron</v>
       </c>
       <c r="B25" t="str">
-        <f>military_assets!K24</f>
+        <f>military_assets!J24</f>
         <v>Fixed-Wing</v>
       </c>
       <c r="C25">
+        <f>military_assets!E24</f>
+        <v>4</v>
+      </c>
+      <c r="E25">
         <f>military_assets!F24</f>
-        <v>4</v>
-      </c>
-      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
         <f>military_assets!G24</f>
         <v>3</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f>military_assets!H24</f>
-        <v>3</v>
-      </c>
-      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
         <f>military_assets!I24</f>
-        <v>1</v>
-      </c>
-      <c r="I25" t="str">
-        <f>military_assets!J24</f>
         <v>RUS</v>
       </c>
       <c r="J25">
@@ -7242,31 +10241,31 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>military_assets!B25</f>
+        <f>military_assets!A25</f>
         <v>Su-33 Flanker-D Strike Squadron</v>
       </c>
       <c r="B26" t="str">
-        <f>military_assets!K25</f>
+        <f>military_assets!J25</f>
         <v>Fixed-Wing</v>
       </c>
       <c r="C26">
+        <f>military_assets!E25</f>
+        <v>4</v>
+      </c>
+      <c r="E26">
         <f>military_assets!F25</f>
         <v>4</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f>military_assets!G25</f>
-        <v>4</v>
-      </c>
-      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
         <f>military_assets!H25</f>
-        <v>3</v>
-      </c>
-      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
         <f>military_assets!I25</f>
-        <v>1</v>
-      </c>
-      <c r="I26" t="str">
-        <f>military_assets!J25</f>
         <v>RUS</v>
       </c>
       <c r="J26">

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liber\Dropbox\projects\current projects\naval card game\version1dot2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shipcards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8117ADF-D7F1-4CF1-B06A-F621774637D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4B8586-B546-4913-AFA0-D2C0CE3E743C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
   </bookViews>
   <sheets>
     <sheet name="military_asset_final" sheetId="7" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="260">
   <si>
     <t>Title</t>
   </si>
@@ -108,15 +108,9 @@
     <t>NATO Allies</t>
   </si>
   <si>
-    <t>You may play aircraft cards without a carrier as long as you control a face up ship at an additional cost of 2 per action</t>
-  </si>
-  <si>
     <t>The Long Winter</t>
   </si>
   <si>
-    <t>Both players must discard 2 cards from their deck at the end of each turn</t>
-  </si>
-  <si>
     <t>State Controlled Media</t>
   </si>
   <si>
@@ -132,12 +126,6 @@
     <t>Submarine</t>
   </si>
   <si>
-    <t>Special Purposes: When flipped, opponent must reveal one card from their hand or hidden on the board</t>
-  </si>
-  <si>
-    <t>Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, it deals 1 damage directly to your opponent</t>
-  </si>
-  <si>
     <t>Logistics</t>
   </si>
   <si>
@@ -156,9 +144,6 @@
     <t>F-35C  Lightning II</t>
   </si>
   <si>
-    <t>Stealth Fighter: If the combined attack of stealth fighters + bonuses exceeds the combined defense of enemy assets, enemy assets do no damage in combat</t>
-  </si>
-  <si>
     <t>Roster</t>
   </si>
   <si>
@@ -216,9 +201,6 @@
     <t>Pine Gap</t>
   </si>
   <si>
-    <t>RAINFALL: If controlled by a USN player, mark one enemy ship. That ship loses the stealth tag and cannot hide. If it is hidden, flip it. The target of this action may be changed during the first deployment step</t>
-  </si>
-  <si>
     <t>Marine Corps Base, Okinawa</t>
   </si>
   <si>
@@ -246,39 +228,24 @@
     <t>Grants 2 logistics capacity to the USN player if controlled by their opponent</t>
   </si>
   <si>
-    <t>Your opponents must discard 1 card from their deck each turn for every Russian territory they control</t>
-  </si>
-  <si>
     <t>Uncommon Valor Was A Common Virtue</t>
   </si>
   <si>
-    <t>You may choose one attack against a territory in which you have won the combat. You automatically succeed during the assault step for that territory.</t>
-  </si>
-  <si>
     <t>I Have Not Yet Begun To Fight</t>
   </si>
   <si>
     <t>AF Is Short On Water</t>
   </si>
   <si>
-    <t>One military asset that participated in a previous combat this turn may participate in a second combat.</t>
-  </si>
-  <si>
     <t>Build 'em Faster Than They Can Sink 'Em</t>
   </si>
   <si>
-    <t>Whenever a ship deals shore damage, it deals +1 damage</t>
-  </si>
-  <si>
     <t>Gunboat Diplomacy</t>
   </si>
   <si>
     <t>Friendly ships have +2 shore attack when assaulting undefended territories</t>
   </si>
   <si>
-    <t>Whenever you lose a ship of logistics 3 or greater, draw a card</t>
-  </si>
-  <si>
     <t>One Million Deaths Is A Statistic</t>
   </si>
   <si>
@@ -294,18 +261,9 @@
     <t>Death By Natural Causes</t>
   </si>
   <si>
-    <t>Ignore the effects of a tactic card</t>
-  </si>
-  <si>
-    <t>You take no damage from direct assaults this turn</t>
-  </si>
-  <si>
     <t>Strategic Flexibility</t>
   </si>
   <si>
-    <t>This strategy is a copy of your opponents current strategy or a strategy in their discard pile</t>
-  </si>
-  <si>
     <t>Beyond the Urals</t>
   </si>
   <si>
@@ -375,9 +333,6 @@
     <t>Kondor SSN</t>
   </si>
   <si>
-    <t>AEGIS: +2 Help Defense</t>
-  </si>
-  <si>
     <t>F/A-18 Superhornet Strike Squadron</t>
   </si>
   <si>
@@ -429,9 +384,6 @@
     <t>Gorshkov Class FFG</t>
   </si>
   <si>
-    <t>Udaloy Class DDG</t>
-  </si>
-  <si>
     <t>Slava Class CG</t>
   </si>
   <si>
@@ -441,12 +393,6 @@
     <t>Kuznetsov Class CV</t>
   </si>
   <si>
-    <t>ASW</t>
-  </si>
-  <si>
-    <t>AIR</t>
-  </si>
-  <si>
     <t>Akula Class SSN</t>
   </si>
   <si>
@@ -531,36 +477,9 @@
     <t>Images/akula.jpg</t>
   </si>
   <si>
-    <t>CATOBAR: Compatible with all carrier aircraft squadrons</t>
-  </si>
-  <si>
-    <t>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.</t>
-  </si>
-  <si>
-    <t>E-2C Hawkeye: All friendly air squadrons in combat with this asset have +1 attack and  defense</t>
-  </si>
-  <si>
-    <t>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</t>
-  </si>
-  <si>
-    <t>STOBAR: Compatible with STOBAR and VTOL squadrons</t>
-  </si>
-  <si>
-    <t>VTOL: Compatible with all VTOL carrier aircraft squadrons</t>
-  </si>
-  <si>
     <t>UNUSED</t>
   </si>
   <si>
-    <t>Coastal Defender: Cannot attack</t>
-  </si>
-  <si>
-    <t>Commerce Raider: Deals damage during assault with attack instead of shore attack</t>
-  </si>
-  <si>
-    <t>E-2D Hawkeye-I: All friendly air squadrons in combat with this asset have +1 attack and  defense. Enemy air squadrons lose Ambush</t>
-  </si>
-  <si>
     <t>That's the Spirit!</t>
   </si>
   <si>
@@ -570,15 +489,6 @@
     <t>Look at and reorder the top 4 cards of your deck. You may put any number on the bottom of your deck</t>
   </si>
   <si>
-    <t>Retrieve one card from your discard pile and put it on top of your deck</t>
-  </si>
-  <si>
-    <t>Flip All Opposing Ships</t>
-  </si>
-  <si>
-    <t>Deal 6 damage to one face-up ship</t>
-  </si>
-  <si>
     <t>Images/scuttlebutt.jpg</t>
   </si>
   <si>
@@ -630,15 +540,6 @@
     <t>Images/b2.jpg</t>
   </si>
   <si>
-    <t>You oppone must discard 2 cards from their hand. If they have fewer than 2 cards, the remainder must be discarded from their deck.</t>
-  </si>
-  <si>
-    <t>Your submarines have an additional 1 defense</t>
-  </si>
-  <si>
-    <t>Ships you control require -1 logistics</t>
-  </si>
-  <si>
     <t>In Soviet Russia, Land Conquers You</t>
   </si>
   <si>
@@ -657,7 +558,289 @@
     <t>Version</t>
   </si>
   <si>
-    <t>USS Nimitz</t>
+    <t>Unused0</t>
+  </si>
+  <si>
+    <t>Unused1</t>
+  </si>
+  <si>
+    <t>Unused2</t>
+  </si>
+  <si>
+    <t>USS Fitzgerald</t>
+  </si>
+  <si>
+    <t>USS Cole</t>
+  </si>
+  <si>
+    <t>USS Porter</t>
+  </si>
+  <si>
+    <t>USS Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>USS Carl Vinson</t>
+  </si>
+  <si>
+    <t>USS Essex</t>
+  </si>
+  <si>
+    <t>USS Bonhomme Richard</t>
+  </si>
+  <si>
+    <t>USS California</t>
+  </si>
+  <si>
+    <t>USS Seawolf</t>
+  </si>
+  <si>
+    <t>USS North Dakota</t>
+  </si>
+  <si>
+    <t>USS Alabama</t>
+  </si>
+  <si>
+    <t>USS Bunker Hill</t>
+  </si>
+  <si>
+    <t>USS Philippine Sea</t>
+  </si>
+  <si>
+    <t>USS Princeton</t>
+  </si>
+  <si>
+    <t>Admiral Kuznetsov</t>
+  </si>
+  <si>
+    <t>Pyotr Velikiy</t>
+  </si>
+  <si>
+    <t>Admiral Nahkimov</t>
+  </si>
+  <si>
+    <t>Admiral Lazarev</t>
+  </si>
+  <si>
+    <t>Moskva</t>
+  </si>
+  <si>
+    <t>Varyag</t>
+  </si>
+  <si>
+    <t>Admiral Chabenenko</t>
+  </si>
+  <si>
+    <t>Admiral Panteleyev</t>
+  </si>
+  <si>
+    <t>Admiral Kasatanov</t>
+  </si>
+  <si>
+    <t>Admiral Gorshkov</t>
+  </si>
+  <si>
+    <t>Severodvinsk</t>
+  </si>
+  <si>
+    <t>Kazan</t>
+  </si>
+  <si>
+    <t>Sankt Peterburg</t>
+  </si>
+  <si>
+    <t>Tver</t>
+  </si>
+  <si>
+    <t>Chelyabinsk</t>
+  </si>
+  <si>
+    <t>Gepard</t>
+  </si>
+  <si>
+    <t>Vepr</t>
+  </si>
+  <si>
+    <t>Tigr</t>
+  </si>
+  <si>
+    <t>Leopard</t>
+  </si>
+  <si>
+    <t>Squadron I</t>
+  </si>
+  <si>
+    <t>Squadron II</t>
+  </si>
+  <si>
+    <t>The F-35B is a special variant of the F-35 capable of taking off vertically. This will allow it to be used in conjunction with ships that have typically not been able to field modern aircraft.</t>
+  </si>
+  <si>
+    <t>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points-a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</t>
+  </si>
+  <si>
+    <t>Although sold to a company in Macau supposedly for use as a floating casino, Kuznetsov's sister ship has since unsurprisingly become the first aircraft carrier of the Chinese People's Liberation Army Navy.</t>
+  </si>
+  <si>
+    <t>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</t>
+  </si>
+  <si>
+    <t>Udaloy II Class DDG</t>
+  </si>
+  <si>
+    <t>Udaloy II: the ship so nice they designed it twice.</t>
+  </si>
+  <si>
+    <t>The cutting-edge Gorshkov frigates stick out in the largely-outdated Russian surface warfare fleet.</t>
+  </si>
+  <si>
+    <t>The massive Oscar is designed to use a barrage of large guided missiles to destroy US Navy aircraft carriers, which are among the most well-guarded military assets in the world.</t>
+  </si>
+  <si>
+    <t>It's a plane, comrade.</t>
+  </si>
+  <si>
+    <t>In Russian, akula means shark</t>
+  </si>
+  <si>
+    <t>A military airbase at sea, a Nimitz carrier is more than three times longer than a football field and has more than twice the displacement of the German super-battleship Bismarck.</t>
+  </si>
+  <si>
+    <t>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</t>
+  </si>
+  <si>
+    <t>The advanced Virginia will be the standard attack submarine of the US Navy until at least the middle of the 21st century.</t>
+  </si>
+  <si>
+    <t>Although Ohio was originally intended to carry nuclear ballistic missiles, some Ohio's have been modified as SSGNs for surface warfare and land-attack missions.</t>
+  </si>
+  <si>
+    <t>Despite a modest displacement by historical standards, the Ticonderoga is the largest surface combatant in the US Navy.</t>
+  </si>
+  <si>
+    <t>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</t>
+  </si>
+  <si>
+    <t>Zumwalt was designed to perform a shore bombardment role that has remained unfilled in the navy since the retirement of the last battleship. Since no ammunition has yet been produced for its custom howitzer, this role remains unfulfilled today.</t>
+  </si>
+  <si>
+    <t>The F/A-18 is one of the longest-tenured and most battle-proven multirole carrier aircraft in the world.</t>
+  </si>
+  <si>
+    <t>The F-35 acquisition program cost of just under $450 billion USD would be enough to buy 450 billion $1 cheeseburgers - enough to kill all humans on earth.</t>
+  </si>
+  <si>
+    <t>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form factor.</t>
+  </si>
+  <si>
+    <t>The Yasen is a highly advanced attack submarine for the frugal modern navy.</t>
+  </si>
+  <si>
+    <t>Although shorter-ranged than nuclear attack submarines, diesel-electric attack submarines are smaller, quiter and nearly as well armed.</t>
+  </si>
+  <si>
+    <t>Special Purposes: When flipped, opponent must reveal one card from their hand at random.</t>
+  </si>
+  <si>
+    <t>VTOL: Compatible with all VTOL carrier aircraft squadrons.</t>
+  </si>
+  <si>
+    <t>E-2C Hawkeye: All friendly air squadrons in combat with this asset have +1 attack and  defense.</t>
+  </si>
+  <si>
+    <t>CATOBAR: Compatible with all carrier aircraft squadrons.</t>
+  </si>
+  <si>
+    <t>AEGIS: +2 Help Defense.</t>
+  </si>
+  <si>
+    <t>Stealth Fighter: If the combined attack of stealth fighters + bonuses exceeds the combined defense of enemy assets, enemy assets do no damage in combat.</t>
+  </si>
+  <si>
+    <t>RAINFALL: If controlled by a USN player, mark one enemy ship. That ship loses the stealth tag and cannot hide. If it is hidden, flip it. The target of this action may be changed during the first deployment step.</t>
+  </si>
+  <si>
+    <t>Coastal Defender: Cannot attack.</t>
+  </si>
+  <si>
+    <t>STOBAR: Compatible with STOBAR and VTOL squadrons.</t>
+  </si>
+  <si>
+    <t>Commerce Raider: Deals damage during assault with attack instead of shore attack.</t>
+  </si>
+  <si>
+    <t>E-2D Hawkeye-I: All friendly air squadrons in combat with this asset have +1 attack and  defense. Enemy air squadrons lose Ambush.</t>
+  </si>
+  <si>
+    <t>Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, your opponent must discard one card from their deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden: Can be played face down. </t>
+  </si>
+  <si>
+    <t>Ambush: This asset deals damage before other assets in combat.</t>
+  </si>
+  <si>
+    <t>As the most expensive class of attack submarine ever built, the Seawolf is the apex predator of the US Navy's submarine fleet.</t>
+  </si>
+  <si>
+    <t>With a 15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</t>
+  </si>
+  <si>
+    <t>A ship your opponent controls must attack this turn, if able.</t>
+  </si>
+  <si>
+    <t>Whenever a ship you control assaults, it has +2 assault.</t>
+  </si>
+  <si>
+    <t>Flip all military assets your opponents control.</t>
+  </si>
+  <si>
+    <t>Whenever you lose a military asset of logistics 3 or greater, draw a card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of your assaults this turn automatically capture territories. </t>
+  </si>
+  <si>
+    <t>Retrieve one card from your discard pile and put it on top of your deck.</t>
+  </si>
+  <si>
+    <t>Search your deck for a air squadron, reveal it, and place it on a territory you control. You must control a territory to play this card.</t>
+  </si>
+  <si>
+    <t>Both players must discard 2 cards from their deck at the end of each turn.</t>
+  </si>
+  <si>
+    <t>Images/nato.jpg</t>
+  </si>
+  <si>
+    <t>Your submarines have a 1 more defense.</t>
+  </si>
+  <si>
+    <t>Ships you control require 1 less logistics.</t>
+  </si>
+  <si>
+    <t>You opponent must discard 2 cards from their hand.</t>
+  </si>
+  <si>
+    <t>When drawing a card, you may choose to reveal that card and place it on the bottom of your deck.</t>
+  </si>
+  <si>
+    <t>Russian territories your opponents control provide -2 logistics</t>
+  </si>
+  <si>
+    <t>Ignore the effects of a tactic card.</t>
+  </si>
+  <si>
+    <t>Deal 6 damage to one face-up ship, ignoring help defense.</t>
+  </si>
+  <si>
+    <t>Search your deck for a strategy card, reveal that card and put it into your hand. Then shuffle your deck.</t>
+  </si>
+  <si>
+    <t>Squadron III</t>
+  </si>
+  <si>
+    <t>"I believe that I interpret the will of the Congress and of the people when I assert that we will not only defend ourselves to the uttermost, but will make it very certain that this form of treachery shall never again endanger us." - President Franklin D. Roosevelt</t>
   </si>
 </sst>
 </file>
@@ -693,11 +876,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,7 +1024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4911251-5800-4317-AECA-44121B06D98C}" type="CELLRANGE">
+                    <a:fld id="{CA3020AF-435C-42D1-A6DE-3695ACA5F5A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -871,7 +1057,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5CFC346-9598-4028-B165-FB172FFEEEC8}" type="CELLRANGE">
+                    <a:fld id="{D7DF1957-F492-4CB3-B19E-14603D715619}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -904,7 +1090,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCE238BA-5FD4-4492-9B32-F03050657F6E}" type="CELLRANGE">
+                    <a:fld id="{27674D10-129F-4C93-8FE5-FDE06E871657}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -937,7 +1123,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34165B02-D541-4659-A1AC-D95193AAE053}" type="CELLRANGE">
+                    <a:fld id="{61350C55-2C60-4A22-9FC7-00ED8B5E1413}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -970,7 +1156,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A12E634F-0DA8-4343-86B5-7E2890C8DE62}" type="CELLRANGE">
+                    <a:fld id="{960A3616-DB35-4498-A2D9-1F571AA53778}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1003,7 +1189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F75FEE66-1B44-41C4-89D3-1809AEFAC41B}" type="CELLRANGE">
+                    <a:fld id="{E7F57596-5347-4055-9CD6-A7C7765E5FFA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1036,7 +1222,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F11B15C3-6ED7-40B7-9B4F-4601309EB2CA}" type="CELLRANGE">
+                    <a:fld id="{BC721393-208C-48F1-8086-F5620DBD0436}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1069,7 +1255,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7B38E37-3AF1-4883-AB8A-080AFB462ABD}" type="CELLRANGE">
+                    <a:fld id="{B310132F-BE67-4DA8-B284-0A56E4A9D525}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1102,7 +1288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B8E9F57-65D2-4290-9795-C15099AF702E}" type="CELLRANGE">
+                    <a:fld id="{95B6E2E1-9990-4B21-AC6E-36353CAA2DC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1135,7 +1321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC43C91F-4687-46D5-8276-0F3171B5BA50}" type="CELLRANGE">
+                    <a:fld id="{0B5CECE6-EBCE-4B59-9BEF-8244C24BFC07}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1168,7 +1354,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9062E8AE-2F91-4555-8DFB-E49BFA342B71}" type="CELLRANGE">
+                    <a:fld id="{D795CE5E-FABC-4B01-A88D-594652F38565}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1201,7 +1387,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7B0F472-9CAF-43BD-8653-670FC4D25929}" type="CELLRANGE">
+                    <a:fld id="{EFF79813-E489-4E14-95DF-3397FC87AE57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1234,7 +1420,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4A75AC0-F6D2-41B7-901F-4BC7CB2DF0E1}" type="CELLRANGE">
+                    <a:fld id="{ECCCFF29-F442-47D1-9535-CD0914E62D96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1267,7 +1453,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{620841E7-C7B0-4818-AEEA-8E04E0F0299E}" type="CELLRANGE">
+                    <a:fld id="{E84FC9C3-7E3D-4E3A-8892-5F433CF3DCA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1300,7 +1486,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{687C2973-86A1-43B3-81D7-AA802CFC97D0}" type="CELLRANGE">
+                    <a:fld id="{644A2A11-571F-4104-8A68-0EE7157EC9E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1333,7 +1519,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F350ECF-3AFD-4E18-AC24-4B491B7324E8}" type="CELLRANGE">
+                    <a:fld id="{A7ECEC42-9FA3-46BA-8E47-AE054CEAC88B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1366,7 +1552,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8118925F-3595-4DC6-A135-8F478477CA14}" type="CELLRANGE">
+                    <a:fld id="{E5220966-AF98-4996-99C3-7DF8182C2CB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1399,7 +1585,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8429EA7A-667F-4984-A014-114400E5E0B7}" type="CELLRANGE">
+                    <a:fld id="{4F63CEF5-4BDA-4AA5-A360-5563E64B8D6B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1432,7 +1618,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{141D40A8-2131-4C07-B72B-EC55C91C81CB}" type="CELLRANGE">
+                    <a:fld id="{B0BDA39E-FF19-495E-9162-114417E342B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1465,7 +1651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{250AB930-BF83-4FBB-87FC-CD94F8F28855}" type="CELLRANGE">
+                    <a:fld id="{F975E897-1688-4344-943A-E3C53C320451}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1498,7 +1684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56744084-CC68-4460-9EC9-6CCF9BB703B4}" type="CELLRANGE">
+                    <a:fld id="{E34759D3-7FD2-45A6-AF1D-C0A2F1AD833C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1531,7 +1717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00F9088F-691B-438D-9E6F-6D11C169349B}" type="CELLRANGE">
+                    <a:fld id="{DFEA63FC-AC31-4E11-B532-5C20E5B7BD9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1564,7 +1750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{041BE47E-EA39-4B9B-8B6E-F8DEF70DAD43}" type="CELLRANGE">
+                    <a:fld id="{F104EEC6-24F1-452F-8AAB-81164AD6EA42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1597,7 +1783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52DD5413-61F3-4545-BD41-A4538ED00329}" type="CELLRANGE">
+                    <a:fld id="{17D427E4-29C9-4CE0-97CA-70EE1FDE0BA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1630,7 +1816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4202DA67-DCCA-4A51-AA36-3B6BEAFF7B70}" type="CELLRANGE">
+                    <a:fld id="{9D70B78F-9317-46EB-8BB9-544FCBF4867B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2504,7 +2690,7 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.5</c:v>
@@ -2531,7 +2717,7 @@
                   <c:v>1.857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.6666666666666665</c:v>
@@ -2622,7 +2808,7 @@
                     <c:v>Slava Class CG</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Udaloy Class DDG</c:v>
+                    <c:v>Udaloy II Class DDG</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Gorshkov Class FFG</c:v>
@@ -3856,16 +4042,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E8987D-349F-4742-AF8A-4428C54D0A0B}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="54.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -3873,26 +4061,26 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" t="s">
-        <v>194</v>
+        <v>162</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D1" t="str">
         <f>military_assets!A1</f>
         <v>Title</v>
       </c>
-      <c r="E1">
+      <c r="E1" t="str">
         <f>military_assets!B1</f>
-        <v>0</v>
+        <v>Unused0</v>
       </c>
       <c r="F1" t="str">
         <f>military_assets!C1</f>
-        <v>AIR</v>
+        <v>Unused1</v>
       </c>
       <c r="G1" t="str">
         <f>military_assets!D1</f>
-        <v>ASW</v>
+        <v>Unused2</v>
       </c>
       <c r="H1" t="str">
         <f>military_assets!E1</f>
@@ -3962,8 +4150,8 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>198</v>
+      <c r="C2" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -4007,17 +4195,17 @@
       </c>
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v xml:space="preserve">CATOBAR: Compatible with all carrier aircraft squadrons
-E-2C Hawkeye: All friendly air squadrons in combat with this asset have +1 attack and  defense
+        <v xml:space="preserve">CATOBAR: Compatible with all carrier aircraft squadrons.
+E-2C Hawkeye: All friendly air squadrons in combat with this asset have +1 attack and  defense.
 </v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v>Images/nimitz.jpg</v>
       </c>
-      <c r="P2" cm="1">
+      <c r="P2" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>0</v>
+        <v>A military airbase at sea, a Nimitz carrier is more than three times longer than a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
       </c>
       <c r="Q2" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -4030,6 +4218,9 @@
       </c>
       <c r="B3">
         <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -4073,17 +4264,17 @@
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v xml:space="preserve">CATOBAR: Compatible with all carrier aircraft squadrons
-E-2C Hawkeye: All friendly air squadrons in combat with this asset have +1 attack and  defense
+        <v xml:space="preserve">CATOBAR: Compatible with all carrier aircraft squadrons.
+E-2C Hawkeye: All friendly air squadrons in combat with this asset have +1 attack and  defense.
 </v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
         <v>Images/nimitz.jpg</v>
       </c>
-      <c r="P3" cm="1">
+      <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>0</v>
+        <v>A military airbase at sea, a Nimitz carrier is more than three times longer than a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
       </c>
       <c r="Q3" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -4096,6 +4287,9 @@
       </c>
       <c r="B4">
         <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -4139,16 +4333,16 @@
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons
+        <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons.
 </v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v>Images/wasp.jpg</v>
       </c>
-      <c r="P4" cm="1">
+      <c r="P4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>0</v>
+        <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
       <c r="Q4" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -4161,6 +4355,9 @@
       </c>
       <c r="B5">
         <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
@@ -4204,16 +4401,16 @@
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons
+        <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons.
 </v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
         <v>Images/wasp.jpg</v>
       </c>
-      <c r="P5" cm="1">
+      <c r="P5" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v>0</v>
+        <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
       <c r="Q5" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
@@ -4226,6 +4423,9 @@
       </c>
       <c r="B6">
         <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
@@ -4269,18 +4469,18 @@
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Special Purposes: When flipped, opponent must reveal one card from their hand or hidden on the board
-Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Ambush: This asset deals damage before other assets in combat.
+Special Purposes: When flipped, opponent must reveal one card from their hand at random.
+Hidden: Can be played face down. 
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
         <v>Images/seawolf.jpg</v>
       </c>
-      <c r="P6" cm="1">
+      <c r="P6" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>0</v>
+        <v>As the most expensive class of attack submarine ever built, the Seawolf is the apex predator of the US Navy's submarine fleet.</v>
       </c>
       <c r="Q6" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
@@ -4293,6 +4493,9 @@
       </c>
       <c r="B7">
         <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
@@ -4336,17 +4539,17 @@
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Ambush: This asset deals damage before other assets in combat.
+Hidden: Can be played face down. 
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
         <v>Images/virginia.jpg</v>
       </c>
-      <c r="P7" cm="1">
+      <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>0</v>
+        <v>The advanced Virginia will be the standard attack submarine of the US Navy until at least the middle of the 21st century.</v>
       </c>
       <c r="Q7" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
@@ -4359,6 +4562,9 @@
       </c>
       <c r="B8">
         <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
@@ -4402,17 +4608,17 @@
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Ambush: This asset deals damage before other assets in combat.
+Hidden: Can be played face down. 
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
         <v>Images/virginia.jpg</v>
       </c>
-      <c r="P8" cm="1">
+      <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>0</v>
+        <v>The advanced Virginia will be the standard attack submarine of the US Navy until at least the middle of the 21st century.</v>
       </c>
       <c r="Q8" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
@@ -4425,6 +4631,9 @@
       </c>
       <c r="B9">
         <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
@@ -4444,7 +4653,7 @@
       </c>
       <c r="H9" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
@@ -4468,17 +4677,17 @@
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, it deals 1 damage directly to your opponent
-Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Ambush: This asset deals damage before other assets in combat.
+Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, your opponent must discard one card from their deck.
+Hidden: Can be played face down. </v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
         <v>Images/ohio.jpg</v>
       </c>
-      <c r="P9" cm="1">
+      <c r="P9" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>0</v>
+        <v>Although Ohio was originally intended to carry nuclear ballistic missiles, some Ohio's have been modified as SSGNs for surface warfare and land-attack missions.</v>
       </c>
       <c r="Q9" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
@@ -4491,6 +4700,9 @@
       </c>
       <c r="B10">
         <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
@@ -4534,16 +4746,16 @@
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v xml:space="preserve">AEGIS: +2 Help Defense
+        <v xml:space="preserve">AEGIS: +2 Help Defense.
 </v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
         <v>Images/ticonderoga.jpg</v>
       </c>
-      <c r="P10" cm="1">
+      <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v>0</v>
+        <v>Despite a modest displacement by historical standards, the Ticonderoga is the largest surface combatant in the US Navy.</v>
       </c>
       <c r="Q10" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
@@ -4556,6 +4768,9 @@
       </c>
       <c r="B11">
         <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
@@ -4599,16 +4814,16 @@
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v xml:space="preserve">AEGIS: +2 Help Defense
+        <v xml:space="preserve">AEGIS: +2 Help Defense.
 </v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
         <v>Images/ticonderoga.jpg</v>
       </c>
-      <c r="P11" cm="1">
+      <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v>0</v>
+        <v>Despite a modest displacement by historical standards, the Ticonderoga is the largest surface combatant in the US Navy.</v>
       </c>
       <c r="Q11" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
@@ -4621,6 +4836,9 @@
       </c>
       <c r="B12">
         <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -4664,16 +4882,16 @@
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v xml:space="preserve">AEGIS: +2 Help Defense
+        <v xml:space="preserve">AEGIS: +2 Help Defense.
 </v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
         <v>Images/ticonderoga.jpg</v>
       </c>
-      <c r="P12" cm="1">
+      <c r="P12" t="str" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>0</v>
+        <v>Despite a modest displacement by historical standards, the Ticonderoga is the largest surface combatant in the US Navy.</v>
       </c>
       <c r="Q12" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -4686,6 +4904,9 @@
       </c>
       <c r="B13">
         <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
@@ -4729,16 +4950,16 @@
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v xml:space="preserve">AEGIS: +2 Help Defense
+        <v xml:space="preserve">AEGIS: +2 Help Defense.
 </v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
         <v>Images/arleighburke.jpg</v>
       </c>
-      <c r="P13" cm="1">
+      <c r="P13" t="str" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v>0</v>
+        <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
       <c r="Q13" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
@@ -4751,6 +4972,9 @@
       </c>
       <c r="B14">
         <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
@@ -4794,16 +5018,16 @@
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
-        <v xml:space="preserve">AEGIS: +2 Help Defense
+        <v xml:space="preserve">AEGIS: +2 Help Defense.
 </v>
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
         <v>Images/arleighburke.jpg</v>
       </c>
-      <c r="P14" cm="1">
+      <c r="P14" t="str" cm="1">
         <f t="array" aca="1" ref="P14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
-        <v>0</v>
+        <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
       <c r="Q14" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
@@ -4816,6 +5040,9 @@
       </c>
       <c r="B15">
         <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -4859,16 +5086,16 @@
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v xml:space="preserve">AEGIS: +2 Help Defense
+        <v xml:space="preserve">AEGIS: +2 Help Defense.
 </v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
         <v>Images/arleighburke.jpg</v>
       </c>
-      <c r="P15" cm="1">
+      <c r="P15" t="str" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>0</v>
+        <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
       <c r="Q15" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -4881,6 +5108,9 @@
       </c>
       <c r="B16">
         <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -4924,15 +5154,15 @@
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
         <v>Images/f18.jpg</v>
       </c>
-      <c r="P16" cm="1">
+      <c r="P16" t="str" cm="1">
         <f t="array" aca="1" ref="P16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
-        <v>0</v>
+        <v>The F/A-18 is one of the longest-tenured and most battle-proven multirole carrier aircraft in the world.</v>
       </c>
       <c r="Q16" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -4945,6 +5175,9 @@
       </c>
       <c r="B17">
         <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
@@ -4988,17 +5221,17 @@
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
-        <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
-Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+        <v xml:space="preserve">Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
 </v>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
         <v>Images/f35b.jpg</v>
       </c>
-      <c r="P17" cm="1">
+      <c r="P17" t="str" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
-        <v>0</v>
+        <v>The F-35B is a special variant of the F-35 capable of taking off vertically. This will allow it to be used in conjunction with ships that have typically not been able to field modern aircraft.</v>
       </c>
       <c r="Q17" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
@@ -5011,6 +5244,9 @@
       </c>
       <c r="B18">
         <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -5054,17 +5290,17 @@
       </c>
       <c r="N18" t="str" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
-        <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
-Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+        <v xml:space="preserve">Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
 </v>
       </c>
       <c r="O18" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
         <v>Images/f35b.jpg</v>
       </c>
-      <c r="P18" cm="1">
+      <c r="P18" t="str" cm="1">
         <f t="array" aca="1" ref="P18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
-        <v>0</v>
+        <v>The F-35B is a special variant of the F-35 capable of taking off vertically. This will allow it to be used in conjunction with ships that have typically not been able to field modern aircraft.</v>
       </c>
       <c r="Q18" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -5077,6 +5313,9 @@
       </c>
       <c r="B19">
         <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
@@ -5120,17 +5359,17 @@
       </c>
       <c r="N19" t="str" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
-        <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
-Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+        <v xml:space="preserve">Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
 </v>
       </c>
       <c r="O19" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
         <v>Images/f35c.jpg</v>
       </c>
-      <c r="P19" cm="1">
+      <c r="P19" t="str" cm="1">
         <f t="array" aca="1" ref="P19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
-        <v>0</v>
+        <v>The F-35 acquisition program cost of just under $450 billion USD would be enough to buy 450 billion $1 cheeseburgers - enough to kill all humans on earth.</v>
       </c>
       <c r="Q19" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
@@ -5143,6 +5382,9 @@
       </c>
       <c r="B20">
         <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D20" t="str" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -5186,17 +5428,17 @@
       </c>
       <c r="N20" t="str" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
-Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+        <v xml:space="preserve">Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
 </v>
       </c>
       <c r="O20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
         <v>Images/f35c.jpg</v>
       </c>
-      <c r="P20" cm="1">
+      <c r="P20" t="str" cm="1">
         <f t="array" aca="1" ref="P20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>0</v>
+        <v>The F-35 acquisition program cost of just under $450 billion USD would be enough to buy 450 billion $1 cheeseburgers - enough to kill all humans on earth.</v>
       </c>
       <c r="Q20" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -5209,6 +5451,9 @@
       </c>
       <c r="B21">
         <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D21" t="str" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
@@ -5252,15 +5497,15 @@
       </c>
       <c r="N21" t="str" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
         <v>Images/harrier.jpg</v>
       </c>
-      <c r="P21" cm="1">
+      <c r="P21" t="str" cm="1">
         <f t="array" aca="1" ref="P21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>0</v>
+        <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points-a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
       <c r="Q21" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
@@ -5273,6 +5518,9 @@
       </c>
       <c r="B22">
         <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -5316,16 +5564,16 @@
       </c>
       <c r="N22" t="str" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v xml:space="preserve">STOBAR: Compatible with STOBAR and VTOL squadrons
+        <v xml:space="preserve">STOBAR: Compatible with STOBAR and VTOL squadrons.
 </v>
       </c>
       <c r="O22" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
         <v>Images/kuznetsov.jpg</v>
       </c>
-      <c r="P22" cm="1">
+      <c r="P22" t="str" cm="1">
         <f t="array" aca="1" ref="P22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>0</v>
+        <v>Although sold to a company in Macau supposedly for use as a floating casino, Kuznetsov's sister ship has since unsurprisingly become the first aircraft carrier of the Chinese People's Liberation Army Navy.</v>
       </c>
       <c r="Q22" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -5338,6 +5586,9 @@
       </c>
       <c r="B23">
         <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="D23" t="str" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
@@ -5365,7 +5616,7 @@
       </c>
       <c r="J23" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
@@ -5388,9 +5639,9 @@
         <f t="array" aca="1" ref="O23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
         <v>Images/kirov.jpg</v>
       </c>
-      <c r="P23" cm="1">
+      <c r="P23" t="str" cm="1">
         <f t="array" aca="1" ref="P23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>0</v>
+        <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
       </c>
       <c r="Q23" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
@@ -5403,6 +5654,9 @@
       </c>
       <c r="B24">
         <v>17</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -5430,7 +5684,7 @@
       </c>
       <c r="J24" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -5453,9 +5707,9 @@
         <f t="array" aca="1" ref="O24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
         <v>Images/kirov.jpg</v>
       </c>
-      <c r="P24" cm="1">
+      <c r="P24" t="str" cm="1">
         <f t="array" aca="1" ref="P24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>0</v>
+        <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
       </c>
       <c r="Q24" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -5468,6 +5722,9 @@
       </c>
       <c r="B25">
         <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D25" t="str" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -5495,7 +5752,7 @@
       </c>
       <c r="J25" cm="1">
         <f t="array" aca="1" ref="J25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -5518,9 +5775,9 @@
         <f t="array" aca="1" ref="O25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
         <v>Images/kirov.jpg</v>
       </c>
-      <c r="P25" cm="1">
+      <c r="P25" t="str" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>0</v>
+        <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
       </c>
       <c r="Q25" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -5533,6 +5790,9 @@
       </c>
       <c r="B26">
         <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D26" t="str" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
@@ -5583,9 +5843,9 @@
         <f t="array" aca="1" ref="O26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
         <v>Images/slava.jpg</v>
       </c>
-      <c r="P26" cm="1">
+      <c r="P26" t="str" cm="1">
         <f t="array" aca="1" ref="P26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
-        <v>0</v>
+        <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form factor.</v>
       </c>
       <c r="Q26" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
@@ -5598,6 +5858,9 @@
       </c>
       <c r="B27">
         <v>18</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D27" t="str" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
@@ -5648,9 +5911,9 @@
         <f t="array" aca="1" ref="O27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
         <v>Images/slava.jpg</v>
       </c>
-      <c r="P27" cm="1">
+      <c r="P27" t="str" cm="1">
         <f t="array" aca="1" ref="P27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
-        <v>0</v>
+        <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form factor.</v>
       </c>
       <c r="Q27" cm="1">
         <f t="array" aca="1" ref="Q27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
@@ -5664,9 +5927,12 @@
       <c r="B28">
         <v>19</v>
       </c>
+      <c r="C28" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="D28" t="str" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
-        <v>Udaloy Class DDG</v>
+        <v>Udaloy II Class DDG</v>
       </c>
       <c r="E28" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
@@ -5704,17 +5970,18 @@
         <f t="array" aca="1" ref="M28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
         <v>Ship</v>
       </c>
-      <c r="N28" cm="1">
+      <c r="N28" t="str" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
-        <v>0</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="O28" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
         <v>Images/udaloy.jpg</v>
       </c>
-      <c r="P28" cm="1">
+      <c r="P28" t="str" cm="1">
         <f t="array" aca="1" ref="P28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
-        <v>0</v>
+        <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
       <c r="Q28" cm="1">
         <f t="array" aca="1" ref="Q28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
@@ -5728,9 +5995,12 @@
       <c r="B29">
         <v>19</v>
       </c>
+      <c r="C29" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="D29" t="str" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v>Udaloy Class DDG</v>
+        <v>Udaloy II Class DDG</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
@@ -5768,17 +6038,18 @@
         <f t="array" aca="1" ref="M29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
         <v>Ship</v>
       </c>
-      <c r="N29" cm="1">
+      <c r="N29" t="str" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v>0</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="O29" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
         <v>Images/udaloy.jpg</v>
       </c>
-      <c r="P29" cm="1">
+      <c r="P29" t="str" cm="1">
         <f t="array" aca="1" ref="P29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v>0</v>
+        <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
       <c r="Q29" cm="1">
         <f t="array" aca="1" ref="Q29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
@@ -5791,6 +6062,9 @@
       </c>
       <c r="B30">
         <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D30" t="str" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
@@ -5834,15 +6108,15 @@
       </c>
       <c r="N30" t="str" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="O30" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
         <v>Images/gorshkov.jpg</v>
       </c>
-      <c r="P30" cm="1">
+      <c r="P30" t="str" cm="1">
         <f t="array" aca="1" ref="P30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>0</v>
+        <v>The cutting-edge Gorshkov frigates stick out in the largely-outdated Russian surface warfare fleet.</v>
       </c>
       <c r="Q30" cm="1">
         <f t="array" aca="1" ref="Q30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
@@ -5855,6 +6129,9 @@
       </c>
       <c r="B31">
         <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D31" t="str" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
@@ -5898,15 +6175,15 @@
       </c>
       <c r="N31" t="str" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="O31" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
         <v>Images/gorshkov.jpg</v>
       </c>
-      <c r="P31" cm="1">
+      <c r="P31" t="str" cm="1">
         <f t="array" aca="1" ref="P31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>0</v>
+        <v>The cutting-edge Gorshkov frigates stick out in the largely-outdated Russian surface warfare fleet.</v>
       </c>
       <c r="Q31" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
@@ -5919,6 +6196,9 @@
       </c>
       <c r="B32">
         <v>21</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
@@ -5962,16 +6242,17 @@
       </c>
       <c r="N32" t="str" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="O32" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
         <v>Images/yasen.jpg</v>
       </c>
-      <c r="P32" cm="1">
+      <c r="P32" t="str" cm="1">
         <f t="array" aca="1" ref="P32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>0</v>
+        <v>The Yasen is a highly advanced attack submarine for the frugal modern navy.</v>
       </c>
       <c r="Q32" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
@@ -5984,6 +6265,9 @@
       </c>
       <c r="B33">
         <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
@@ -6027,16 +6311,17 @@
       </c>
       <c r="N33" t="str" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="O33" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
         <v>Images/yasen.jpg</v>
       </c>
-      <c r="P33" cm="1">
+      <c r="P33" t="str" cm="1">
         <f t="array" aca="1" ref="P33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
-        <v>0</v>
+        <v>The Yasen is a highly advanced attack submarine for the frugal modern navy.</v>
       </c>
       <c r="Q33" cm="1">
         <f t="array" aca="1" ref="Q33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
@@ -6049,6 +6334,9 @@
       </c>
       <c r="B34">
         <v>22</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
@@ -6092,16 +6380,17 @@
       </c>
       <c r="N34" t="str" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Coastal Defender: Cannot attack</v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Coastal Defender: Cannot attack.</v>
       </c>
       <c r="O34" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
         <v>Images/lada.jpg</v>
       </c>
-      <c r="P34" cm="1">
+      <c r="P34" t="str" cm="1">
         <f t="array" aca="1" ref="P34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
-        <v>0</v>
+        <v>Although shorter-ranged than nuclear attack submarines, diesel-electric attack submarines are smaller, quiter and nearly as well armed.</v>
       </c>
       <c r="Q34" cm="1">
         <f t="array" aca="1" ref="Q34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
@@ -6114,6 +6403,9 @@
       </c>
       <c r="B35">
         <v>22</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
@@ -6157,16 +6449,17 @@
       </c>
       <c r="N35" t="str" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Coastal Defender: Cannot attack</v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Coastal Defender: Cannot attack.</v>
       </c>
       <c r="O35" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
         <v>Images/lada.jpg</v>
       </c>
-      <c r="P35" cm="1">
+      <c r="P35" t="str" cm="1">
         <f t="array" aca="1" ref="P35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>0</v>
+        <v>Although shorter-ranged than nuclear attack submarines, diesel-electric attack submarines are smaller, quiter and nearly as well armed.</v>
       </c>
       <c r="Q35" cm="1">
         <f t="array" aca="1" ref="Q35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
@@ -6179,6 +6472,9 @@
       </c>
       <c r="B36">
         <v>23</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D36" t="str" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
@@ -6222,17 +6518,18 @@
       </c>
       <c r="N36" t="str" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, it deals 1 damage directly to your opponent
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, your opponent must discard one card from their deck.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="O36" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
         <v>Images/oscar2.jpg</v>
       </c>
-      <c r="P36" cm="1">
+      <c r="P36" t="str" cm="1">
         <f t="array" aca="1" ref="P36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
-        <v>0</v>
+        <v>The massive Oscar is designed to use a barrage of large guided missiles to destroy US Navy aircraft carriers, which are among the most well-guarded military assets in the world.</v>
       </c>
       <c r="Q36" cm="1">
         <f t="array" aca="1" ref="Q36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
@@ -6245,6 +6542,9 @@
       </c>
       <c r="B37">
         <v>23</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
@@ -6288,17 +6588,18 @@
       </c>
       <c r="N37" t="str" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, it deals 1 damage directly to your opponent
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, your opponent must discard one card from their deck.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="O37" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
         <v>Images/oscar2.jpg</v>
       </c>
-      <c r="P37" cm="1">
+      <c r="P37" t="str" cm="1">
         <f t="array" aca="1" ref="P37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>0</v>
+        <v>The massive Oscar is designed to use a barrage of large guided missiles to destroy US Navy aircraft carriers, which are among the most well-guarded military assets in the world.</v>
       </c>
       <c r="Q37" cm="1">
         <f t="array" aca="1" ref="Q37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
@@ -6311,6 +6612,9 @@
       </c>
       <c r="B38">
         <v>24</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
@@ -6354,15 +6658,15 @@
       </c>
       <c r="N38" t="str" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="O38" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
         <v>Images/mig29k.jpg</v>
       </c>
-      <c r="P38" cm="1">
+      <c r="P38" t="str" cm="1">
         <f t="array" aca="1" ref="P38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
-        <v>0</v>
+        <v>With a 15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
       </c>
       <c r="Q38" cm="1">
         <f t="array" aca="1" ref="Q38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
@@ -6375,6 +6679,9 @@
       </c>
       <c r="B39">
         <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D39" t="str" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
@@ -6418,15 +6725,15 @@
       </c>
       <c r="N39" t="str" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="O39" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
         <v>Images/mig29k.jpg</v>
       </c>
-      <c r="P39" cm="1">
+      <c r="P39" t="str" cm="1">
         <f t="array" aca="1" ref="P39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>0</v>
+        <v>With a 15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
       </c>
       <c r="Q39" cm="1">
         <f t="array" aca="1" ref="Q39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
@@ -6438,11 +6745,14 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D40" t="str" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>Su-33 Flanker-D Strike Squadron</v>
+        <v>Mig-29K Strike Squadron</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" aca="1" ref="E40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
@@ -6462,7 +6772,7 @@
       </c>
       <c r="I40" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40" cm="1">
         <f t="array" aca="1" ref="J40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
@@ -6482,15 +6792,15 @@
       </c>
       <c r="N40" t="str" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="O40" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>Images/su33.jpg</v>
-      </c>
-      <c r="P40" cm="1">
+        <v>Images/mig29k.jpg</v>
+      </c>
+      <c r="P40" t="str" cm="1">
         <f t="array" aca="1" ref="P40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>0</v>
+        <v>With a 15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
       </c>
       <c r="Q40" cm="1">
         <f t="array" aca="1" ref="Q40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
@@ -6503,6 +6813,9 @@
       </c>
       <c r="B41">
         <v>27</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="D41" t="str" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
@@ -6546,16 +6859,17 @@
       </c>
       <c r="N41" t="str" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="O41" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
         <v>Images/akula.jpg</v>
       </c>
-      <c r="P41" cm="1">
+      <c r="P41" t="str" cm="1">
         <f t="array" aca="1" ref="P41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
-        <v>0</v>
+        <v>In Russian, akula means shark</v>
       </c>
       <c r="Q41" cm="1">
         <f t="array" aca="1" ref="Q41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
@@ -6568,6 +6882,9 @@
       </c>
       <c r="B42">
         <v>27</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="D42" t="str" cm="1">
         <f t="array" aca="1" ref="D42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
@@ -6611,16 +6928,17 @@
       </c>
       <c r="N42" t="str" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="O42" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
         <v>Images/akula.jpg</v>
       </c>
-      <c r="P42" cm="1">
+      <c r="P42" t="str" cm="1">
         <f t="array" aca="1" ref="P42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
-        <v>0</v>
+        <v>In Russian, akula means shark</v>
       </c>
       <c r="Q42" cm="1">
         <f t="array" aca="1" ref="Q42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
@@ -6633,6 +6951,9 @@
       </c>
       <c r="B43">
         <v>27</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D43" t="str" cm="1">
         <f t="array" aca="1" ref="D43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
@@ -6676,16 +6997,17 @@
       </c>
       <c r="N43" t="str" cm="1">
         <f t="array" aca="1" ref="N43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="O43" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
         <v>Images/akula.jpg</v>
       </c>
-      <c r="P43" cm="1">
+      <c r="P43" t="str" cm="1">
         <f t="array" aca="1" ref="P43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
-        <v>0</v>
+        <v>In Russian, akula means shark</v>
       </c>
       <c r="Q43" cm="1">
         <f t="array" aca="1" ref="Q43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
@@ -6698,6 +7020,9 @@
       </c>
       <c r="B44">
         <v>27</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D44" t="str" cm="1">
         <f t="array" aca="1" ref="D44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
@@ -6741,16 +7066,17 @@
       </c>
       <c r="N44" t="str" cm="1">
         <f t="array" aca="1" ref="N44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="O44" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
         <v>Images/akula.jpg</v>
       </c>
-      <c r="P44" cm="1">
+      <c r="P44" t="str" cm="1">
         <f t="array" aca="1" ref="P44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>0</v>
+        <v>In Russian, akula means shark</v>
       </c>
       <c r="Q44" cm="1">
         <f t="array" aca="1" ref="Q44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
@@ -6767,9 +7093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA93C54-FC77-4A57-AEDF-D4D1B82432EF}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6791,14 +7117,17 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -6807,10 +7136,10 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -6819,18 +7148,18 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="N1" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6845,19 +7174,22 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="str">
         <f>ship_effects!$A3&amp;CHAR(10)&amp;ship_effects!$A4&amp;CHAR(10)</f>
-        <v xml:space="preserve">CATOBAR: Compatible with all carrier aircraft squadrons
-E-2C Hawkeye: All friendly air squadrons in combat with this asset have +1 attack and  defense
+        <v xml:space="preserve">CATOBAR: Compatible with all carrier aircraft squadrons.
+E-2C Hawkeye: All friendly air squadrons in combat with this asset have +1 attack and  defense.
 </v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>112</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="N2">
         <f>version!$A$1</f>
@@ -6866,7 +7198,7 @@
     </row>
     <row r="3" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6881,18 +7213,18 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="str">
         <f>ship_effects!$A3&amp;CHAR(10)&amp;ship_effects!$A25</f>
-        <v>CATOBAR: Compatible with all carrier aircraft squadrons
-E-2D Hawkeye-I: All friendly air squadrons in combat with this asset have +1 attack and  defense. Enemy air squadrons lose Ambush</v>
+        <v>CATOBAR: Compatible with all carrier aircraft squadrons.
+E-2D Hawkeye-I: All friendly air squadrons in combat with this asset have +1 attack and  defense. Enemy air squadrons lose Ambush.</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="N3">
         <f>version!$A$1</f>
@@ -6901,7 +7233,7 @@
     </row>
     <row r="4" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6916,18 +7248,21 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="str">
         <f>ship_effects!$A6&amp;CHAR(10)</f>
-        <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons
+        <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons.
 </v>
       </c>
       <c r="L4" t="s">
-        <v>132</v>
+        <v>114</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="N4">
         <f>version!$A$1</f>
@@ -6936,7 +7271,7 @@
     </row>
     <row r="5" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6951,18 +7286,18 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1" t="str">
         <f>ship_effects!$A6&amp;CHAR(10)</f>
-        <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons
+        <v xml:space="preserve">VTOL: Compatible with all VTOL carrier aircraft squadrons.
 </v>
       </c>
       <c r="L5" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <f>version!$A$1</f>
@@ -6971,7 +7306,7 @@
     </row>
     <row r="6" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -6986,20 +7321,23 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="str">
         <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A9&amp;CHAR(10)&amp;ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A24</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Special Purposes: When flipped, opponent must reveal one card from their hand or hidden on the board
-Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Ambush: This asset deals damage before other assets in combat.
+Special Purposes: When flipped, opponent must reveal one card from their hand at random.
+Hidden: Can be played face down. 
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>116</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="N6">
         <f>version!$A$1</f>
@@ -7008,7 +7346,7 @@
     </row>
     <row r="7" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -7023,31 +7361,34 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="str">
         <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A24</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Ambush: This asset deals damage before other assets in combat.
+Hidden: Can be played face down. 
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="L7" t="s">
-        <v>135</v>
+        <v>117</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="N7">
         <f>version!$A$1</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -7059,19 +7400,22 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1" t="str">
         <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A10&amp;CHAR(10)&amp;ship_effects!$A22</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, it deals 1 damage directly to your opponent
-Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Ambush: This asset deals damage before other assets in combat.
+Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, your opponent must discard one card from their deck.
+Hidden: Can be played face down. </v>
       </c>
       <c r="L8" t="s">
-        <v>136</v>
+        <v>118</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="N8">
         <f>version!$A$1</f>
@@ -7080,7 +7424,7 @@
     </row>
     <row r="9" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -7095,18 +7439,21 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K9" s="1" t="str">
         <f>ship_effects!$A11&amp;CHAR(10)</f>
-        <v xml:space="preserve">AEGIS: +2 Help Defense
+        <v xml:space="preserve">AEGIS: +2 Help Defense.
 </v>
       </c>
       <c r="L9" t="s">
-        <v>137</v>
+        <v>119</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="N9">
         <f>version!$A$1</f>
@@ -7115,7 +7462,7 @@
     </row>
     <row r="10" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -7130,27 +7477,30 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K10" s="1" t="str">
         <f>ship_effects!$A11&amp;CHAR(10)</f>
-        <v xml:space="preserve">AEGIS: +2 Help Defense
+        <v xml:space="preserve">AEGIS: +2 Help Defense.
 </v>
       </c>
       <c r="L10" t="s">
-        <v>138</v>
+        <v>120</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="N10">
         <f>version!$A$1</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -7165,17 +7515,20 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K11" s="1" t="str">
         <f>ship_effects!$A22</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>121</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="N11">
         <f>version!$A$1</f>
@@ -7184,7 +7537,7 @@
     </row>
     <row r="12" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -7199,26 +7552,29 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K12" s="1" t="str">
         <f>ship_effects!$A22</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>122</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="N12">
         <f>version!$A$1</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -7233,28 +7589,31 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K13" s="1" t="str">
         <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)</f>
-        <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
-Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+        <v xml:space="preserve">Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
 </v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>123</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="N13">
         <f>version!$A$1</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -7269,26 +7628,29 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K14" s="1" t="str">
         <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)</f>
-        <v xml:space="preserve">Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.
-Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
+        <v xml:space="preserve">Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
 </v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>124</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="N14">
         <f>version!$A$1</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -7305,26 +7667,29 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K15" s="1" t="str">
         <f>ship_effects!$A22</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>125</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="N15">
         <f>version!$A$1</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -7339,18 +7704,21 @@
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K16" s="1" t="str">
         <f>ship_effects!$A23&amp;CHAR(10)</f>
-        <v xml:space="preserve">STOBAR: Compatible with STOBAR and VTOL squadrons
+        <v xml:space="preserve">STOBAR: Compatible with STOBAR and VTOL squadrons.
 </v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="N16">
         <f>version!$A$1</f>
@@ -7359,7 +7727,7 @@
     </row>
     <row r="17" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -7368,16 +7736,16 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K17" s="1" t="str">
         <f>ship_effects!$A21&amp;CHAR(10)</f>
@@ -7385,7 +7753,10 @@
 </v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>127</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="N17">
         <f>version!$A$1</f>
@@ -7394,7 +7765,7 @@
     </row>
     <row r="18" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -7409,10 +7780,10 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K18" s="1" t="str">
         <f>ship_effects!$A20&amp;CHAR(10)</f>
@@ -7420,7 +7791,10 @@
 </v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>128</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="N18">
         <f>version!$A$1</f>
@@ -7429,7 +7803,7 @@
     </row>
     <row r="19" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -7444,13 +7818,21 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="L19" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="N19">
         <f>version!$A$1</f>
@@ -7459,7 +7841,7 @@
     </row>
     <row r="20" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -7474,17 +7856,20 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K20" s="1" t="str">
         <f>ship_effects!$A22</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="L20" t="s">
-        <v>148</v>
+        <v>130</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="N20">
         <f>version!$A$1</f>
@@ -7493,7 +7878,7 @@
     </row>
     <row r="21" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -7508,27 +7893,31 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K21" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="L21" t="s">
-        <v>149</v>
+        <v>131</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="N21">
         <f>version!$A$1</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -7543,27 +7932,31 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K22" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A19</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Coastal Defender: Cannot attack</v>
+        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A19</f>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Coastal Defender: Cannot attack.</v>
       </c>
       <c r="L22" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="N22">
         <f>version!$A$1</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -7578,28 +7971,32 @@
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K23" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A10&amp;CHAR(10)&amp;ship_effects!$A24</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, it deals 1 damage directly to your opponent
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A10&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Strategic Strike Capability: At the end of your turn, if this asset was not part of a combat, your opponent must discard one card from their deck.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="L23" t="s">
-        <v>151</v>
+        <v>133</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="N23">
         <f>version!$A$1</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -7614,17 +8011,20 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K24" s="1" t="str">
         <f>ship_effects!$A22</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="L24" t="s">
-        <v>152</v>
+        <v>134</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="N24">
         <f>version!$A$1</f>
@@ -7633,7 +8033,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -7648,17 +8048,20 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K25" s="1" t="str">
         <f>ship_effects!$A22</f>
-        <v>Hidden: Can be played face down. Must turn face up when it attacks or blocks, and may turn face up as a tactic.</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="L25" t="s">
-        <v>153</v>
+        <v>135</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="N25">
         <f>version!$A$1</f>
@@ -7667,7 +8070,7 @@
     </row>
     <row r="26" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -7682,27 +8085,27 @@
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K26" s="1" t="str">
         <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <v>Ambush: This asset deals damage before other assets in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="L26" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="N26">
         <f>version!$A$1</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -7717,18 +8120,22 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K27" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
-        <v>Ambush: This asset deals damage before other assets in combat. Any assets destroyed are removed and do not participate in combat.
-Commerce Raider: Deals damage during assault with attack instead of shore attack</v>
+        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage before other assets in combat.
+Commerce Raider: Deals damage during assault with attack instead of shore attack.</v>
       </c>
       <c r="L27" t="s">
-        <v>155</v>
+        <v>137</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="N27">
         <f>version!$A$1</f>
@@ -7746,137 +8153,137 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="137.85546875" customWidth="1"/>
+    <col min="1" max="1" width="202.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7906,7 +8313,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE9B4C7-500D-47EB-BE6D-92AD1D35CF94}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
@@ -7919,9 +8326,11 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="90.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -7932,16 +8341,22 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7952,13 +8367,22 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H2">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7969,36 +8393,54 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G25" si="0">CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H3">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H4">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8009,13 +8451,22 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H5">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -8026,16 +8477,25 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H6">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8046,38 +8506,56 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H7">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="F8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H8">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -8086,318 +8564,474 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="F9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H9">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H10">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H11">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H12">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H13">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H14">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H15">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H16">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H17">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H18">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H19">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
-      </c>
-      <c r="F19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H20">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H21">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H22">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H23">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H24">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>158</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H25">
+        <f>version!$A$1</f>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -8407,10 +9041,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4612BAA-2E94-43DB-8D32-B8E4A4E5FFFC}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8420,9 +9054,11 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="187.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -8430,24 +9066,30 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -8456,15 +9098,24 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H2">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -8473,18 +9124,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -8493,15 +9151,24 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" ref="G3:G30" si="0">CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H4">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -8510,15 +9177,24 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H5">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -8527,15 +9203,24 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H6">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -8544,15 +9229,24 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H7">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -8561,15 +9255,24 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H8">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -8578,15 +9281,24 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H9">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -8595,15 +9307,24 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H10">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -8612,36 +9333,54 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H11">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>ship_effects!A18</f>
-        <v>RAINFALL: If controlled by a USN player, mark one enemy ship. That ship loses the stealth tag and cannot hide. If it is hidden, flip it. The target of this action may be changed during the first deployment step</v>
+        <v>RAINFALL: If controlled by a USN player, mark one enemy ship. That ship loses the stealth tag and cannot hide. If it is hidden, flip it. The target of this action may be changed during the first deployment step.</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H12">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -8650,15 +9389,24 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H13">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -8667,15 +9415,24 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H14">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -8684,15 +9441,24 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H15">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -8701,18 +9467,27 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H16">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -8721,15 +9496,24 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H17">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -8738,15 +9522,24 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H18">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -8755,15 +9548,24 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H19">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -8772,18 +9574,27 @@
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H20">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -8792,18 +9603,27 @@
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H21">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -8812,15 +9632,24 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H22">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -8829,18 +9658,27 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H23">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -8849,18 +9687,27 @@
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H24">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -8869,18 +9716,27 @@
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H25">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -8889,18 +9745,27 @@
         <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H26">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -8909,18 +9774,27 @@
         <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H27">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -8929,18 +9803,27 @@
         <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H28">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -8949,18 +9832,27 @@
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H29">
+        <f>version!$A$1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -8969,11 +9861,21 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H30">
+        <f>version!$A$1</f>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8981,8 +9883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8A294D-8A6F-470F-8FC6-DE99DB04E18C}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9024,19 +9926,19 @@
         <v>Rosters</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="N1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -9400,7 +10302,7 @@
       </c>
       <c r="C9">
         <f>military_assets!E8</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <f>military_assets!F8</f>
@@ -9420,7 +10322,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>0.83333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
         <f t="shared" si="6"/>
@@ -9432,11 +10334,11 @@
       </c>
       <c r="M9">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="N9">
         <f t="shared" si="9"/>
-        <v>1.3333333333333335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -9858,7 +10760,7 @@
       </c>
       <c r="F18">
         <f>military_assets!G17</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <f>military_assets!H17</f>
@@ -9874,7 +10776,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
@@ -9882,11 +10784,11 @@
       </c>
       <c r="M18">
         <f t="shared" si="8"/>
-        <v>2.6666666666666665</v>
+        <v>2.5</v>
       </c>
       <c r="N18">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1.8333333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -9942,7 +10844,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>military_assets!A19</f>
-        <v>Udaloy Class DDG</v>
+        <v>Udaloy II Class DDG</v>
       </c>
       <c r="B20" t="str">
         <f>military_assets!J19</f>

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shipcards\shipcards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ED48D1-EF67-4731-B930-35D4A1C4662D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED9BF7-E419-43CA-A84D-C2BCA824F0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="7" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="7500" windowHeight="6000" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
   </bookViews>
   <sheets>
     <sheet name="military_asset_final" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,11 @@
     <sheet name="territories" sheetId="5" r:id="rId7"/>
     <sheet name="balance" sheetId="6" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">balance!$N$29:$N$54</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">balance!$O$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">balance!$O$29:$O$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -322,12 +327,6 @@
     <t>Lada Class SSK</t>
   </si>
   <si>
-    <t>Yassen Class SSGN</t>
-  </si>
-  <si>
-    <t>Kondor SSN</t>
-  </si>
-  <si>
     <t>Zumwalt Class DDG</t>
   </si>
   <si>
@@ -451,9 +450,6 @@
     <t>Images/su33.jpg</t>
   </si>
   <si>
-    <t>Images/kondor.jpg</t>
-  </si>
-  <si>
     <t>Images/akula.jpg</t>
   </si>
   <si>
@@ -583,9 +579,6 @@
     <t>USS Philippine Sea</t>
   </si>
   <si>
-    <t>USS Princeton</t>
-  </si>
-  <si>
     <t>Admiral Kuznetsov</t>
   </si>
   <si>
@@ -595,9 +588,6 @@
     <t>Admiral Nahkimov</t>
   </si>
   <si>
-    <t>Admiral Lazarev</t>
-  </si>
-  <si>
     <t>Moskva</t>
   </si>
   <si>
@@ -613,9 +603,6 @@
     <t>Admiral Kasatanov</t>
   </si>
   <si>
-    <t>Admiral Gorshkov</t>
-  </si>
-  <si>
     <t>Severodvinsk</t>
   </si>
   <si>
@@ -631,12 +618,6 @@
     <t>Chelyabinsk</t>
   </si>
   <si>
-    <t>Gepard</t>
-  </si>
-  <si>
-    <t>Vepr</t>
-  </si>
-  <si>
     <t>Tigr</t>
   </si>
   <si>
@@ -670,9 +651,6 @@
     <t>The cutting-edge Gorshkov frigates stick out in the largely-outdated Russian surface warfare fleet.</t>
   </si>
   <si>
-    <t>The massive Oscar is designed to use a barrage of large guided missiles to destroy US Navy aircraft carriers, which are among the most well-guarded military assets in the world.</t>
-  </si>
-  <si>
     <t>It's a plane, comrade.</t>
   </si>
   <si>
@@ -709,9 +687,6 @@
     <t>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form factor.</t>
   </si>
   <si>
-    <t>The Yasen is a highly advanced attack submarine for the frugal modern navy.</t>
-  </si>
-  <si>
     <t>Although shorter-ranged than nuclear attack submarines, diesel-electric attack submarines are smaller, quiter and nearly as well armed.</t>
   </si>
   <si>
@@ -769,9 +744,6 @@
     <t>Search your deck for a strategy card, reveal that card and put it into your hand. Then shuffle your deck.</t>
   </si>
   <si>
-    <t>Squadron III</t>
-  </si>
-  <si>
     <t>E-2C Hawkeye: All squadrons you control in a combat including this asset have +1 attack and  defense.</t>
   </si>
   <si>
@@ -917,6 +889,39 @@
   </si>
   <si>
     <t>Carrier 1</t>
+  </si>
+  <si>
+    <t>With more than twice the firepower of western submarines, the Yassen is Russia's best effort in no-expensive-spared attack submarine development.</t>
+  </si>
+  <si>
+    <t>Nothing fancy, but it ain't bad for government work.</t>
+  </si>
+  <si>
+    <t>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carrier.</t>
+  </si>
+  <si>
+    <t>Chart data</t>
+  </si>
+  <si>
+    <t>Yasen Class SSGN</t>
+  </si>
+  <si>
+    <t>Victor III SSN</t>
+  </si>
+  <si>
+    <t>Marshal Ustinov</t>
+  </si>
+  <si>
+    <t>Novosibirsk</t>
+  </si>
+  <si>
+    <t>Danlil Moskovskiy</t>
+  </si>
+  <si>
+    <t>Tambov</t>
+  </si>
+  <si>
+    <t>Volk</t>
   </si>
 </sst>
 </file>
@@ -978,409 +983,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>balance!$A$30:$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Nimitz Class CVN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gerald R Ford CVN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Wasp Class LHA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>America Class LHA</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Seawolf Class SSN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Virginia Class SSN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ohio Class SSGN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ticonderoga Class CG</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Arleigh Burke Class DDG</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Zumwalt Class DDG</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>F/A-18E Superhornet</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>F-35B Lightning II</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>F-35C  Lightning II</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>AV-8B Harrier II</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Kuznetsov Class CV</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Kirov Class CGN</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Slava Class CG</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Udaloy II Class DDG</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Gorshkov Class FFG</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Yassen Class SSGN</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lada Class SSK</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Oscar II SSGN</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Mig-29K Fulcrum-D</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Su-33 Flanker-D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>balance!$B$30:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.1666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D1D-45D9-AC4D-580DF5D7344E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="547625272"/>
-        <c:axId val="547621664"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="547625272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="547621664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="547621664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="547625272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1503,7 +1105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2262F2DB-06D1-4FF1-A1A4-83AF44B37F22}" type="CELLRANGE">
+                    <a:fld id="{15083298-1658-4A69-B28D-243BD43CB66C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1537,7 +1139,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC00CA22-8782-4683-8CD8-E55FE57C5D02}" type="CELLRANGE">
+                    <a:fld id="{A32BECBF-866A-4C0C-B583-EB7902D24E19}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1571,7 +1173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36E3CD27-AAF5-4AD6-8017-3E2D3001EF5F}" type="CELLRANGE">
+                    <a:fld id="{34EF18BD-1764-4B79-9B3B-FBCD33AD7FF9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1603,7 +1205,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-8.085562594577958E-2"/>
-                  <c:y val="-1.3417190775681341E-2"/>
+                  <c:y val="-6.7085953878406705E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1611,7 +1213,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B495F53D-7480-4BA9-B3E0-661C59E77891}" type="CELLRANGE">
+                    <a:fld id="{CC02E098-4D3B-40E2-8942-360E7C0D2F77}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1642,7 +1244,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-8.2762214983713361E-2"/>
-                  <c:y val="-5.0314465408805029E-3"/>
+                  <c:y val="-2.8511530398322882E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1650,7 +1252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{782BAA5A-51A6-4A0E-974D-C016C54566DA}" type="CELLRANGE">
+                    <a:fld id="{D2FCD011-1021-4B19-8CD0-89901BFF803F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1683,7 +1285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D2CBB85-776B-4136-A58C-ACF0174AF324}" type="CELLRANGE">
+                    <a:fld id="{0787FDBD-D43D-4E8C-9F27-93C7FC830F4B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1717,7 +1319,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73FFCF26-112F-49E4-9AAD-C17E02A21227}" type="CELLRANGE">
+                    <a:fld id="{DCFFF8FB-4A0F-4C2D-AC15-3D928EB23DDF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1748,8 +1350,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.4373472859866461E-2"/>
-                  <c:y val="-3.0188679245283019E-2"/>
+                  <c:x val="-8.697933605204887E-2"/>
+                  <c:y val="-1.0062893081761068E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1757,7 +1359,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13A5F9C9-9B53-4B74-93DC-A17380012FE9}" type="CELLRANGE">
+                    <a:fld id="{3ADB6F29-0F85-4C92-B2AF-067A66B46776}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1785,12 +1387,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.925081433224756E-3"/>
+                  <c:y val="-5.0314465408805029E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16477010-25C8-485C-90EF-E9DB652342ED}" type="CELLRANGE">
+                    <a:fld id="{60699A83-485E-46A2-B1AC-D9F33BEA2CA6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1799,7 +1407,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1809,7 +1417,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1824,7 +1431,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89398DF5-BB9A-4D7D-9536-EA2D8687DAB2}" type="CELLRANGE">
+                    <a:fld id="{A5CA9E40-0FE5-4B11-9CA2-F39B04CF4D9E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1864,7 +1471,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A220BD6-8E49-49E8-BDCE-15F20D5EA5D8}" type="CELLRANGE">
+                    <a:fld id="{63D62B9A-0835-47D2-A360-7DF686C0ADC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1918,7 +1525,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{540DE1BC-1CD3-45B7-9CA0-DA6C41AEB2C0}" type="CELLRANGE">
+                    <a:fld id="{AAAA77CF-34DC-4D7A-98BA-6FCE5C2CFDF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1988,7 +1595,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF0400B1-0F8E-4814-A4C5-745424EB0DA9}" type="CELLRANGE">
+                    <a:fld id="{5B2614AB-2838-4F2E-8672-2F7C3A3F37AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2028,7 +1635,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{374C7E58-DE4C-4F75-B388-6765F39F133F}" type="CELLRANGE">
+                    <a:fld id="{ADA0CF31-4BA6-4E2D-96FF-167CC50A51C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2058,8 +1665,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.573727632580129E-2"/>
-                  <c:y val="-2.6834381551362682E-2"/>
+                  <c:x val="-7.8788307813314862E-2"/>
+                  <c:y val="-3.3542976939203661E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2067,7 +1674,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F77F347-8F37-401E-870E-B26B3137C94F}" type="CELLRANGE">
+                    <a:fld id="{38E4270B-EADB-40FF-A460-726DBFE986B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2100,7 +1707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1EC990C-6ABD-4D34-B603-EB2B27B9FB56}" type="CELLRANGE">
+                    <a:fld id="{A65ECFC2-6312-4F14-A3B5-D7B186D0B363}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2131,8 +1738,8 @@
               <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.09229098805646E-2"/>
-                  <c:y val="-1.8448637316561847E-2"/>
+                  <c:x val="-7.266015200868621E-2"/>
+                  <c:y val="-1.0062893081761006E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2140,7 +1747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32F62717-2684-47B1-A5FD-7D3A495B0248}" type="CELLRANGE">
+                    <a:fld id="{41737ADB-53F9-4F3D-A3FF-C9964E367E53}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2194,7 +1801,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{5C5471F3-18AE-45A8-9B35-377D05FBD42B}" type="CELLRANGE">
+                    <a:fld id="{A9C7796C-6689-4AB2-9FFF-28BFA6159E83}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2270,7 +1877,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0545C0EA-FE86-4E28-9595-A2C42F75B844}" type="CELLRANGE">
+                    <a:fld id="{060F4797-7685-4066-B4AE-CDD5E1841CDB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2300,8 +1907,8 @@
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.816720955483171E-2"/>
-                  <c:y val="-4.6960167714884697E-2"/>
+                  <c:x val="-7.5561346362649356E-2"/>
+                  <c:y val="1.8448637316561784E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2309,7 +1916,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4DCFA19-37C1-418D-8C27-8048307F57DD}" type="CELLRANGE">
+                    <a:fld id="{F4F4509D-3DCB-420C-A905-B1FC2CB8D9D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2337,12 +1944,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2857797498439727E-2"/>
+                  <c:y val="-1.509433962264151E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE3144C6-6DDA-4077-AD22-19CCA5462EB4}" type="CELLRANGE">
+                    <a:fld id="{96751F0D-A27D-4F35-8973-80D0588E728B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2351,7 +1964,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2361,7 +1974,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2374,7 +1986,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-6.6975061342087944E-2"/>
-                  <c:y val="1.5094339622641447E-2"/>
+                  <c:y val="-1.6771488469601678E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2382,7 +1994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD37BDD2-4275-4CCA-AE05-9BFFE409AF7C}" type="CELLRANGE">
+                    <a:fld id="{524DA7CD-3C10-4C6C-A8FA-AB0A9CA8AEEF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2415,7 +2027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{371BE43F-2356-4A97-BB3C-CB872DD1915C}" type="CELLRANGE">
+                    <a:fld id="{8045BFE9-3E27-48CE-A3D9-B907B7BFF4C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2455,7 +2067,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55B5B60B-F141-4F1D-AA12-369D37C3100F}" type="CELLRANGE">
+                    <a:fld id="{35C15702-AD20-4E1C-8DC0-0608FBA25E0A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2478,6 +2090,79 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-D3C0-4619-821D-896B937818E5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{96035AFD-2092-41F7-B9CA-93D4EC24FF17}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5DFD-4BD9-8335-DB499B219279}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1027144408251933E-2"/>
+                  <c:y val="-2.3480083857442349E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C53CD4B4-16E5-431B-A56F-0AF034B01460}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5DFD-4BD9-8335-DB499B219279}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2553,12 +2238,26 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>balance!$N$29:$N$52</c:f>
+              <c:f>balance!$N$29:$N$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2578,7 +2277,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
@@ -2605,7 +2304,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3</c:v>
@@ -2617,13 +2316,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1</c:v>
@@ -2631,35 +2330,41 @@
                 <c:pt idx="23">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>balance!$O$29:$O$52</c:f>
+              <c:f>balance!$O$29:$O$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.5</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9.5</c:v>
@@ -2683,10 +2388,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8.5</c:v>
@@ -2698,19 +2403,25 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,9 +2430,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>balance!$A$2:$A$25</c15:f>
+                <c15:f>balance!$A$2:$A$27</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="24"/>
+                  <c:ptCount val="26"/>
                   <c:pt idx="0">
                     <c:v>Nimitz Class CVN</c:v>
                   </c:pt>
@@ -2780,7 +2491,7 @@
                     <c:v>Gorshkov Class FFG</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Yassen Class SSGN</c:v>
+                    <c:v>Yasen Class SSGN</c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>Lada Class SSK</c:v>
@@ -2793,6 +2504,12 @@
                   </c:pt>
                   <c:pt idx="23">
                     <c:v>Su-33 Flanker-D</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Victor III SSN</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Akula Class SSN</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2879,6 +2596,8 @@
         <c:axId val="552080616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3029,550 +2748,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4092,52 +3268,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB4496C-4174-47D3-87C3-4E4B18F6BB10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4156,7 +3296,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4462,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E8987D-349F-4742-AF8A-4428C54D0A0B}">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4483,10 +3623,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D1" t="str">
         <f>military_assets!A1</f>
@@ -4573,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -4642,7 +3782,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -4711,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -4779,7 +3919,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
@@ -4847,7 +3987,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
@@ -4875,7 +4015,7 @@
       </c>
       <c r="J6" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
@@ -4917,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
@@ -4945,7 +4085,7 @@
       </c>
       <c r="J7" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
@@ -4986,7 +4126,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
@@ -5014,7 +4154,7 @@
       </c>
       <c r="J8" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
@@ -5055,7 +4195,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
@@ -5079,15 +4219,15 @@
       </c>
       <c r="I9" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
@@ -5124,7 +4264,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
@@ -5191,7 +4331,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
@@ -5252,17 +4392,17 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>Ticonderoga Class CG</v>
+        <v>Arleigh Burke Class DDG</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -5286,11 +4426,11 @@
       </c>
       <c r="J12" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -5306,11 +4446,11 @@
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>Images/ticonderoga.jpg</v>
+        <v>Images/arleighburke.jpg</v>
       </c>
       <c r="P12" t="str" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>Despite a modest displacement by historical standards, the Ticonderoga is the largest surface combatant in the US Navy.</v>
+        <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
       <c r="Q12" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -5325,7 +4465,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
@@ -5392,7 +4532,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
@@ -5456,14 +4596,14 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>162</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>Arleigh Burke Class DDG</v>
+        <v>F/A-18E Superhornet</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -5479,19 +4619,19 @@
       </c>
       <c r="H15" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" t="str" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -5499,19 +4639,20 @@
       </c>
       <c r="M15" t="str" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>Ship</v>
+        <v>Squadron</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>AEGIS: +2 Help Defense.</v>
+        <v>Hidden: Can be played face down. 
+CATOBAR-Compatible.</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>Images/arleighburke.jpg</v>
+        <v>Images/f18.jpg</v>
       </c>
       <c r="P15" t="str" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
+        <v>The F/A-18 is one of the longest-tenured and most battle-proven multirole carrier aircraft in the world.</v>
       </c>
       <c r="Q15" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -5526,7 +4667,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -5594,7 +4735,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
@@ -5663,7 +4804,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -5732,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
@@ -5798,14 +4939,14 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D20" t="str" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>F-35C  Lightning II</v>
+        <v>AV-8B Harrier II</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -5821,11 +4962,11 @@
       </c>
       <c r="H20" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -5833,7 +4974,7 @@
       </c>
       <c r="K20" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="str" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -5846,16 +4987,15 @@
       <c r="N20" t="str" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
         <v>Hidden: Can be played face down. 
-Ambush: This asset deals damage during the Ambush Damage Step.
-CATOBAR-Compatible.</v>
+VTOL-Compatible.</v>
       </c>
       <c r="O20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>Images/f35c.jpg</v>
+        <v>Images/harrier.jpg</v>
       </c>
       <c r="P20" t="str" cm="1">
         <f t="array" aca="1" ref="P20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>The F-35 acquisition program cost of just under $450 billion USD would be enough to buy 450 billion $1 cheeseburgers - enough to kill all humans on earth.</v>
+        <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points-a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
       <c r="Q20" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -5867,14 +5007,14 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>193</v>
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D21" t="str" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>AV-8B Harrier II</v>
+        <v>Kuznetsov Class CV</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
@@ -5890,40 +5030,40 @@
       </c>
       <c r="H21" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K21" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L21" t="str" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>USN</v>
+        <v>RUS</v>
       </c>
       <c r="M21" t="str" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>Squadron</v>
+        <v>Ship</v>
       </c>
       <c r="N21" t="str" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>Hidden: Can be played face down. 
-VTOL-Compatible.</v>
+        <v>STOBAR: Compatible with STOBAR and VTOL squadrons.
+Carrier 2: Can station 2 aircraft squadron.</v>
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>Images/harrier.jpg</v>
+        <v>Images/kuznetsov.jpg</v>
       </c>
       <c r="P21" t="str" cm="1">
         <f t="array" aca="1" ref="P21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points-a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
+        <v>Although sold to a company in Macau supposedly for use as a floating casino, Kuznetsov's sister ship has since unsurprisingly become the first aircraft carrier of the Chinese People's Liberation Army Navy.</v>
       </c>
       <c r="Q21" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
@@ -5935,14 +5075,14 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>Kuznetsov Class CV</v>
+        <v>Kirov Class CGN</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -5958,7 +5098,7 @@
       </c>
       <c r="H22" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -5966,11 +5106,11 @@
       </c>
       <c r="J22" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K22" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" t="str" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -5982,16 +5122,15 @@
       </c>
       <c r="N22" t="str" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>STOBAR: Compatible with STOBAR and VTOL squadrons.
-Carrier 2: Can station 2 aircraft squadron.</v>
+        <v>S-300 (L): +2 Help Defense.</v>
       </c>
       <c r="O22" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>Images/kuznetsov.jpg</v>
+        <v>Images/kirov.jpg</v>
       </c>
       <c r="P22" t="str" cm="1">
         <f t="array" aca="1" ref="P22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>Although sold to a company in Macau supposedly for use as a floating casino, Kuznetsov's sister ship has since unsurprisingly become the first aircraft carrier of the Chinese People's Liberation Army Navy.</v>
+        <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
       </c>
       <c r="Q22" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -6006,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D23" t="str" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
@@ -6030,15 +5169,15 @@
       </c>
       <c r="I23" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L23" t="str" cm="1">
         <f t="array" aca="1" ref="L23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
@@ -6070,14 +5209,14 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>Kirov Class CGN</v>
+        <v>Slava Class CG</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -6093,19 +5232,19 @@
       </c>
       <c r="H24" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L24" t="str" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -6117,15 +5256,15 @@
       </c>
       <c r="N24" t="str" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>S-300 (L): +2 Help Defense.</v>
+        <v>S-300 (S): +1 Help Defense.</v>
       </c>
       <c r="O24" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>Images/kirov.jpg</v>
+        <v>Images/slava.jpg</v>
       </c>
       <c r="P24" t="str" cm="1">
         <f t="array" aca="1" ref="P24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
+        <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form factor.</v>
       </c>
       <c r="Q24" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -6137,14 +5276,14 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D25" t="str" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>Kirov Class CGN</v>
+        <v>Slava Class CG</v>
       </c>
       <c r="E25" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -6160,19 +5299,19 @@
       </c>
       <c r="H25" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" cm="1">
         <f t="array" aca="1" ref="J25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K25" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L25" t="str" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -6184,15 +5323,15 @@
       </c>
       <c r="N25" t="str" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>S-300 (L): +2 Help Defense.</v>
+        <v>S-300 (S): +1 Help Defense.</v>
       </c>
       <c r="O25" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>Images/kirov.jpg</v>
+        <v>Images/slava.jpg</v>
       </c>
       <c r="P25" t="str" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
+        <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form factor.</v>
       </c>
       <c r="Q25" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -6207,7 +5346,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D26" t="str" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
@@ -6271,14 +5410,14 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D27" t="str" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
-        <v>Slava Class CG</v>
+        <v>Udaloy II Class DDG</v>
       </c>
       <c r="E27" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
@@ -6294,7 +5433,7 @@
       </c>
       <c r="H27" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
@@ -6306,7 +5445,7 @@
       </c>
       <c r="K27" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" t="str" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
@@ -6318,15 +5457,16 @@
       </c>
       <c r="N27" t="str" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
-        <v>S-300 (S): +1 Help Defense.</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="O27" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
-        <v>Images/slava.jpg</v>
+        <v>Images/udaloy.jpg</v>
       </c>
       <c r="P27" t="str" cm="1">
         <f t="array" aca="1" ref="P27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
-        <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form factor.</v>
+        <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
       <c r="Q27" cm="1">
         <f t="array" aca="1" ref="Q27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
@@ -6341,7 +5481,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
@@ -6406,14 +5546,14 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D29" t="str" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v>Udaloy II Class DDG</v>
+        <v>Gorshkov Class FFG</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
@@ -6433,7 +5573,7 @@
       </c>
       <c r="I29" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
@@ -6453,16 +5593,15 @@
       </c>
       <c r="N29" t="str" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v xml:space="preserve">
-</v>
+        <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="O29" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v>Images/udaloy.jpg</v>
+        <v>Images/gorshkov.jpg</v>
       </c>
       <c r="P29" t="str" cm="1">
         <f t="array" aca="1" ref="P29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v>Udaloy II: the ship so nice they designed it twice.</v>
+        <v>The cutting-edge Gorshkov frigates stick out in the largely-outdated Russian surface warfare fleet.</v>
       </c>
       <c r="Q29" cm="1">
         <f t="array" aca="1" ref="Q29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
@@ -6474,14 +5613,14 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="D30" t="str" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>Gorshkov Class FFG</v>
+        <v>Yasen Class SSGN</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
@@ -6497,19 +5636,19 @@
       </c>
       <c r="H30" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L30" t="str" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
@@ -6517,19 +5656,21 @@
       </c>
       <c r="M30" t="str" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>Ship</v>
+        <v>Submarine</v>
       </c>
       <c r="N30" t="str" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v xml:space="preserve">Hidden: Can be played face down. </v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage during the Ambush Damage Step.
+Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="O30" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>Images/gorshkov.jpg</v>
+        <v>Images/yasen.jpg</v>
       </c>
       <c r="P30" t="str" cm="1">
         <f t="array" aca="1" ref="P30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>The cutting-edge Gorshkov frigates stick out in the largely-outdated Russian surface warfare fleet.</v>
+        <v>With more than twice the firepower of western submarines, the Yassen is Russia's best effort in no-expensive-spared attack submarine development.</v>
       </c>
       <c r="Q30" cm="1">
         <f t="array" aca="1" ref="Q30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
@@ -6541,14 +5682,14 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D31" t="str" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>Gorshkov Class FFG</v>
+        <v>Yasen Class SSGN</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
@@ -6564,19 +5705,19 @@
       </c>
       <c r="H31" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L31" t="str" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
@@ -6584,19 +5725,21 @@
       </c>
       <c r="M31" t="str" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>Ship</v>
+        <v>Submarine</v>
       </c>
       <c r="N31" t="str" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v xml:space="preserve">Hidden: Can be played face down. </v>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage during the Ambush Damage Step.
+Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="O31" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>Images/gorshkov.jpg</v>
+        <v>Images/yasen.jpg</v>
       </c>
       <c r="P31" t="str" cm="1">
         <f t="array" aca="1" ref="P31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>The cutting-edge Gorshkov frigates stick out in the largely-outdated Russian surface warfare fleet.</v>
+        <v>With more than twice the firepower of western submarines, the Yassen is Russia's best effort in no-expensive-spared attack submarine development.</v>
       </c>
       <c r="Q31" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
@@ -6611,11 +5754,11 @@
         <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>Yassen Class SSGN</v>
+        <v>Yasen Class SSGN</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
@@ -6631,7 +5774,7 @@
       </c>
       <c r="H32" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
@@ -6639,11 +5782,11 @@
       </c>
       <c r="J32" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L32" t="str" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
@@ -6665,7 +5808,7 @@
       </c>
       <c r="P32" t="str" cm="1">
         <f t="array" aca="1" ref="P32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>The Yasen is a highly advanced attack submarine for the frugal modern navy.</v>
+        <v>With more than twice the firepower of western submarines, the Yassen is Russia's best effort in no-expensive-spared attack submarine development.</v>
       </c>
       <c r="Q32" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
@@ -6677,14 +5820,14 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
-        <v>Yassen Class SSGN</v>
+        <v>Lada Class SSK</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
@@ -6700,7 +5843,7 @@
       </c>
       <c r="H33" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
@@ -6712,7 +5855,7 @@
       </c>
       <c r="K33" cm="1">
         <f t="array" aca="1" ref="K33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33" t="str" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
@@ -6726,15 +5869,15 @@
         <f t="array" aca="1" ref="N33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
-Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
+Coastal Defender: Cannot be declared as an attacker.</v>
       </c>
       <c r="O33" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
-        <v>Images/yasen.jpg</v>
+        <v>Images/lada.jpg</v>
       </c>
       <c r="P33" t="str" cm="1">
         <f t="array" aca="1" ref="P33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
-        <v>The Yasen is a highly advanced attack submarine for the frugal modern navy.</v>
+        <v>Although shorter-ranged than nuclear attack submarines, diesel-electric attack submarines are smaller, quiter and nearly as well armed.</v>
       </c>
       <c r="Q33" cm="1">
         <f t="array" aca="1" ref="Q33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
@@ -6749,7 +5892,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
@@ -6777,11 +5920,11 @@
       </c>
       <c r="J34" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" t="str" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
@@ -6815,14 +5958,14 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>Lada Class SSK</v>
+        <v>Oscar II SSGN</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
@@ -6838,7 +5981,7 @@
       </c>
       <c r="H35" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
@@ -6850,7 +5993,7 @@
       </c>
       <c r="K35" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" t="str" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
@@ -6864,15 +6007,15 @@
         <f t="array" aca="1" ref="N35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
-Coastal Defender: Cannot be declared as an attacker.</v>
+Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="O35" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>Images/lada.jpg</v>
+        <v>Images/oscar2.jpg</v>
       </c>
       <c r="P35" t="str" cm="1">
         <f t="array" aca="1" ref="P35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>Although shorter-ranged than nuclear attack submarines, diesel-electric attack submarines are smaller, quiter and nearly as well armed.</v>
+        <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carrier.</v>
       </c>
       <c r="Q35" cm="1">
         <f t="array" aca="1" ref="Q35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
@@ -6887,7 +6030,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D36" t="str" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
@@ -6907,7 +6050,7 @@
       </c>
       <c r="H36" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
@@ -6915,11 +6058,11 @@
       </c>
       <c r="J36" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L36" t="str" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
@@ -6933,7 +6076,6 @@
         <f t="array" aca="1" ref="N36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
-Strategic Strike Capability: At the end of your turn, if this asset is face-up and did not take part of an attack or defense, your opponent must discard one card from their deck.
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="O36" t="str" cm="1">
@@ -6942,7 +6084,7 @@
       </c>
       <c r="P36" t="str" cm="1">
         <f t="array" aca="1" ref="P36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
-        <v>The massive Oscar is designed to use a barrage of large guided missiles to destroy US Navy aircraft carriers, which are among the most well-guarded military assets in the world.</v>
+        <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carrier.</v>
       </c>
       <c r="Q36" cm="1">
         <f t="array" aca="1" ref="Q36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
@@ -6954,14 +6096,14 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>23</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>188</v>
+        <v>24</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>Oscar II SSGN</v>
+        <v>Mig-29K Fulcrum-D</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
@@ -6977,19 +6119,19 @@
       </c>
       <c r="H37" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L37" t="str" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
@@ -6997,22 +6139,20 @@
       </c>
       <c r="M37" t="str" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>Submarine</v>
+        <v>Squadron</v>
       </c>
       <c r="N37" t="str" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
         <v>Hidden: Can be played face down. 
-Ambush: This asset deals damage during the Ambush Damage Step.
-Strategic Strike Capability: At the end of your turn, if this asset is face-up and did not take part of an attack or defense, your opponent must discard one card from their deck.
-Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
+STOBAR-Compatible.</v>
       </c>
       <c r="O37" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>Images/oscar2.jpg</v>
+        <v>Images/mig29k.jpg</v>
       </c>
       <c r="P37" t="str" cm="1">
         <f t="array" aca="1" ref="P37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>The massive Oscar is designed to use a barrage of large guided missiles to destroy US Navy aircraft carriers, which are among the most well-guarded military assets in the world.</v>
+        <v>With a 15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
       </c>
       <c r="Q37" cm="1">
         <f t="array" aca="1" ref="Q37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
@@ -7027,7 +6167,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
@@ -7092,14 +6232,14 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="D39" t="str" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>Mig-29K Fulcrum-D</v>
+        <v>Victor III SSN</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" aca="1" ref="E39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
@@ -7115,15 +6255,15 @@
       </c>
       <c r="H39" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" aca="1" ref="I39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" cm="1">
         <f t="array" aca="1" ref="J39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K39" cm="1">
         <f t="array" aca="1" ref="K39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
@@ -7135,20 +6275,21 @@
       </c>
       <c r="M39" t="str" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>Squadron</v>
+        <v>Submarine</v>
       </c>
       <c r="N39" t="str" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
         <v>Hidden: Can be played face down. 
-STOBAR-Compatible.</v>
-      </c>
-      <c r="O39" t="str" cm="1">
+Ambush: This asset deals damage during the Ambush Damage Step.
+Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
+      </c>
+      <c r="O39" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>Images/mig29k.jpg</v>
+        <v>0</v>
       </c>
       <c r="P39" t="str" cm="1">
         <f t="array" aca="1" ref="P39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>With a 15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
+        <v>Nothing fancy, but it ain't bad for government work.</v>
       </c>
       <c r="Q39" cm="1">
         <f t="array" aca="1" ref="Q39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
@@ -7160,14 +6301,14 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>24</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>235</v>
+        <v>26</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="D40" t="str" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>Mig-29K Fulcrum-D</v>
+        <v>Victor III SSN</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" aca="1" ref="E40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
@@ -7183,15 +6324,15 @@
       </c>
       <c r="H40" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" cm="1">
         <f t="array" aca="1" ref="J40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
@@ -7203,20 +6344,21 @@
       </c>
       <c r="M40" t="str" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>Squadron</v>
+        <v>Submarine</v>
       </c>
       <c r="N40" t="str" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
         <v>Hidden: Can be played face down. 
-STOBAR-Compatible.</v>
-      </c>
-      <c r="O40" t="str" cm="1">
+Ambush: This asset deals damage during the Ambush Damage Step.
+Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
+      </c>
+      <c r="O40" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>Images/mig29k.jpg</v>
+        <v>0</v>
       </c>
       <c r="P40" t="str" cm="1">
         <f t="array" aca="1" ref="P40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>With a 15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
+        <v>Nothing fancy, but it ain't bad for government work.</v>
       </c>
       <c r="Q40" cm="1">
         <f t="array" aca="1" ref="Q40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
@@ -7231,7 +6373,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D41" t="str" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
@@ -7251,7 +6393,7 @@
       </c>
       <c r="H41" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
@@ -7259,11 +6401,11 @@
       </c>
       <c r="J41" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" cm="1">
         <f t="array" aca="1" ref="K41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41" t="str" cm="1">
         <f t="array" aca="1" ref="L41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
@@ -7300,7 +6442,7 @@
         <v>27</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D42" t="str" cm="1">
         <f t="array" aca="1" ref="D42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
@@ -7320,7 +6462,7 @@
       </c>
       <c r="H42" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
@@ -7328,11 +6470,11 @@
       </c>
       <c r="J42" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" aca="1" ref="K42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" t="str" cm="1">
         <f t="array" aca="1" ref="L42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
@@ -7369,7 +6511,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="D43" t="str" cm="1">
         <f t="array" aca="1" ref="D43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
@@ -7389,7 +6531,7 @@
       </c>
       <c r="H43" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
@@ -7397,11 +6539,11 @@
       </c>
       <c r="J43" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43" cm="1">
         <f t="array" aca="1" ref="K43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43" t="str" cm="1">
         <f t="array" aca="1" ref="L43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
@@ -7427,75 +6569,6 @@
       </c>
       <c r="Q43" cm="1">
         <f t="array" aca="1" ref="Q43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>27</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" t="str" cm="1">
-        <f t="array" aca="1" ref="D44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>Akula Class SSN</v>
-      </c>
-      <c r="E44" cm="1">
-        <f t="array" aca="1" ref="E44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" cm="1">
-        <f t="array" aca="1" ref="F44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" cm="1">
-        <f t="array" aca="1" ref="G44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" cm="1">
-        <f t="array" aca="1" ref="H44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>2</v>
-      </c>
-      <c r="I44" cm="1">
-        <f t="array" aca="1" ref="I44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" cm="1">
-        <f t="array" aca="1" ref="J44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>2</v>
-      </c>
-      <c r="K44" cm="1">
-        <f t="array" aca="1" ref="K44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>2</v>
-      </c>
-      <c r="L44" t="str" cm="1">
-        <f t="array" aca="1" ref="L44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>RUS</v>
-      </c>
-      <c r="M44" t="str" cm="1">
-        <f t="array" aca="1" ref="M44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>Submarine</v>
-      </c>
-      <c r="N44" t="str" cm="1">
-        <f t="array" aca="1" ref="N44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>Hidden: Can be played face down. 
-Ambush: This asset deals damage during the Ambush Damage Step.
-Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
-      </c>
-      <c r="O44" t="str" cm="1">
-        <f t="array" aca="1" ref="O44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>Images/akula.jpg</v>
-      </c>
-      <c r="P44" t="str" cm="1">
-        <f t="array" aca="1" ref="P44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>In Russian, akula means shark</v>
-      </c>
-      <c r="Q44" cm="1">
-        <f t="array" aca="1" ref="Q44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
         <v>1.5</v>
       </c>
     </row>
@@ -7510,8 +6583,8 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7534,13 +6607,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
         <v>30</v>
@@ -7564,18 +6637,18 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7602,10 +6675,10 @@
 Carrier 3: Can station 3 aircraft squadron.</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="N2">
         <f>version!$A$1</f>
@@ -7614,7 +6687,7 @@
     </row>
     <row r="3" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7641,7 +6714,7 @@
 Carrier 3: Can station 3 aircraft squadron.</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <f>version!$A$1</f>
@@ -7650,7 +6723,7 @@
     </row>
     <row r="4" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7676,10 +6749,10 @@
 Carrier 1: Can station 1 aircraft squadron.</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="N4">
         <f>version!$A$1</f>
@@ -7688,7 +6761,7 @@
     </row>
     <row r="5" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7714,7 +6787,7 @@
 Carrier 2: Can station 2 aircraft squadron.</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N5">
         <f>version!$A$1</f>
@@ -7723,7 +6796,7 @@
     </row>
     <row r="6" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -7732,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -7751,10 +6824,10 @@
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="N6">
         <f>version!$A$1</f>
@@ -7763,7 +6836,7 @@
     </row>
     <row r="7" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -7772,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -7790,10 +6863,10 @@
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="L7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N7">
         <f>version!$A$1</f>
@@ -7802,19 +6875,19 @@
     </row>
     <row r="8" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -7829,10 +6902,10 @@
 Hidden: Can be played face down. </v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="N8">
         <f>version!$A$1</f>
@@ -7841,7 +6914,7 @@
     </row>
     <row r="9" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -7866,10 +6939,10 @@
         <v>AEGIS: +2 Help Defense.</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="N9">
         <f>version!$A$1</f>
@@ -7878,7 +6951,7 @@
     </row>
     <row r="10" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -7903,10 +6976,10 @@
         <v>AEGIS: +2 Help Defense.</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="N10">
         <f>version!$A$1</f>
@@ -7915,7 +6988,7 @@
     </row>
     <row r="11" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -7940,10 +7013,10 @@
         <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="N11">
         <f>version!$A$1</f>
@@ -7952,7 +7025,7 @@
     </row>
     <row r="12" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -7970,7 +7043,7 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K12" s="1" t="str">
         <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A$28</f>
@@ -7978,10 +7051,10 @@
 CATOBAR-Compatible.</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="N12">
         <f>version!$A$1</f>
@@ -8008,7 +7081,7 @@
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K13" s="1" t="str">
         <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A$26</f>
@@ -8017,10 +7090,10 @@
 VTOL-Compatible.</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="N13">
         <f>version!$A$1</f>
@@ -8047,7 +7120,7 @@
         <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K14" s="1" t="str">
         <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A$28</f>
@@ -8056,10 +7129,10 @@
 CATOBAR-Compatible.</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="N14">
         <f>version!$A$1</f>
@@ -8086,7 +7159,7 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K15" s="1" t="str">
         <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A$26</f>
@@ -8094,10 +7167,10 @@
 VTOL-Compatible.</v>
       </c>
       <c r="L15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="N15">
         <f>version!$A$1</f>
@@ -8106,7 +7179,7 @@
     </row>
     <row r="16" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -8115,7 +7188,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>6</v>
@@ -8132,10 +7205,10 @@
 Carrier 2: Can station 2 aircraft squadron.</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="N16">
         <f>version!$A$1</f>
@@ -8144,19 +7217,19 @@
     </row>
     <row r="17" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
@@ -8169,10 +7242,10 @@
         <v>S-300 (L): +2 Help Defense.</v>
       </c>
       <c r="L17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="N17">
         <f>version!$A$1</f>
@@ -8181,7 +7254,7 @@
     </row>
     <row r="18" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -8206,10 +7279,10 @@
         <v>S-300 (S): +1 Help Defense.</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="N18">
         <f>version!$A$1</f>
@@ -8218,7 +7291,7 @@
     </row>
     <row r="19" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -8244,10 +7317,10 @@
 </v>
       </c>
       <c r="L19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="N19">
         <f>version!$A$1</f>
@@ -8256,7 +7329,7 @@
     </row>
     <row r="20" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -8281,31 +7354,31 @@
         <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="N20">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>278</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
@@ -8320,10 +7393,10 @@
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="L21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="N21">
         <f>version!$A$1</f>
@@ -8341,10 +7414,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
         <v>28</v>
@@ -8359,10 +7432,10 @@
 Coastal Defender: Cannot be declared as an attacker.</v>
       </c>
       <c r="L22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="N22">
         <f>version!$A$1</f>
@@ -8371,19 +7444,19 @@
     </row>
     <row r="23" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23" t="s">
         <v>28</v>
@@ -8392,17 +7465,16 @@
         <v>20</v>
       </c>
       <c r="K23" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A10&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
-Strategic Strike Capability: At the end of your turn, if this asset is face-up and did not take part of an attack or defense, your opponent must discard one card from their deck.
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="L23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="N23">
         <f>version!$A$1</f>
@@ -8411,7 +7483,7 @@
     </row>
     <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -8429,7 +7501,7 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K24" s="1" t="str">
         <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A$27</f>
@@ -8437,10 +7509,10 @@
 STOBAR-Compatible.</v>
       </c>
       <c r="L24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="N24">
         <f>version!$A$1</f>
@@ -8449,7 +7521,7 @@
     </row>
     <row r="25" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -8467,7 +7539,7 @@
         <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K25" s="1" t="str">
         <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A$27</f>
@@ -8475,31 +7547,31 @@
 STOBAR-Compatible.</v>
       </c>
       <c r="L25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="N25">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
         <v>28</v>
@@ -8508,12 +7580,13 @@
         <v>20</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
-        <v>Ambush: This asset deals damage during the Ambush Damage Step.
+        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <v>Hidden: Can be played face down. 
+Ambush: This asset deals damage during the Ambush Damage Step.
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
-      <c r="L26" t="s">
-        <v>129</v>
+      <c r="M26" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="N26">
         <f>version!$A$1</f>
@@ -8522,19 +7595,19 @@
     </row>
     <row r="27" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
         <v>28</v>
@@ -8549,10 +7622,10 @@
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="L27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="N27">
         <f>version!$A$1</f>
@@ -8570,7 +7643,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8580,157 +7653,157 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -8761,7 +7834,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8769,7 +7842,7 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
@@ -8779,10 +7852,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D1" t="str">
         <f>actions!A1</f>
@@ -8821,7 +7894,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -8861,7 +7934,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -8901,7 +7974,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -8941,7 +8014,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
@@ -8981,7 +8054,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
@@ -9021,7 +8094,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
@@ -9061,7 +8134,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
@@ -9101,7 +8174,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
@@ -9141,7 +8214,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
@@ -9181,7 +8254,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
@@ -9221,7 +8294,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -9261,7 +8334,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
@@ -9301,7 +8374,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
@@ -9341,7 +8414,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -9381,7 +8454,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -9421,7 +8494,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
@@ -9461,7 +8534,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -9530,13 +8603,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9573,10 +8646,10 @@
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F25" si="0">CHAR(10)</f>
@@ -9599,10 +8672,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -9625,7 +8698,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -9648,10 +8721,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -9674,10 +8747,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -9700,10 +8773,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -9726,10 +8799,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -9752,10 +8825,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -9778,10 +8851,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -9807,7 +8880,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -9830,10 +8903,10 @@
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -9856,10 +8929,10 @@
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -9882,10 +8955,10 @@
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -9908,10 +8981,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -9934,10 +9007,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -9974,7 +9047,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -9983,10 +9056,10 @@
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -10032,10 +9105,10 @@
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -10058,7 +9131,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -10081,10 +9154,10 @@
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -10121,7 +9194,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -10130,10 +9203,10 @@
         <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -10155,7 +9228,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10189,10 +9262,10 @@
         <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -10241,7 +9314,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="H3">
         <f>version!$A$1</f>
@@ -10992,10 +10065,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8A294D-8A6F-470F-8FC6-DE99DB04E18C}">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11040,10 +10113,10 @@
         <v>Rosters</v>
       </c>
       <c r="J1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="L1" t="s">
         <v>80</v>
@@ -11061,7 +10134,7 @@
         <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -11095,11 +10168,11 @@
       </c>
       <c r="J2">
         <f>T17+T7</f>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="K2">
         <f>J2/G2</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L25" si="0">C2/G2</f>
@@ -11115,7 +10188,7 @@
       </c>
       <c r="O2">
         <f>M2+L2+N2+K2</f>
-        <v>1.6666666666666665</v>
+        <v>1.9166666666666665</v>
       </c>
       <c r="P2">
         <f>L2+M2</f>
@@ -11123,7 +10196,7 @@
       </c>
       <c r="Q2">
         <f>C2+E2/2+F2+J2</f>
-        <v>10</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -11157,11 +10230,11 @@
       </c>
       <c r="J3">
         <f>T17+T7+T12</f>
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K25" si="3">J3/G3</f>
-        <v>0.9285714285714286</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
@@ -11177,7 +10250,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O25" si="4">M3+L3+N3+K3</f>
-        <v>1.5</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P6" si="5">L3+M3</f>
@@ -11185,7 +10258,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q25" si="6">C3+E3/2+F3+J3</f>
-        <v>10.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -11218,12 +10291,12 @@
         <v>USN</v>
       </c>
       <c r="J4">
-        <f>T18-T16</f>
-        <v>5</v>
+        <f>T19-T16</f>
+        <v>4.5</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
@@ -11239,7 +10312,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="4"/>
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
         <f t="shared" si="5"/>
@@ -11247,10 +10320,10 @@
       </c>
       <c r="Q4">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="S4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -11283,12 +10356,12 @@
         <v>USN</v>
       </c>
       <c r="J5">
-        <f>T19-T16</f>
-        <v>3.5</v>
+        <f>T18-T16</f>
+        <v>5.5</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -11304,7 +10377,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="4"/>
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="P5">
         <f t="shared" si="5"/>
@@ -11312,10 +10385,10 @@
       </c>
       <c r="Q5">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="T5">
         <v>2</v>
@@ -11340,7 +10413,7 @@
       </c>
       <c r="F6">
         <f>military_assets!G6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f>military_assets!H6</f>
@@ -11364,7 +10437,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
@@ -11372,18 +10445,18 @@
       </c>
       <c r="O6">
         <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="P6">
         <f t="shared" si="5"/>
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -11408,7 +10481,7 @@
       </c>
       <c r="F7">
         <f>military_assets!G7</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f>military_assets!H7</f>
@@ -11432,7 +10505,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
@@ -11440,21 +10513,21 @@
       </c>
       <c r="O7">
         <f t="shared" si="4"/>
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="P7">
         <f t="shared" ref="P7:P25" si="7">L7+M7</f>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="S7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -11472,15 +10545,15 @@
       </c>
       <c r="E8">
         <f>military_assets!F8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <f>military_assets!G8</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <f>military_assets!H8</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" t="str">
         <f>military_assets!I8</f>
@@ -11492,23 +10565,23 @@
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" si="4"/>
-        <v>2.333333333333333</v>
+        <v>2.8</v>
       </c>
       <c r="P8">
         <f t="shared" si="7"/>
@@ -11516,10 +10589,10 @@
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="S8" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="T8">
         <v>3</v>
@@ -11587,7 +10660,7 @@
         <v>9.5</v>
       </c>
       <c r="S9" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="T9">
         <v>1.5</v>
@@ -11655,7 +10728,7 @@
         <v>8.5</v>
       </c>
       <c r="S10" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="T10">
         <v>0.5</v>
@@ -11719,7 +10792,7 @@
         <v>7</v>
       </c>
       <c r="S11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="T11">
         <v>-2</v>
@@ -11787,7 +10860,7 @@
         <v>7.5</v>
       </c>
       <c r="S12" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="T12">
         <v>0.5</v>
@@ -11855,7 +10928,7 @@
         <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="T13">
         <v>2</v>
@@ -11985,7 +11058,7 @@
         <v>5</v>
       </c>
       <c r="S15" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="T15">
         <v>-2</v>
@@ -12010,7 +11083,7 @@
       </c>
       <c r="F16">
         <f>military_assets!G16</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <f>military_assets!H16</f>
@@ -12022,11 +11095,11 @@
       </c>
       <c r="J16">
         <f>T18</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
@@ -12034,7 +11107,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
@@ -12042,18 +11115,18 @@
       </c>
       <c r="O16">
         <f t="shared" si="4"/>
-        <v>2.333333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="P16">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="S16" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="T16">
         <v>-2</v>
@@ -12074,15 +11147,15 @@
       </c>
       <c r="E17">
         <f>military_assets!F17</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <f>military_assets!G17</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <f>military_assets!H17</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" t="str">
         <f>military_assets!I17</f>
@@ -12094,37 +11167,37 @@
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="O17">
         <f t="shared" si="4"/>
-        <v>2.6666666666666665</v>
+        <v>2.6</v>
       </c>
       <c r="P17">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S17" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -12189,10 +11262,10 @@
         <v>8.5</v>
       </c>
       <c r="S18" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -12256,10 +11329,10 @@
         <v>5</v>
       </c>
       <c r="S19" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="T19">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -12327,7 +11400,7 @@
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>military_assets!A21</f>
-        <v>Yassen Class SSGN</v>
+        <v>Yasen Class SSGN</v>
       </c>
       <c r="B21" t="str">
         <f>military_assets!J21</f>
@@ -12335,7 +11408,7 @@
       </c>
       <c r="C21">
         <f>military_assets!E21</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <f>military_assets!F21</f>
@@ -12343,11 +11416,11 @@
       </c>
       <c r="F21">
         <f>military_assets!G21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <f>military_assets!H21</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" t="str">
         <f>military_assets!I21</f>
@@ -12359,15 +11432,15 @@
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
-        <v>1.1666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
@@ -12375,15 +11448,15 @@
       </c>
       <c r="O21">
         <f t="shared" si="4"/>
-        <v>3.166666666666667</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P21">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Q21">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -12405,11 +11478,11 @@
       </c>
       <c r="F22">
         <f>military_assets!G22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <f>military_assets!H22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="str">
         <f>military_assets!I22</f>
@@ -12421,11 +11494,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
@@ -12437,15 +11510,15 @@
       </c>
       <c r="O22">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="P22">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -12459,7 +11532,7 @@
       </c>
       <c r="C23">
         <f>military_assets!E23</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <f>military_assets!F23</f>
@@ -12467,11 +11540,11 @@
       </c>
       <c r="F23">
         <f>military_assets!G23</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <f>military_assets!H23</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23" t="str">
         <f>military_assets!I23</f>
@@ -12483,15 +11556,15 @@
       </c>
       <c r="K23">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
@@ -12499,15 +11572,15 @@
       </c>
       <c r="O23">
         <f t="shared" si="4"/>
-        <v>2.4000000000000004</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <f t="shared" si="7"/>
-        <v>1.6</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="Q23">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -12634,12 +11707,139 @@
         <v>7.5</v>
       </c>
     </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>military_assets!A26</f>
+        <v>Victor III SSN</v>
+      </c>
+      <c r="B26" t="str">
+        <f>military_assets!J26</f>
+        <v>Submarine</v>
+      </c>
+      <c r="C26">
+        <f>military_assets!E26</f>
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f>military_assets!F26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>military_assets!G26</f>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f>military_assets!H26</f>
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f>military_assets!I26</f>
+        <v>RUS</v>
+      </c>
+      <c r="J26">
+        <f>T5+T10+T6</f>
+        <v>3.5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:K27" si="8">J26/G26</f>
+        <v>3.5</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:L27" si="9">C26/G26</f>
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26:M27" si="10">F26/G26</f>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N27" si="11">E26/G26</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:O27" si="12">M26+L26+N26+K26</f>
+        <v>6.5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26:P27" si="13">L26+M26</f>
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q27" si="14">C26+E26/2+F26+J26</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>military_assets!A27</f>
+        <v>Akula Class SSN</v>
+      </c>
+      <c r="B27" t="str">
+        <f>military_assets!J27</f>
+        <v>Submarine</v>
+      </c>
+      <c r="C27">
+        <f>military_assets!E27</f>
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <f>military_assets!F27</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>military_assets!G27</f>
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <f>military_assets!H27</f>
+        <v>3</v>
+      </c>
+      <c r="I27" t="str">
+        <f>military_assets!I27</f>
+        <v>RUS</v>
+      </c>
+      <c r="J27">
+        <f>T5+T6+T10</f>
+        <v>3.5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="8"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="12"/>
+        <v>3.166666666666667</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="14"/>
+        <v>9.5</v>
+      </c>
+    </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>277</v>
+      </c>
       <c r="N28" t="s">
         <v>21</v>
       </c>
       <c r="O28" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -12649,435 +11849,333 @@
       </c>
       <c r="O29">
         <f>Q2</f>
-        <v>10</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>A2</f>
-        <v>Nimitz Class CVN</v>
-      </c>
-      <c r="B30">
-        <f>O2</f>
-        <v>1.6666666666666665</v>
-      </c>
       <c r="N30">
-        <f t="shared" ref="N30:N52" si="8">G3</f>
+        <f t="shared" ref="N30:N52" si="15">G3</f>
         <v>7</v>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30:O52" si="9">Q3</f>
+        <f t="shared" ref="O30:O52" si="16">Q3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="16"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="16"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" ref="A31:A53" si="10">A3</f>
-        <v>Gerald R Ford CVN</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ref="B31:B53" si="11">O3</f>
-        <v>1.5</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="8"/>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f t="shared" si="10"/>
-        <v>Wasp Class LHA</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="11"/>
-        <v>2.6</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="8"/>
+      <c r="O35">
+        <f t="shared" si="16"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="16"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="16"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="9"/>
+    </row>
+    <row r="43" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="16"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="44" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="16"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="46" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="16"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="16"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="50" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f t="shared" si="10"/>
-        <v>America Class LHA</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="11"/>
-        <v>1.7</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f t="shared" si="10"/>
-        <v>Seawolf Class SSN</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="11"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="9"/>
+    <row r="52" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="16"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <f t="shared" ref="N53:N54" si="17">G26</f>
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O54" si="18">Q26</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="54" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="18"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f t="shared" si="10"/>
-        <v>Virginia Class SSN</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="11"/>
-        <v>2.375</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f t="shared" si="10"/>
-        <v>Ohio Class SSGN</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="11"/>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="9"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f t="shared" si="10"/>
-        <v>Ticonderoga Class CG</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="11"/>
-        <v>2.75</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="9"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f t="shared" si="10"/>
-        <v>Arleigh Burke Class DDG</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="11"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f t="shared" si="10"/>
-        <v>Zumwalt Class DDG</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f t="shared" si="10"/>
-        <v>F/A-18E Superhornet</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="11"/>
-        <v>4.75</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f t="shared" si="10"/>
-        <v>F-35B Lightning II</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="11"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="9"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f t="shared" si="10"/>
-        <v>F-35C  Lightning II</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="11"/>
-        <v>5.25</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f t="shared" si="10"/>
-        <v>AV-8B Harrier II</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="11"/>
-        <v>6.5</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f t="shared" si="10"/>
-        <v>Kuznetsov Class CV</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="11"/>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f t="shared" si="10"/>
-        <v>Kirov Class CGN</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="11"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="9"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f t="shared" si="10"/>
-        <v>Slava Class CG</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="11"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f t="shared" si="10"/>
-        <v>Udaloy II Class DDG</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f t="shared" si="10"/>
-        <v>Gorshkov Class FFG</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="11"/>
-        <v>5.5</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="9"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f t="shared" si="10"/>
-        <v>Yassen Class SSGN</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="11"/>
-        <v>3.166666666666667</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f t="shared" si="10"/>
-        <v>Lada Class SSK</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f t="shared" si="10"/>
-        <v>Oscar II SSGN</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="11"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f t="shared" si="10"/>
-        <v>Mig-29K Fulcrum-D</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f t="shared" si="10"/>
-        <v>Su-33 Flanker-D</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="11"/>
-        <v>9.5</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="O27:O29 O1:O25 O53:O1048576">
+  <conditionalFormatting sqref="O28:O29 O1:O25 O55:O1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28:P1048576 P1:P25 Q1">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O52">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -13089,7 +12187,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P1048576 P1:P25 Q1">
+  <conditionalFormatting sqref="O53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -13101,7 +12199,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O52">
+  <conditionalFormatting sqref="O54">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shipcards\shipcards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED9BF7-E419-43CA-A84D-C2BCA824F0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DFE5BD-B606-4779-9A72-7A9A66E5589E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="7500" windowHeight="6000" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
   </bookViews>
   <sheets>
     <sheet name="military_asset_final" sheetId="7" r:id="rId1"/>
@@ -22,11 +22,6 @@
     <sheet name="territories" sheetId="5" r:id="rId7"/>
     <sheet name="balance" sheetId="6" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">balance!$N$29:$N$54</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">balance!$O$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">balance!$O$29:$O$54</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -67,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="286">
   <si>
     <t>Title</t>
   </si>
@@ -922,6 +917,9 @@
   </si>
   <si>
     <t>Volk</t>
+  </si>
+  <si>
+    <t>Images/victor2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1103,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15083298-1658-4A69-B28D-243BD43CB66C}" type="CELLRANGE">
+                    <a:fld id="{21B95892-6DA9-4034-953E-47FD8B47E898}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1139,7 +1137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A32BECBF-866A-4C0C-B583-EB7902D24E19}" type="CELLRANGE">
+                    <a:fld id="{A4231283-7E2E-4DC7-AE2B-44E04DC1142A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1173,7 +1171,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34EF18BD-1764-4B79-9B3B-FBCD33AD7FF9}" type="CELLRANGE">
+                    <a:fld id="{E9F0132E-E280-4B85-8EF4-FF321211C5F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1213,7 +1211,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC02E098-4D3B-40E2-8942-360E7C0D2F77}" type="CELLRANGE">
+                    <a:fld id="{57D3DD51-218C-40F4-9E95-A2D1B5B203AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1252,7 +1250,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2FCD011-1021-4B19-8CD0-89901BFF803F}" type="CELLRANGE">
+                    <a:fld id="{B9E08673-4B86-4A40-B222-A79D92C40D26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1285,7 +1283,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0787FDBD-D43D-4E8C-9F27-93C7FC830F4B}" type="CELLRANGE">
+                    <a:fld id="{D66BC644-C4DC-415A-82CC-2FEA5E75CC4F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1319,7 +1317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCFFF8FB-4A0F-4C2D-AC15-3D928EB23DDF}" type="CELLRANGE">
+                    <a:fld id="{50910983-ED6D-467C-93DC-F1B555E1E704}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1359,7 +1357,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3ADB6F29-0F85-4C92-B2AF-067A66B46776}" type="CELLRANGE">
+                    <a:fld id="{AA8CA188-EE14-46F9-B68D-859462EDC83D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1398,7 +1396,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60699A83-485E-46A2-B1AC-D9F33BEA2CA6}" type="CELLRANGE">
+                    <a:fld id="{CB276A3A-3054-450A-AED0-3AA6803D190A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1431,7 +1429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5CA9E40-0FE5-4B11-9CA2-F39B04CF4D9E}" type="CELLRANGE">
+                    <a:fld id="{C954CC9B-38F2-4117-AA4C-30113B8E4B70}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1471,7 +1469,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63D62B9A-0835-47D2-A360-7DF686C0ADC8}" type="CELLRANGE">
+                    <a:fld id="{97B32F66-96EB-4510-901E-3097ADC08E26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1525,7 +1523,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{AAAA77CF-34DC-4D7A-98BA-6FCE5C2CFDF2}" type="CELLRANGE">
+                    <a:fld id="{79918D58-3D55-4D99-895A-E0F09CA24296}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1595,7 +1593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B2614AB-2838-4F2E-8672-2F7C3A3F37AD}" type="CELLRANGE">
+                    <a:fld id="{FB044824-FED1-455D-9CF7-7D4FBE9085DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1635,7 +1633,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADA0CF31-4BA6-4E2D-96FF-167CC50A51C4}" type="CELLRANGE">
+                    <a:fld id="{5AE982CD-46EF-41E9-9408-B07203E3A14E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1674,7 +1672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38E4270B-EADB-40FF-A460-726DBFE986B1}" type="CELLRANGE">
+                    <a:fld id="{A2EB8403-6DDE-432A-BC5A-1CEA46F2F5FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1707,7 +1705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A65ECFC2-6312-4F14-A3B5-D7B186D0B363}" type="CELLRANGE">
+                    <a:fld id="{79EA1A9A-F745-41B9-9AD1-1115D220C81A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1747,7 +1745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41737ADB-53F9-4F3D-A3FF-C9964E367E53}" type="CELLRANGE">
+                    <a:fld id="{A6F46525-8462-428D-9E12-E6DE4324CB99}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1801,7 +1799,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{A9C7796C-6689-4AB2-9FFF-28BFA6159E83}" type="CELLRANGE">
+                    <a:fld id="{98C82D7E-F71F-47BB-B3C7-96C9D1838DB3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1877,7 +1875,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{060F4797-7685-4066-B4AE-CDD5E1841CDB}" type="CELLRANGE">
+                    <a:fld id="{0D4DEA62-63D2-4008-81FB-DA3E03E3D069}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1916,7 +1914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4F4509D-3DCB-420C-A905-B1FC2CB8D9D7}" type="CELLRANGE">
+                    <a:fld id="{57A26F14-7606-4BBC-AAF6-6C4A5070F0D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1955,7 +1953,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96751F0D-A27D-4F35-8973-80D0588E728B}" type="CELLRANGE">
+                    <a:fld id="{ED2CC525-4108-4D4C-9F2A-4368CA083E02}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1994,7 +1992,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{524DA7CD-3C10-4C6C-A8FA-AB0A9CA8AEEF}" type="CELLRANGE">
+                    <a:fld id="{C33EB8AE-80C4-4898-8E6A-7DD1FBDFCFFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2027,7 +2025,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8045BFE9-3E27-48CE-A3D9-B907B7BFF4C9}" type="CELLRANGE">
+                    <a:fld id="{2FCED977-1C94-4180-AFB6-C4D65CD2FAD4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2067,7 +2065,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35C15702-AD20-4E1C-8DC0-0608FBA25E0A}" type="CELLRANGE">
+                    <a:fld id="{15088E43-A2C7-4B9D-B385-5B3312FB241C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2100,7 +2098,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96035AFD-2092-41F7-B9CA-93D4EC24FF17}" type="CELLRANGE">
+                    <a:fld id="{C4CFEE3B-221E-4BC2-B895-4D7105E70182}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2140,7 +2138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C53CD4B4-16E5-431B-A56F-0AF034B01460}" type="CELLRANGE">
+                    <a:fld id="{972D6428-29EB-46BF-8035-08E1C11414DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3604,7 +3602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E8987D-349F-4742-AF8A-4428C54D0A0B}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -6283,9 +6281,9 @@
 Ambush: This asset deals damage during the Ambush Damage Step.
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
-      <c r="O39" cm="1">
+      <c r="O39" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>0</v>
+        <v>Images/victor2.jpg</v>
       </c>
       <c r="P39" t="str" cm="1">
         <f t="array" aca="1" ref="P39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
@@ -6352,9 +6350,9 @@
 Ambush: This asset deals damage during the Ambush Damage Step.
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
-      <c r="O40" cm="1">
+      <c r="O40" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>0</v>
+        <v>Images/victor2.jpg</v>
       </c>
       <c r="P40" t="str" cm="1">
         <f t="array" aca="1" ref="P40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
@@ -6582,9 +6580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA93C54-FC77-4A57-AEDF-D4D1B82432EF}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7584,6 +7582,9 @@
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
+      </c>
+      <c r="L26" t="s">
+        <v>285</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>275</v>

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shipcards\shipcards\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shipcards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DFE5BD-B606-4779-9A72-7A9A66E5589E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460A7405-8721-467F-B91F-B50A877DFE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
+    <workbookView xWindow="8220" yWindow="1725" windowWidth="28800" windowHeight="15435" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
   </bookViews>
   <sheets>
     <sheet name="military_asset_final" sheetId="7" r:id="rId1"/>
     <sheet name="military_assets" sheetId="1" r:id="rId2"/>
-    <sheet name="ship_effects" sheetId="2" r:id="rId3"/>
+    <sheet name="effects" sheetId="2" r:id="rId3"/>
     <sheet name="version" sheetId="8" r:id="rId4"/>
     <sheet name="actions_final" sheetId="10" r:id="rId5"/>
     <sheet name="actions" sheetId="3" r:id="rId6"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="289">
   <si>
     <t>Title</t>
   </si>
@@ -151,9 +151,6 @@
     <t>RUS</t>
   </si>
   <si>
-    <t>Return all ships to your hand, they can be replayed immediately. Play this only anytime you could play a strategy</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>Has +2 additional logistics capacity if not controlled by a USN player</t>
   </si>
   <si>
-    <t>Grants 2 logistics capacity to the USN player if controlled by their opponent</t>
-  </si>
-  <si>
     <t>Uncommon Valor Was A Common Virtue</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>Gunboat Diplomacy</t>
   </si>
   <si>
-    <t>Friendly ships have +2 shore attack when assaulting undefended territories</t>
-  </si>
-  <si>
     <t>One Million Deaths Is A Statistic</t>
   </si>
   <si>
@@ -301,9 +292,6 @@
     <t>Tartus, Syria</t>
   </si>
   <si>
-    <t>Provides -1 logistics capacity if owned by a non-Russian player</t>
-  </si>
-  <si>
     <t>Normalized Attack</t>
   </si>
   <si>
@@ -454,12 +442,6 @@
     <t>That's the Spirit!</t>
   </si>
   <si>
-    <t>Reveal all opposing ships</t>
-  </si>
-  <si>
-    <t>Look at and reorder the top 4 cards of your deck. You may put any number on the bottom of your deck</t>
-  </si>
-  <si>
     <t>Images/midway.jpg</t>
   </si>
   <si>
@@ -511,9 +493,6 @@
     <t>In Soviet Russia, Land Conquers You</t>
   </si>
   <si>
-    <t>Regain control of one territory you've lost</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -625,12 +604,6 @@
     <t>Squadron II</t>
   </si>
   <si>
-    <t>The F-35B is a special variant of the F-35 capable of taking off vertically. This will allow it to be used in conjunction with ships that have typically not been able to field modern aircraft.</t>
-  </si>
-  <si>
-    <t>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points-a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</t>
-  </si>
-  <si>
     <t>Although sold to a company in Macau supposedly for use as a floating casino, Kuznetsov's sister ship has since unsurprisingly become the first aircraft carrier of the Chinese People's Liberation Army Navy.</t>
   </si>
   <si>
@@ -652,9 +625,6 @@
     <t>In Russian, akula means shark</t>
   </si>
   <si>
-    <t>A military airbase at sea, a Nimitz carrier is more than three times longer than a football field and has more than twice the displacement of the German super-battleship Bismarck.</t>
-  </si>
-  <si>
     <t>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</t>
   </si>
   <si>
@@ -673,24 +643,15 @@
     <t>Zumwalt was designed to perform a shore bombardment role that has remained unfilled in the navy since the retirement of the last battleship. Since no ammunition has yet been produced for its custom howitzer, this role remains unfulfilled today.</t>
   </si>
   <si>
-    <t>The F/A-18 is one of the longest-tenured and most battle-proven multirole carrier aircraft in the world.</t>
-  </si>
-  <si>
     <t>The F-35 acquisition program cost of just under $450 billion USD would be enough to buy 450 billion $1 cheeseburgers - enough to kill all humans on earth.</t>
   </si>
   <si>
-    <t>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form factor.</t>
-  </si>
-  <si>
     <t>Although shorter-ranged than nuclear attack submarines, diesel-electric attack submarines are smaller, quiter and nearly as well armed.</t>
   </si>
   <si>
     <t>AEGIS: +2 Help Defense.</t>
   </si>
   <si>
-    <t>RAINFALL: If controlled by a USN player, mark one enemy ship. That ship loses the stealth tag and cannot hide. If it is hidden, flip it. The target of this action may be changed during the first deployment step.</t>
-  </si>
-  <si>
     <t>STOBAR: Compatible with STOBAR and VTOL squadrons.</t>
   </si>
   <si>
@@ -727,9 +688,6 @@
     <t>When drawing a card, you may choose to reveal that card and place it on the bottom of your deck.</t>
   </si>
   <si>
-    <t>Russian territories your opponents control provide -2 logistics</t>
-  </si>
-  <si>
     <t>Ignore the effects of a tactic card.</t>
   </si>
   <si>
@@ -754,9 +712,6 @@
     <t>Immediately take one military asset card from your hand and put it into play under your control; it may attack or defend this turn.</t>
   </si>
   <si>
-    <t>Flip all military assets your opponents control face up.</t>
-  </si>
-  <si>
     <t>Search your deck for an air squadron, reveal it, and place it on a territory you control. You must control a territory to play this card.</t>
   </si>
   <si>
@@ -886,15 +841,9 @@
     <t>Carrier 1</t>
   </si>
   <si>
-    <t>With more than twice the firepower of western submarines, the Yassen is Russia's best effort in no-expensive-spared attack submarine development.</t>
-  </si>
-  <si>
     <t>Nothing fancy, but it ain't bad for government work.</t>
   </si>
   <si>
-    <t>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carrier.</t>
-  </si>
-  <si>
     <t>Chart data</t>
   </si>
   <si>
@@ -920,6 +869,66 @@
   </si>
   <si>
     <t>Images/victor2.jpg</t>
+  </si>
+  <si>
+    <t>Images/navalbase.jpg</t>
+  </si>
+  <si>
+    <t>Images/russnavybase.jpg</t>
+  </si>
+  <si>
+    <t>Images/pinegap.jpg</t>
+  </si>
+  <si>
+    <t>A military airbase at sea, a Nimitz carrier is more than three times as long as a football field and has more than twice the displacement of the German super-battleship Bismarck.</t>
+  </si>
+  <si>
+    <t>Grants 2 logistics capacity to the USN player if controlled by their opponent.</t>
+  </si>
+  <si>
+    <t>Provides -1 logistics capacity if owned by a non-Russian player.</t>
+  </si>
+  <si>
+    <t>RAINFALL: If controlled by a USN player, that player may select a face down military asset during their deployment step. That military asset must be flipped.</t>
+  </si>
+  <si>
+    <t>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</t>
+  </si>
+  <si>
+    <t>The F-35B is a special variant of the F-35 capable of taking off and landing vertically. This allows it to be stationed on smaller carriers that have typically not been able to field cutting-edge aircraft.</t>
+  </si>
+  <si>
+    <t>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</t>
+  </si>
+  <si>
+    <t>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</t>
+  </si>
+  <si>
+    <t>With more than twice the firepower of western submarines, the Yasen is Russia's best effort in no-expense-spared attack submarine development.</t>
+  </si>
+  <si>
+    <t>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carriers.</t>
+  </si>
+  <si>
+    <t>Flip all military assets your opponent controls face up.</t>
+  </si>
+  <si>
+    <t>Return all ships to your hand, they can be replayed immediately. Play this only anytime you could play a strategy.</t>
+  </si>
+  <si>
+    <t>Look at and reorder the top 4 cards of your deck. You may put any number on the bottom of your deck.</t>
+  </si>
+  <si>
+    <t>Reveal all opposing ships.</t>
+  </si>
+  <si>
+    <t>Friendly ships have +2 shore attack when assaulting undefended territories.</t>
+  </si>
+  <si>
+    <t>Regain control of one territory you've lost.</t>
+  </si>
+  <si>
+    <t>Russian territories your opponent controls provide -2 logistics.</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1112,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21B95892-6DA9-4034-953E-47FD8B47E898}" type="CELLRANGE">
+                    <a:fld id="{B6721AD9-C033-4328-A87B-9CC3729E6284}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1137,7 +1146,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4231283-7E2E-4DC7-AE2B-44E04DC1142A}" type="CELLRANGE">
+                    <a:fld id="{768A009F-6F45-4F96-B7D3-FF015D1A41E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1171,7 +1180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9F0132E-E280-4B85-8EF4-FF321211C5F0}" type="CELLRANGE">
+                    <a:fld id="{E2652881-E749-4FB8-93E2-F1CBE08E98A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1211,7 +1220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57D3DD51-218C-40F4-9E95-A2D1B5B203AE}" type="CELLRANGE">
+                    <a:fld id="{3B10D2FE-67A5-464B-AAD2-1B166E3F1DDE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1250,7 +1259,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9E08673-4B86-4A40-B222-A79D92C40D26}" type="CELLRANGE">
+                    <a:fld id="{0D1AB55F-4ECE-4830-AC87-CD49F0799A42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1283,7 +1292,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D66BC644-C4DC-415A-82CC-2FEA5E75CC4F}" type="CELLRANGE">
+                    <a:fld id="{E5D4FB00-086E-451E-AB0F-65DCC4AA3D21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1317,7 +1326,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50910983-ED6D-467C-93DC-F1B555E1E704}" type="CELLRANGE">
+                    <a:fld id="{8CC3A690-A6B1-4729-962D-D2036806D306}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1357,7 +1366,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA8CA188-EE14-46F9-B68D-859462EDC83D}" type="CELLRANGE">
+                    <a:fld id="{5C0FABFB-1CA3-4342-8F14-18E56ED41557}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1396,7 +1405,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB276A3A-3054-450A-AED0-3AA6803D190A}" type="CELLRANGE">
+                    <a:fld id="{063E021B-37EE-4384-A0B5-90FBCF4E8264}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1429,7 +1438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C954CC9B-38F2-4117-AA4C-30113B8E4B70}" type="CELLRANGE">
+                    <a:fld id="{8880FAA1-EF19-42CE-B654-4A8921E7B670}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1469,7 +1478,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97B32F66-96EB-4510-901E-3097ADC08E26}" type="CELLRANGE">
+                    <a:fld id="{6E4D4C43-A915-4F22-95DE-CB8DF653E0F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1523,7 +1532,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{79918D58-3D55-4D99-895A-E0F09CA24296}" type="CELLRANGE">
+                    <a:fld id="{1502C272-E18D-470E-8C98-CA8460CB4227}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1593,7 +1602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB044824-FED1-455D-9CF7-7D4FBE9085DA}" type="CELLRANGE">
+                    <a:fld id="{ED102733-3ADD-427D-91DC-321AE6E013DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1633,7 +1642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AE982CD-46EF-41E9-9408-B07203E3A14E}" type="CELLRANGE">
+                    <a:fld id="{6F08E5E9-CE4D-4D4C-A0F4-85E3229A3521}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1672,7 +1681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2EB8403-6DDE-432A-BC5A-1CEA46F2F5FF}" type="CELLRANGE">
+                    <a:fld id="{0BB468BD-BADC-47C7-BC31-DEED582A6B93}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1705,7 +1714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79EA1A9A-F745-41B9-9AD1-1115D220C81A}" type="CELLRANGE">
+                    <a:fld id="{EECBE9B1-919A-4E7F-AC8A-692FF77C9153}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1745,7 +1754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6F46525-8462-428D-9E12-E6DE4324CB99}" type="CELLRANGE">
+                    <a:fld id="{5236BF5D-7E05-4A80-90F8-F33C47DC7210}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1799,7 +1808,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{98C82D7E-F71F-47BB-B3C7-96C9D1838DB3}" type="CELLRANGE">
+                    <a:fld id="{4C1BBD84-6282-4AE2-9956-E1EE3D134C8E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1875,7 +1884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D4DEA62-63D2-4008-81FB-DA3E03E3D069}" type="CELLRANGE">
+                    <a:fld id="{65269EA8-CA90-49DB-8A76-123CD14460AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1914,7 +1923,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57A26F14-7606-4BBC-AAF6-6C4A5070F0D9}" type="CELLRANGE">
+                    <a:fld id="{94613A0D-BBC0-4F77-9C8A-C0CDA4FEDAC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1953,7 +1962,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED2CC525-4108-4D4C-9F2A-4368CA083E02}" type="CELLRANGE">
+                    <a:fld id="{62C46F6F-C773-47F2-82A9-3646DA4A5325}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1992,7 +2001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C33EB8AE-80C4-4898-8E6A-7DD1FBDFCFFD}" type="CELLRANGE">
+                    <a:fld id="{D9E16022-F685-4C43-BBF1-C194C5435C68}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2025,7 +2034,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FCED977-1C94-4180-AFB6-C4D65CD2FAD4}" type="CELLRANGE">
+                    <a:fld id="{618B05BF-40E9-4944-902B-82B8AD1AAA78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2065,7 +2074,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15088E43-A2C7-4B9D-B385-5B3312FB241C}" type="CELLRANGE">
+                    <a:fld id="{0079D7AE-96DC-4EEE-A667-35BBF2836905}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2098,7 +2107,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4CFEE3B-221E-4BC2-B895-4D7105E70182}" type="CELLRANGE">
+                    <a:fld id="{ECAA39CF-7A31-453F-AB50-66FC885DFB20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2138,7 +2147,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{972D6428-29EB-46BF-8035-08E1C11414DA}" type="CELLRANGE">
+                    <a:fld id="{128C8FBA-E6EC-43EF-9FBA-7A055F6EE56E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3602,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E8987D-349F-4742-AF8A-4428C54D0A0B}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3621,10 +3630,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D1" t="str">
         <f>military_assets!A1</f>
@@ -3711,7 +3720,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -3765,7 +3774,7 @@
       </c>
       <c r="P2" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>A military airbase at sea, a Nimitz carrier is more than three times longer than a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
+        <v>A military airbase at sea, a Nimitz carrier is more than three times as long as a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
       </c>
       <c r="Q2" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -3780,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -3834,7 +3843,7 @@
       </c>
       <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>A military airbase at sea, a Nimitz carrier is more than three times longer than a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
+        <v>A military airbase at sea, a Nimitz carrier is more than three times as long as a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
       </c>
       <c r="Q3" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -3849,7 +3858,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -3917,7 +3926,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
@@ -3985,7 +3994,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
@@ -4055,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
@@ -4124,7 +4133,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
@@ -4193,7 +4202,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
@@ -4262,7 +4271,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
@@ -4329,7 +4338,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
@@ -4396,7 +4405,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -4463,7 +4472,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
@@ -4530,7 +4539,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
@@ -4597,7 +4606,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -4650,7 +4659,7 @@
       </c>
       <c r="P15" t="str" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>The F/A-18 is one of the longest-tenured and most battle-proven multirole carrier aircraft in the world.</v>
+        <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
       <c r="Q15" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -4665,7 +4674,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -4718,7 +4727,7 @@
       </c>
       <c r="P16" t="str" cm="1">
         <f t="array" aca="1" ref="P16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
-        <v>The F/A-18 is one of the longest-tenured and most battle-proven multirole carrier aircraft in the world.</v>
+        <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
       <c r="Q16" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -4733,7 +4742,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
@@ -4787,7 +4796,7 @@
       </c>
       <c r="P17" t="str" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
-        <v>The F-35B is a special variant of the F-35 capable of taking off vertically. This will allow it to be used in conjunction with ships that have typically not been able to field modern aircraft.</v>
+        <v>The F-35B is a special variant of the F-35 capable of taking off and landing vertically. This allows it to be stationed on smaller carriers that have typically not been able to field cutting-edge aircraft.</v>
       </c>
       <c r="Q17" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
@@ -4802,7 +4811,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -4856,7 +4865,7 @@
       </c>
       <c r="P18" t="str" cm="1">
         <f t="array" aca="1" ref="P18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
-        <v>The F-35B is a special variant of the F-35 capable of taking off vertically. This will allow it to be used in conjunction with ships that have typically not been able to field modern aircraft.</v>
+        <v>The F-35B is a special variant of the F-35 capable of taking off and landing vertically. This allows it to be stationed on smaller carriers that have typically not been able to field cutting-edge aircraft.</v>
       </c>
       <c r="Q18" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -4871,7 +4880,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
@@ -4940,7 +4949,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D20" t="str" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -4993,7 +5002,7 @@
       </c>
       <c r="P20" t="str" cm="1">
         <f t="array" aca="1" ref="P20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points-a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
+        <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
       <c r="Q20" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -5008,7 +5017,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D21" t="str" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
@@ -5076,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -5143,7 +5152,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D23" t="str" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
@@ -5210,7 +5219,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -5262,7 +5271,7 @@
       </c>
       <c r="P24" t="str" cm="1">
         <f t="array" aca="1" ref="P24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form factor.</v>
+        <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</v>
       </c>
       <c r="Q24" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -5277,7 +5286,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D25" t="str" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -5329,7 +5338,7 @@
       </c>
       <c r="P25" t="str" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form factor.</v>
+        <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</v>
       </c>
       <c r="Q25" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -5344,7 +5353,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D26" t="str" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
@@ -5396,7 +5405,7 @@
       </c>
       <c r="P26" t="str" cm="1">
         <f t="array" aca="1" ref="P26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
-        <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form factor.</v>
+        <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</v>
       </c>
       <c r="Q26" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
@@ -5411,7 +5420,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D27" t="str" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
@@ -5479,7 +5488,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
@@ -5547,7 +5556,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D29" t="str" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
@@ -5614,7 +5623,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D30" t="str" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
@@ -5668,7 +5677,7 @@
       </c>
       <c r="P30" t="str" cm="1">
         <f t="array" aca="1" ref="P30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>With more than twice the firepower of western submarines, the Yassen is Russia's best effort in no-expensive-spared attack submarine development.</v>
+        <v>With more than twice the firepower of western submarines, the Yasen is Russia's best effort in no-expense-spared attack submarine development.</v>
       </c>
       <c r="Q30" cm="1">
         <f t="array" aca="1" ref="Q30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
@@ -5683,7 +5692,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D31" t="str" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
@@ -5737,7 +5746,7 @@
       </c>
       <c r="P31" t="str" cm="1">
         <f t="array" aca="1" ref="P31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>With more than twice the firepower of western submarines, the Yassen is Russia's best effort in no-expensive-spared attack submarine development.</v>
+        <v>With more than twice the firepower of western submarines, the Yasen is Russia's best effort in no-expense-spared attack submarine development.</v>
       </c>
       <c r="Q31" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
@@ -5752,7 +5761,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
@@ -5806,7 +5815,7 @@
       </c>
       <c r="P32" t="str" cm="1">
         <f t="array" aca="1" ref="P32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>With more than twice the firepower of western submarines, the Yassen is Russia's best effort in no-expensive-spared attack submarine development.</v>
+        <v>With more than twice the firepower of western submarines, the Yasen is Russia's best effort in no-expense-spared attack submarine development.</v>
       </c>
       <c r="Q32" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
@@ -5821,7 +5830,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
@@ -5890,7 +5899,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
@@ -5959,7 +5968,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
@@ -6013,7 +6022,7 @@
       </c>
       <c r="P35" t="str" cm="1">
         <f t="array" aca="1" ref="P35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carrier.</v>
+        <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carriers.</v>
       </c>
       <c r="Q35" cm="1">
         <f t="array" aca="1" ref="Q35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
@@ -6028,7 +6037,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D36" t="str" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
@@ -6082,7 +6091,7 @@
       </c>
       <c r="P36" t="str" cm="1">
         <f t="array" aca="1" ref="P36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
-        <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carrier.</v>
+        <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carriers.</v>
       </c>
       <c r="Q36" cm="1">
         <f t="array" aca="1" ref="Q36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
@@ -6097,7 +6106,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
@@ -6165,7 +6174,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
@@ -6233,7 +6242,7 @@
         <v>26</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D39" t="str" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
@@ -6302,7 +6311,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D40" t="str" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
@@ -6371,7 +6380,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D41" t="str" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
@@ -6440,7 +6449,7 @@
         <v>27</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D42" t="str" cm="1">
         <f t="array" aca="1" ref="D42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
@@ -6509,7 +6518,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D43" t="str" cm="1">
         <f t="array" aca="1" ref="D43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
@@ -6580,9 +6589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA93C54-FC77-4A57-AEDF-D4D1B82432EF}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6605,16 +6614,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -6635,18 +6644,18 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="N1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6667,16 +6676,16 @@
         <v>22</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f>ship_effects!$A3&amp;CHAR(10)&amp;ship_effects!$A4&amp;CHAR(10)&amp;ship_effects!$A$31</f>
+        <f>effects!$A3&amp;CHAR(10)&amp;effects!$A4&amp;CHAR(10)&amp;effects!$A$31</f>
         <v>CATOBAR: Compatible with CATOBAR, VTOL, and  STOBAR squadrons.
 E-2C Hawkeye: All squadrons you control in a combat including this asset have +1 attack and  defense.
 Carrier 3: Can station 3 aircraft squadron.</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="N2">
         <f>version!$A$1</f>
@@ -6685,7 +6694,7 @@
     </row>
     <row r="3" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6706,13 +6715,13 @@
         <v>22</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f>ship_effects!$A3&amp;CHAR(10)&amp;ship_effects!$A25&amp;CHAR(10)&amp;ship_effects!$A$31</f>
+        <f>effects!$A3&amp;CHAR(10)&amp;effects!$A25&amp;CHAR(10)&amp;effects!$A$31</f>
         <v>CATOBAR: Compatible with CATOBAR, VTOL, and  STOBAR squadrons.
 E-2D Hawkeye-I: All friendly air squadrons in combat with this asset have +1 attack and  defense. Enemy air squadrons lose Ambush.
 Carrier 3: Can station 3 aircraft squadron.</v>
       </c>
       <c r="L3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <f>version!$A$1</f>
@@ -6721,7 +6730,7 @@
     </row>
     <row r="4" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6742,15 +6751,15 @@
         <v>22</v>
       </c>
       <c r="K4" s="1" t="str">
-        <f>ship_effects!$A6&amp;CHAR(10)&amp;ship_effects!$A29</f>
+        <f>effects!$A6&amp;CHAR(10)&amp;effects!$A29</f>
         <v>VTOL: Compatible with all VTOL aircraft squadrons.
 Carrier 1: Can station 1 aircraft squadron.</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="N4">
         <f>version!$A$1</f>
@@ -6759,7 +6768,7 @@
     </row>
     <row r="5" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6780,12 +6789,12 @@
         <v>22</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f>ship_effects!$A6&amp;CHAR(10)&amp;ship_effects!$A$30</f>
+        <f>effects!$A6&amp;CHAR(10)&amp;effects!$A$30</f>
         <v>VTOL: Compatible with all VTOL aircraft squadrons.
 Carrier 2: Can station 2 aircraft squadron.</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N5">
         <f>version!$A$1</f>
@@ -6794,7 +6803,7 @@
     </row>
     <row r="6" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -6815,17 +6824,17 @@
         <v>20</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A9&amp;CHAR(10)&amp;ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <f>effects!$A8&amp;CHAR(10)&amp;effects!$A9&amp;CHAR(10)&amp;effects!$A22&amp;CHAR(10)&amp;effects!$A24</f>
         <v>Ambush: This asset deals damage during the Ambush Damage Step.
 Special Purposes: Each time this military asset is flipped face up, your opponent must reveal one card from their hand at random.
 Hidden: Can be played face down. 
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="N6">
         <f>version!$A$1</f>
@@ -6834,7 +6843,7 @@
     </row>
     <row r="7" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -6855,16 +6864,16 @@
         <v>20</v>
       </c>
       <c r="K7" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <f>effects!$A8&amp;CHAR(10)&amp;effects!$A22&amp;CHAR(10)&amp;effects!$A24</f>
         <v>Ambush: This asset deals damage during the Ambush Damage Step.
 Hidden: Can be played face down. 
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="L7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="N7">
         <f>version!$A$1</f>
@@ -6873,7 +6882,7 @@
     </row>
     <row r="8" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -6894,16 +6903,16 @@
         <v>20</v>
       </c>
       <c r="K8" s="1" t="str">
-        <f>ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A10&amp;CHAR(10)&amp;ship_effects!$A22</f>
+        <f>effects!$A8&amp;CHAR(10)&amp;effects!$A10&amp;CHAR(10)&amp;effects!$A22</f>
         <v xml:space="preserve">Ambush: This asset deals damage during the Ambush Damage Step.
 Strategic Strike Capability: At the end of your turn, if this asset is face-up and did not take part of an attack or defense, your opponent must discard one card from their deck.
 Hidden: Can be played face down. </v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="N8">
         <f>version!$A$1</f>
@@ -6912,7 +6921,7 @@
     </row>
     <row r="9" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -6933,14 +6942,14 @@
         <v>22</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f>ship_effects!$A11</f>
+        <f>effects!$A11</f>
         <v>AEGIS: +2 Help Defense.</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N9">
         <f>version!$A$1</f>
@@ -6949,7 +6958,7 @@
     </row>
     <row r="10" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -6970,14 +6979,14 @@
         <v>22</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f>ship_effects!$A11</f>
+        <f>effects!$A11</f>
         <v>AEGIS: +2 Help Defense.</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="N10">
         <f>version!$A$1</f>
@@ -6986,7 +6995,7 @@
     </row>
     <row r="11" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -7007,14 +7016,14 @@
         <v>22</v>
       </c>
       <c r="K11" s="1" t="str">
-        <f>ship_effects!$A22</f>
+        <f>effects!$A22</f>
         <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="N11">
         <f>version!$A$1</f>
@@ -7023,7 +7032,7 @@
     </row>
     <row r="12" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -7041,18 +7050,18 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="K12" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A$28</f>
+        <f>effects!$A22&amp;CHAR(10)&amp;effects!$A$28</f>
         <v>Hidden: Can be played face down. 
 CATOBAR-Compatible.</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="N12">
         <f>version!$A$1</f>
@@ -7079,19 +7088,19 @@
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="K13" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A$26</f>
+        <f>effects!$A22&amp;CHAR(10)&amp;effects!$A8&amp;CHAR(10)&amp;effects!$A$26</f>
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
 VTOL-Compatible.</v>
       </c>
       <c r="L13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="N13">
         <f>version!$A$1</f>
@@ -7118,19 +7127,19 @@
         <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="K14" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A$28</f>
+        <f>effects!$A22&amp;CHAR(10)&amp;effects!$A8&amp;CHAR(10)&amp;effects!$A$28</f>
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
 CATOBAR-Compatible.</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="N14">
         <f>version!$A$1</f>
@@ -7157,18 +7166,18 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="K15" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A$26</f>
+        <f>effects!$A22&amp;CHAR(10)&amp;effects!$A$26</f>
         <v>Hidden: Can be played face down. 
 VTOL-Compatible.</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="N15">
         <f>version!$A$1</f>
@@ -7177,7 +7186,7 @@
     </row>
     <row r="16" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -7198,15 +7207,15 @@
         <v>22</v>
       </c>
       <c r="K16" s="1" t="str">
-        <f>ship_effects!$A23&amp;CHAR(10)&amp;ship_effects!$A$30</f>
+        <f>effects!$A23&amp;CHAR(10)&amp;effects!$A$30</f>
         <v>STOBAR: Compatible with STOBAR and VTOL squadrons.
 Carrier 2: Can station 2 aircraft squadron.</v>
       </c>
       <c r="L16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="N16">
         <f>version!$A$1</f>
@@ -7215,7 +7224,7 @@
     </row>
     <row r="17" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -7236,23 +7245,23 @@
         <v>22</v>
       </c>
       <c r="K17" s="1" t="str">
-        <f>ship_effects!$A21</f>
+        <f>effects!$A21</f>
         <v>S-300 (L): +2 Help Defense.</v>
       </c>
       <c r="L17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="N17">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -7273,14 +7282,14 @@
         <v>22</v>
       </c>
       <c r="K18" s="1" t="str">
-        <f>ship_effects!$A20</f>
+        <f>effects!$A20</f>
         <v>S-300 (S): +1 Help Defense.</v>
       </c>
       <c r="L18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="N18">
         <f>version!$A$1</f>
@@ -7289,7 +7298,7 @@
     </row>
     <row r="19" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -7315,10 +7324,10 @@
 </v>
       </c>
       <c r="L19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N19">
         <f>version!$A$1</f>
@@ -7327,7 +7336,7 @@
     </row>
     <row r="20" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -7348,14 +7357,14 @@
         <v>22</v>
       </c>
       <c r="K20" s="1" t="str">
-        <f>ship_effects!$A22</f>
+        <f>effects!$A22</f>
         <v xml:space="preserve">Hidden: Can be played face down. </v>
       </c>
       <c r="L20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="N20">
         <f>version!$A$1</f>
@@ -7364,7 +7373,7 @@
     </row>
     <row r="21" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -7385,16 +7394,16 @@
         <v>20</v>
       </c>
       <c r="K21" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <f>effects!$A22&amp;CHAR(10)&amp;effects!$A8&amp;CHAR(10)&amp;effects!$A24</f>
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="L21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="N21">
         <f>version!$A$1</f>
@@ -7403,7 +7412,7 @@
     </row>
     <row r="22" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -7424,16 +7433,16 @@
         <v>20</v>
       </c>
       <c r="K22" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A19</f>
+        <f>effects!$A22&amp;CHAR(10)&amp;effects!$A8&amp;CHAR(10)&amp;effects!$A19</f>
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
 Coastal Defender: Cannot be declared as an attacker.</v>
       </c>
       <c r="L22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="N22">
         <f>version!$A$1</f>
@@ -7442,7 +7451,7 @@
     </row>
     <row r="23" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -7463,16 +7472,16 @@
         <v>20</v>
       </c>
       <c r="K23" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <f>effects!$A22&amp;CHAR(10)&amp;effects!$A8&amp;CHAR(10)&amp;effects!$A24</f>
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="L23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N23">
         <f>version!$A$1</f>
@@ -7481,7 +7490,7 @@
     </row>
     <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -7499,18 +7508,18 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="K24" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A$27</f>
+        <f>effects!$A22&amp;CHAR(10)&amp;effects!$A$27</f>
         <v>Hidden: Can be played face down. 
 STOBAR-Compatible.</v>
       </c>
       <c r="L24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="N24">
         <f>version!$A$1</f>
@@ -7519,7 +7528,7 @@
     </row>
     <row r="25" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -7537,18 +7546,18 @@
         <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="K25" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A$27</f>
+        <f>effects!$A22&amp;CHAR(10)&amp;effects!$A$27</f>
         <v>Hidden: Can be played face down. 
 STOBAR-Compatible.</v>
       </c>
       <c r="L25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="N25">
         <f>version!$A$1</f>
@@ -7557,7 +7566,7 @@
     </row>
     <row r="26" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -7578,16 +7587,16 @@
         <v>20</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <f>effects!$A22&amp;CHAR(10)&amp;effects!$A8&amp;CHAR(10)&amp;effects!$A24</f>
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="L26" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="N26">
         <f>version!$A$1</f>
@@ -7596,7 +7605,7 @@
     </row>
     <row r="27" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -7617,16 +7626,16 @@
         <v>20</v>
       </c>
       <c r="K27" s="1" t="str">
-        <f>ship_effects!$A22&amp;CHAR(10)&amp;ship_effects!$A8&amp;CHAR(10)&amp;ship_effects!$A24</f>
+        <f>effects!$A22&amp;CHAR(10)&amp;effects!$A8&amp;CHAR(10)&amp;effects!$A24</f>
         <v>Hidden: Can be played face down. 
 Ambush: This asset deals damage during the Ambush Damage Step.
 Commerce Raider: When assaulting a player, this military asset's assault is equal to its attack.</v>
       </c>
       <c r="L27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="N27">
         <f>version!$A$1</f>
@@ -7641,10 +7650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424B9FA-5F3A-48BD-A332-49100C2F7779}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7654,158 +7663,171 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>270</v>
-      </c>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7853,10 +7875,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D1" t="str">
         <f>actions!A1</f>
@@ -7895,7 +7917,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -7911,7 +7933,7 @@
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>Look at and reorder the top 4 cards of your deck. You may put any number on the bottom of your deck</v>
+        <v>Look at and reorder the top 4 cards of your deck. You may put any number on the bottom of your deck.</v>
       </c>
       <c r="H2" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -7935,7 +7957,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -7975,7 +7997,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -7991,7 +8013,7 @@
       </c>
       <c r="G4" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>Flip all military assets your opponents control face up.</v>
+        <v>Flip all military assets your opponent controls face up.</v>
       </c>
       <c r="H4" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -8015,7 +8037,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
@@ -8055,7 +8077,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
@@ -8095,7 +8117,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
@@ -8135,7 +8157,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
@@ -8175,7 +8197,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
@@ -8215,7 +8237,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
@@ -8255,7 +8277,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
@@ -8295,7 +8317,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -8335,7 +8357,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
@@ -8375,7 +8397,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
@@ -8415,7 +8437,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -8431,7 +8453,7 @@
       </c>
       <c r="G15" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>Russian territories your opponents control provide -2 logistics</v>
+        <v>Russian territories your opponent controls provide -2 logistics.</v>
       </c>
       <c r="H15" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -8455,7 +8477,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -8495,7 +8517,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
@@ -8535,7 +8557,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -8577,7 +8599,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8604,13 +8626,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8624,7 +8646,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>283</v>
       </c>
       <c r="F2" t="str">
         <f>CHAR(10)</f>
@@ -8647,10 +8669,10 @@
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F25" si="0">CHAR(10)</f>
@@ -8664,7 +8686,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -8673,10 +8695,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -8699,7 +8721,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -8722,10 +8744,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -8748,10 +8770,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -8765,7 +8787,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -8774,10 +8796,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -8800,10 +8822,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -8817,7 +8839,7 @@
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -8826,10 +8848,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -8843,7 +8865,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -8852,10 +8874,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -8869,7 +8891,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -8878,10 +8900,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -8904,10 +8926,10 @@
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -8930,10 +8952,10 @@
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -8956,10 +8978,10 @@
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -8982,10 +9004,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -9008,10 +9030,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -9025,7 +9047,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -9034,7 +9056,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -9048,7 +9070,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -9057,10 +9079,10 @@
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -9074,7 +9096,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -9083,7 +9105,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -9097,7 +9119,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -9106,10 +9128,10 @@
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -9123,7 +9145,7 @@
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -9132,7 +9154,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -9146,7 +9168,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -9155,10 +9177,10 @@
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -9172,7 +9194,7 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -9181,7 +9203,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -9195,7 +9217,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -9204,10 +9226,10 @@
         <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -9226,10 +9248,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4612BAA-2E94-43DB-8D32-B8E4A4E5FFFC}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9240,10 +9262,11 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="187.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="57.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9251,10 +9274,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -9263,18 +9286,21 @@
         <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -9290,17 +9316,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -9308,26 +9337,30 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
+      <c r="E3" s="1" t="str">
+        <f>effects!$A$33</f>
+        <v>Grants 2 logistics capacity to the USN player if controlled by their opponent.</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H3">
+        <v>250</v>
+      </c>
+      <c r="H3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -9343,17 +9376,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -9369,17 +9405,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -9395,17 +9434,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -9421,17 +9463,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -9447,17 +9492,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -9473,17 +9521,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -9499,17 +9550,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -9525,17 +9579,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -9544,8 +9601,8 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>ship_effects!A18</f>
-        <v>RAINFALL: If controlled by a USN player, mark one enemy ship. That ship loses the stealth tag and cannot hide. If it is hidden, flip it. The target of this action may be changed during the first deployment step.</v>
+        <f>effects!A18</f>
+        <v>RAINFALL: If controlled by a USN player, that player may select a face down military asset during their deployment step. That military asset must be flipped.</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
@@ -9555,17 +9612,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H12">
+      <c r="H12" t="s">
+        <v>271</v>
+      </c>
+      <c r="I12">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -9581,17 +9641,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -9607,17 +9670,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>269</v>
+      </c>
+      <c r="I14">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -9633,17 +9699,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I15">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -9652,7 +9721,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
@@ -9662,17 +9731,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H16">
+      <c r="H16" t="s">
+        <v>269</v>
+      </c>
+      <c r="I16">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -9688,17 +9760,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -9714,17 +9789,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H18">
+      <c r="H18" t="s">
+        <v>269</v>
+      </c>
+      <c r="I18">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -9740,17 +9818,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H19">
+      <c r="H19" t="s">
+        <v>269</v>
+      </c>
+      <c r="I19">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -9758,8 +9839,9 @@
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>79</v>
+      <c r="E20" s="1" t="str">
+        <f>effects!$A$32</f>
+        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
@@ -9769,17 +9851,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -9787,8 +9872,9 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
+      <c r="E21" s="1" t="str">
+        <f>effects!$A$32</f>
+        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
       </c>
       <c r="F21" t="s">
         <v>28</v>
@@ -9798,17 +9884,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H21">
+      <c r="H21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I21">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -9824,17 +9913,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H22">
+      <c r="H22" t="s">
+        <v>270</v>
+      </c>
+      <c r="I22">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -9842,8 +9934,9 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>79</v>
+      <c r="E23" s="1" t="str">
+        <f>effects!$A$32</f>
+        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -9853,17 +9946,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H23">
+      <c r="H23" t="s">
+        <v>270</v>
+      </c>
+      <c r="I23">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -9871,8 +9967,9 @@
       <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>79</v>
+      <c r="E24" s="1" t="str">
+        <f>effects!$A$32</f>
+        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -9882,17 +9979,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H24">
+      <c r="H24" t="s">
+        <v>270</v>
+      </c>
+      <c r="I24">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -9900,8 +10000,9 @@
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>79</v>
+      <c r="E25" s="1" t="str">
+        <f>effects!$A$32</f>
+        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -9911,17 +10012,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H25">
+      <c r="H25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I25">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -9929,8 +10033,9 @@
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>79</v>
+      <c r="E26" s="1" t="str">
+        <f>effects!$A$32</f>
+        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -9940,17 +10045,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H26">
+      <c r="H26" t="s">
+        <v>270</v>
+      </c>
+      <c r="I26">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -9958,8 +10066,9 @@
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>79</v>
+      <c r="E27" s="1" t="str">
+        <f>effects!$A$32</f>
+        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -9969,17 +10078,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H27">
+      <c r="H27" t="s">
+        <v>270</v>
+      </c>
+      <c r="I27">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -9987,8 +10099,9 @@
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>79</v>
+      <c r="E28" s="1" t="str">
+        <f>effects!$A$32</f>
+        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -9998,17 +10111,20 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H28">
+      <c r="H28" t="s">
+        <v>270</v>
+      </c>
+      <c r="I28">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -10016,8 +10132,9 @@
       <c r="D29">
         <v>4</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>79</v>
+      <c r="E29" s="1" t="str">
+        <f>effects!$A$32</f>
+        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
       </c>
       <c r="F29" t="s">
         <v>28</v>
@@ -10027,23 +10144,30 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H29">
+      <c r="H29" t="s">
+        <v>270</v>
+      </c>
+      <c r="I29">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30">
         <v>5</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>effects!$A$32</f>
+        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -10053,7 +10177,10 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H30">
+      <c r="H30" t="s">
+        <v>270</v>
+      </c>
+      <c r="I30">
         <f>version!$A$1</f>
         <v>1.5</v>
       </c>
@@ -10114,28 +10241,28 @@
         <v>Rosters</v>
       </c>
       <c r="J1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="K1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
         <v>80</v>
       </c>
-      <c r="M1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" t="s">
-        <v>84</v>
-      </c>
       <c r="Q1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -10324,7 +10451,7 @@
         <v>9.5</v>
       </c>
       <c r="S4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -10389,7 +10516,7 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="T5">
         <v>2</v>
@@ -10457,7 +10584,7 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -10525,7 +10652,7 @@
         <v>10.5</v>
       </c>
       <c r="S7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="T7">
         <v>3</v>
@@ -10593,7 +10720,7 @@
         <v>11.5</v>
       </c>
       <c r="S8" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="T8">
         <v>3</v>
@@ -10661,7 +10788,7 @@
         <v>9.5</v>
       </c>
       <c r="S9" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="T9">
         <v>1.5</v>
@@ -10729,7 +10856,7 @@
         <v>8.5</v>
       </c>
       <c r="S10" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="T10">
         <v>0.5</v>
@@ -10793,7 +10920,7 @@
         <v>7</v>
       </c>
       <c r="S11" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="T11">
         <v>-2</v>
@@ -10861,7 +10988,7 @@
         <v>7.5</v>
       </c>
       <c r="S12" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="T12">
         <v>0.5</v>
@@ -10929,7 +11056,7 @@
         <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="T13">
         <v>2</v>
@@ -11059,7 +11186,7 @@
         <v>5</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="T15">
         <v>-2</v>
@@ -11127,7 +11254,7 @@
         <v>12.5</v>
       </c>
       <c r="S16" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="T16">
         <v>-2</v>
@@ -11195,7 +11322,7 @@
         <v>12</v>
       </c>
       <c r="S17" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="T17">
         <v>4.5</v>
@@ -11263,7 +11390,7 @@
         <v>8.5</v>
       </c>
       <c r="S18" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="T18">
         <v>3.5</v>
@@ -11330,7 +11457,7 @@
         <v>5</v>
       </c>
       <c r="S19" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="T19">
         <v>2.5</v>
@@ -11834,13 +11961,13 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M28" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s">
         <v>21</v>
       </c>
       <c r="O28" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shipcards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEADDAD7-6836-4A3D-9299-94278AFA5597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC657CD-E64A-44FF-8CA6-D69363AD4F4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="771" firstSheet="3" activeTab="3" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="771" firstSheet="3" activeTab="7" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
   </bookViews>
   <sheets>
     <sheet name="military_asset_final" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet name="balance" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="326">
   <si>
     <t>Title</t>
   </si>
@@ -1045,6 +1044,9 @@
   </si>
   <si>
     <t>Retrieve one card from your discard pile, reveal it, and put it on top of your deck.</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1230,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFE3DCB4-DECA-4F91-8FD2-915575922F6F}" type="CELLRANGE">
+                    <a:fld id="{19BA67ED-4F2F-41CA-87A3-6166B158FDCE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1262,7 +1264,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{391D0FF1-51D3-473B-9BB7-6FB00E95D66F}" type="CELLRANGE">
+                    <a:fld id="{5E2B0500-1483-48A2-9DB7-2D2D99917D39}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1296,7 +1298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE006581-1DB7-4C9B-A3B7-38A8F66168BA}" type="CELLRANGE">
+                    <a:fld id="{E74652AB-D54D-41E7-806F-819658DEF1A0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1336,7 +1338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB44B4EE-A735-4D13-BBB1-C4D76FD2C5BF}" type="CELLRANGE">
+                    <a:fld id="{39894B46-29A0-4FC2-A910-27540CFA4590}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1375,7 +1377,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48B472A8-579E-45F3-BACF-020CB5108DCF}" type="CELLRANGE">
+                    <a:fld id="{83A3DE41-B9ED-43B0-AF1B-E41308D6D5B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1408,7 +1410,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4B65C53-8B65-40EF-9D51-412144CB9C06}" type="CELLRANGE">
+                    <a:fld id="{0F53F70E-912F-49E8-AED7-B1D1EA67BCA2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1442,7 +1444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3800F9D2-470A-4A31-B63B-1B13D54703C8}" type="CELLRANGE">
+                    <a:fld id="{9019098A-83AE-4542-B790-4355FA624914}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1482,7 +1484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{087C0AF0-B135-493B-A7C9-C0229ED3DF52}" type="CELLRANGE">
+                    <a:fld id="{616FC26D-5A7D-4B09-B80A-AE45A4B1BD76}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1521,7 +1523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F0716B3-2784-4E05-B4C2-D487AA1E054D}" type="CELLRANGE">
+                    <a:fld id="{07F33445-D379-4262-A89F-CF041F6D3D08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1554,7 +1556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{704AA7F6-2782-4F5F-9F23-CB2CFF3F88AF}" type="CELLRANGE">
+                    <a:fld id="{FA4398A4-CCDA-4103-8ED9-0331E9D4A557}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1594,7 +1596,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C29CAE3B-30E7-4264-8465-0951E82D009F}" type="CELLRANGE">
+                    <a:fld id="{1F8E7AF0-3961-4275-BCD6-C0D6C2B378E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1648,7 +1650,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{6011BA4C-8972-4C79-98BA-044701789BBA}" type="CELLRANGE">
+                    <a:fld id="{9E34D7E7-A15C-4811-9CD2-230BAC99A0E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1718,7 +1720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39D1835E-F063-4B3D-8BEF-677EABB6D1FC}" type="CELLRANGE">
+                    <a:fld id="{F0AB681F-341E-4FFA-ADCB-29964A00581A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1758,7 +1760,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A69858E7-4101-40B1-BCAA-F2C0899EE21B}" type="CELLRANGE">
+                    <a:fld id="{3DBAFC33-3F8F-4579-B0E3-60E1ECA3B0BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1797,7 +1799,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A31B30B-332D-4480-B91C-A2E766AEE543}" type="CELLRANGE">
+                    <a:fld id="{0FCAD41C-10FD-441B-B5B1-EB8FE1EC9E46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1830,7 +1832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA38E466-2E49-4CB7-B34C-9C6BFFEEE53A}" type="CELLRANGE">
+                    <a:fld id="{67DE8F01-B11E-45C3-BC67-DFA7E805815B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1870,7 +1872,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0B56A14-4C04-4FF9-ACCA-66E8E86FF6F1}" type="CELLRANGE">
+                    <a:fld id="{DD823903-9C45-42B9-AD32-D2E4ECC135EB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1924,7 +1926,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{72AE5106-B55B-4312-83D0-A1613064DC0A}" type="CELLRANGE">
+                    <a:fld id="{E161E9DB-9B33-44F7-B8A4-C1FF4535152A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2000,7 +2002,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14579CD3-6E47-4DC8-85C1-6BED864C64D1}" type="CELLRANGE">
+                    <a:fld id="{7903D458-807C-46A6-A6AB-2BFBBD70CCF1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2039,7 +2041,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0019778D-9663-433F-8C25-D3AF5C6EF234}" type="CELLRANGE">
+                    <a:fld id="{8180A7E4-2060-4688-B47C-A3A48CF709EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2078,7 +2080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C9207A6-B3C3-4844-906A-3BF7563F28D7}" type="CELLRANGE">
+                    <a:fld id="{81CC247B-EB05-43F1-8C11-F61E30A93409}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2117,7 +2119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40591A13-B07E-4A96-ABEC-E7CB61CC7984}" type="CELLRANGE">
+                    <a:fld id="{0AD1A498-FB87-498E-B3D3-336B3BB56FE1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2150,7 +2152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C6DA128-EDC3-42E8-A526-7DD7B5B46FE4}" type="CELLRANGE">
+                    <a:fld id="{C5CE632A-64D5-4D8C-A9A1-BA101A9EEF7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2190,7 +2192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E1DC391-D79D-48EE-B100-F612E2810046}" type="CELLRANGE">
+                    <a:fld id="{BFE0FD21-7B8C-4EBB-ADB4-D9C88F859919}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2223,7 +2225,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F43F23D-7E2E-4122-B956-292B189F1E4E}" type="CELLRANGE">
+                    <a:fld id="{11D789D7-720A-48DA-901D-136427CE4D93}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2263,7 +2265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E71D7770-B90A-4743-A5F8-50CF170C8C97}" type="CELLRANGE">
+                    <a:fld id="{4AD3F2A5-1B94-4325-964F-94BDF7AAF084}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2296,7 +2298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{150F4CEA-EEB7-4935-BE6D-35C2F6437131}" type="CELLRANGE">
+                    <a:fld id="{298D96FA-95B3-4FFE-8FB8-8A5FF872DCB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3935,9 +3937,9 @@
         <f t="array" aca="1" ref="P2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v>A military airbase at sea, a Nimitz carrier is more than three times as long as a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
       </c>
-      <c r="Q2" cm="1">
+      <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -4004,9 +4006,9 @@
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
         <v>A military airbase at sea, a Nimitz carrier is more than three times as long as a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
       </c>
-      <c r="Q3" cm="1">
+      <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -4073,9 +4075,9 @@
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v>A military airbase at sea, a Nimitz carrier is more than three times as long as a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
       </c>
-      <c r="Q4" cm="1">
+      <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -4141,9 +4143,9 @@
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
         <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
-      <c r="Q5" cm="1">
+      <c r="Q5" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -4209,9 +4211,9 @@
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
         <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
-      <c r="Q6" cm="1">
+      <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -4277,9 +4279,9 @@
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
         <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
-      <c r="Q7" cm="1">
+      <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -4345,9 +4347,9 @@
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
         <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
-      <c r="Q8" cm="1">
+      <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4413,9 +4415,9 @@
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
         <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
-      <c r="Q9" cm="1">
+      <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -4483,9 +4485,9 @@
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
         <v>As the most expensive class of attack submarine ever built, the Seawolf is the apex predator of the US Navy's submarine fleet.</v>
       </c>
-      <c r="Q10" cm="1">
+      <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -4552,9 +4554,9 @@
         <f t="array" aca="1" ref="P11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
         <v>The advanced Virginia will be the standard attack submarine of the US Navy until at least the middle of the 21st century.</v>
       </c>
-      <c r="Q11" cm="1">
+      <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4621,9 +4623,9 @@
         <f t="array" aca="1" ref="P12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
         <v>The advanced Virginia will be the standard attack submarine of the US Navy until at least the middle of the 21st century.</v>
       </c>
-      <c r="Q12" cm="1">
+      <c r="Q12" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4690,9 +4692,9 @@
         <f t="array" aca="1" ref="P13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
         <v>The advanced Virginia will be the standard attack submarine of the US Navy until at least the middle of the 21st century.</v>
       </c>
-      <c r="Q13" cm="1">
+      <c r="Q13" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -4759,9 +4761,9 @@
         <f t="array" aca="1" ref="P14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
         <v>Although Ohio was originally intended to carry nuclear ballistic missiles, some Ohio's have been modified as SSGNs for surface warfare and land-attack missions.</v>
       </c>
-      <c r="Q14" cm="1">
+      <c r="Q14" t="str" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -4828,9 +4830,9 @@
         <f t="array" aca="1" ref="P15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
         <v>Although Ohio was originally intended to carry nuclear ballistic missiles, some Ohio's have been modified as SSGNs for surface warfare and land-attack missions.</v>
       </c>
-      <c r="Q15" cm="1">
+      <c r="Q15" t="str" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -4895,9 +4897,9 @@
         <f t="array" aca="1" ref="P16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
         <v>Despite a modest displacement by historical standards, the Ticonderoga is the largest surface combatant in the US Navy.</v>
       </c>
-      <c r="Q16" cm="1">
+      <c r="Q16" t="str" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4962,9 +4964,9 @@
         <f t="array" aca="1" ref="P17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
         <v>Despite a modest displacement by historical standards, the Ticonderoga is the largest surface combatant in the US Navy.</v>
       </c>
-      <c r="Q17" cm="1">
+      <c r="Q17" t="str" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -5029,9 +5031,9 @@
         <f t="array" aca="1" ref="P18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
         <v>Despite a modest displacement by historical standards, the Ticonderoga is the largest surface combatant in the US Navy.</v>
       </c>
-      <c r="Q18" cm="1">
+      <c r="Q18" t="str" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -5096,9 +5098,9 @@
         <f t="array" aca="1" ref="P19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
         <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
-      <c r="Q19" cm="1">
+      <c r="Q19" t="str" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -5163,9 +5165,9 @@
         <f t="array" aca="1" ref="P20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
         <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
-      <c r="Q20" cm="1">
+      <c r="Q20" t="str" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -5230,9 +5232,9 @@
         <f t="array" aca="1" ref="P21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
         <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
-      <c r="Q21" cm="1">
+      <c r="Q21" t="str" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -5297,9 +5299,9 @@
         <f t="array" aca="1" ref="P22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
         <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
-      <c r="Q22" cm="1">
+      <c r="Q22" t="str" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -5364,9 +5366,9 @@
         <f t="array" aca="1" ref="P23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
         <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
-      <c r="Q23" cm="1">
+      <c r="Q23" t="str" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -5431,9 +5433,9 @@
         <f t="array" aca="1" ref="P24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
         <v>With a cost of $1M per shot from its main howitzer, it is important for the crew of a Zumwalt to aim carefully.</v>
       </c>
-      <c r="Q24" cm="1">
+      <c r="Q24" t="str" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -5498,9 +5500,9 @@
         <f t="array" aca="1" ref="P25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
         <v>With a cost of $1M per shot from its main howitzer, it is important for the crew of a Zumwalt to aim carefully.</v>
       </c>
-      <c r="Q25" cm="1">
+      <c r="Q25" t="str" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -5566,9 +5568,9 @@
         <f t="array" aca="1" ref="P26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
         <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
-      <c r="Q26" cm="1">
+      <c r="Q26" t="str" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -5634,9 +5636,9 @@
         <f t="array" aca="1" ref="P27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
         <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
-      <c r="Q27" cm="1">
+      <c r="Q27" t="str" cm="1">
         <f t="array" aca="1" ref="Q27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -5702,9 +5704,9 @@
         <f t="array" aca="1" ref="P28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
         <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
-      <c r="Q28" cm="1">
+      <c r="Q28" t="str" cm="1">
         <f t="array" aca="1" ref="Q28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -5770,9 +5772,9 @@
         <f t="array" aca="1" ref="P29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
         <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
-      <c r="Q29" cm="1">
+      <c r="Q29" t="str" cm="1">
         <f t="array" aca="1" ref="Q29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -5838,9 +5840,9 @@
         <f t="array" aca="1" ref="P30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
         <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
-      <c r="Q30" cm="1">
+      <c r="Q30" t="str" cm="1">
         <f t="array" aca="1" ref="Q30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -5907,9 +5909,9 @@
         <f t="array" aca="1" ref="P31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
         <v>The F-35B is a special variant of the F-35 capable of taking off and landing vertically. This allows it to be stationed on smaller carriers that have typically not been able to field cutting-edge aircraft.</v>
       </c>
-      <c r="Q31" cm="1">
+      <c r="Q31" t="str" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -5976,9 +5978,9 @@
         <f t="array" aca="1" ref="P32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
         <v>The F-35B is a special variant of the F-35 capable of taking off and landing vertically. This allows it to be stationed on smaller carriers that have typically not been able to field cutting-edge aircraft.</v>
       </c>
-      <c r="Q32" cm="1">
+      <c r="Q32" t="str" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -6045,9 +6047,9 @@
         <f t="array" aca="1" ref="P33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
         <v>The F-35B is a special variant of the F-35 capable of taking off and landing vertically. This allows it to be stationed on smaller carriers that have typically not been able to field cutting-edge aircraft.</v>
       </c>
-      <c r="Q33" cm="1">
+      <c r="Q33" t="str" cm="1">
         <f t="array" aca="1" ref="Q33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -6114,9 +6116,9 @@
         <f t="array" aca="1" ref="P34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
         <v>The F-35 acquisition program cost of just under $450 billion USD would be enough to buy 450 billion $1 cheeseburgers - enough to kill all humans on earth.</v>
       </c>
-      <c r="Q34" cm="1">
+      <c r="Q34" t="str" cm="1">
         <f t="array" aca="1" ref="Q34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -6183,9 +6185,9 @@
         <f t="array" aca="1" ref="P35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
         <v>The F-35 acquisition program cost of just under $450 billion USD would be enough to buy 450 billion $1 cheeseburgers - enough to kill all humans on earth.</v>
       </c>
-      <c r="Q35" cm="1">
+      <c r="Q35" t="str" cm="1">
         <f t="array" aca="1" ref="Q35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -6252,9 +6254,9 @@
         <f t="array" aca="1" ref="P36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
         <v>The F-35 acquisition program cost of just under $450 billion USD would be enough to buy 450 billion $1 cheeseburgers - enough to kill all humans on earth.</v>
       </c>
-      <c r="Q36" cm="1">
+      <c r="Q36" t="str" cm="1">
         <f t="array" aca="1" ref="Q36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -6320,9 +6322,9 @@
         <f t="array" aca="1" ref="P37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
         <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
-      <c r="Q37" cm="1">
+      <c r="Q37" t="str" cm="1">
         <f t="array" aca="1" ref="Q37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -6388,9 +6390,9 @@
         <f t="array" aca="1" ref="P38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
         <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
-      <c r="Q38" cm="1">
+      <c r="Q38" t="str" cm="1">
         <f t="array" aca="1" ref="Q38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -6456,9 +6458,9 @@
         <f t="array" aca="1" ref="P39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
         <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
-      <c r="Q39" cm="1">
+      <c r="Q39" t="str" cm="1">
         <f t="array" aca="1" ref="Q39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -6524,9 +6526,9 @@
         <f t="array" aca="1" ref="P40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
         <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
-      <c r="Q40" cm="1">
+      <c r="Q40" t="str" cm="1">
         <f t="array" aca="1" ref="Q40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -6592,9 +6594,9 @@
         <f t="array" aca="1" ref="P41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
         <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
-      <c r="Q41" cm="1">
+      <c r="Q41" t="str" cm="1">
         <f t="array" aca="1" ref="Q41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -6660,9 +6662,9 @@
         <f t="array" aca="1" ref="P42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
         <v>Although sold to a company in Macau supposedly for use as a floating casino, Kuznetsov's sister ship has since unsurprisingly become the first aircraft carrier of the Chinese People's Liberation Army Navy.</v>
       </c>
-      <c r="Q42" cm="1">
+      <c r="Q42" t="str" cm="1">
         <f t="array" aca="1" ref="Q42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -6727,9 +6729,9 @@
         <f t="array" aca="1" ref="P43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
         <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
       </c>
-      <c r="Q43" cm="1">
+      <c r="Q43" t="str" cm="1">
         <f t="array" aca="1" ref="Q43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -6794,9 +6796,9 @@
         <f t="array" aca="1" ref="P44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
         <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
       </c>
-      <c r="Q44" cm="1">
+      <c r="Q44" t="str" cm="1">
         <f t="array" aca="1" ref="Q44" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -6861,9 +6863,9 @@
         <f t="array" aca="1" ref="P45" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B45)</f>
         <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
       </c>
-      <c r="Q45" cm="1">
+      <c r="Q45" t="str" cm="1">
         <f t="array" aca="1" ref="Q45" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B45)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -6928,9 +6930,9 @@
         <f t="array" aca="1" ref="P46" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B46)</f>
         <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</v>
       </c>
-      <c r="Q46" cm="1">
+      <c r="Q46" t="str" cm="1">
         <f t="array" aca="1" ref="Q46" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B46)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -6995,9 +6997,9 @@
         <f t="array" aca="1" ref="P47" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B47)</f>
         <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</v>
       </c>
-      <c r="Q47" cm="1">
+      <c r="Q47" t="str" cm="1">
         <f t="array" aca="1" ref="Q47" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B47)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -7062,9 +7064,9 @@
         <f t="array" aca="1" ref="P48" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B48)</f>
         <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</v>
       </c>
-      <c r="Q48" cm="1">
+      <c r="Q48" t="str" cm="1">
         <f t="array" aca="1" ref="Q48" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B48)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -7129,9 +7131,9 @@
         <f t="array" aca="1" ref="P49" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B49)</f>
         <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</v>
       </c>
-      <c r="Q49" cm="1">
+      <c r="Q49" t="str" cm="1">
         <f t="array" aca="1" ref="Q49" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B49)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -7197,9 +7199,9 @@
         <f t="array" aca="1" ref="P50" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B50)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q50" cm="1">
+      <c r="Q50" t="str" cm="1">
         <f t="array" aca="1" ref="Q50" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B50)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -7265,9 +7267,9 @@
         <f t="array" aca="1" ref="P51" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B51)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q51" cm="1">
+      <c r="Q51" t="str" cm="1">
         <f t="array" aca="1" ref="Q51" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B51)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -7333,9 +7335,9 @@
         <f t="array" aca="1" ref="P52" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B52)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q52" cm="1">
+      <c r="Q52" t="str" cm="1">
         <f t="array" aca="1" ref="Q52" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B52)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -7401,9 +7403,9 @@
         <f t="array" aca="1" ref="P53" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B53)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q53" cm="1">
+      <c r="Q53" t="str" cm="1">
         <f t="array" aca="1" ref="Q53" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B53)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -7469,9 +7471,9 @@
         <f t="array" aca="1" ref="P54" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B54)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q54" cm="1">
+      <c r="Q54" t="str" cm="1">
         <f t="array" aca="1" ref="Q54" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B54)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -7537,9 +7539,9 @@
         <f t="array" aca="1" ref="P55" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B55)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q55" cm="1">
+      <c r="Q55" t="str" cm="1">
         <f t="array" aca="1" ref="Q55" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B55)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -7605,9 +7607,9 @@
         <f t="array" aca="1" ref="P56" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B56)</f>
         <v>With a name that means "modern" in Russian, they are the oldest class of destroyer in the Russian Navy.</v>
       </c>
-      <c r="Q56" cm="1">
+      <c r="Q56" t="str" cm="1">
         <f t="array" aca="1" ref="Q56" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B56)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -7673,9 +7675,9 @@
         <f t="array" aca="1" ref="P57" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B57)</f>
         <v>With a name that means "modern" in Russian, they are the oldest class of destroyer in the Russian Navy.</v>
       </c>
-      <c r="Q57" cm="1">
+      <c r="Q57" t="str" cm="1">
         <f t="array" aca="1" ref="Q57" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B57)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -7741,9 +7743,9 @@
         <f t="array" aca="1" ref="P58" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B58)</f>
         <v>With a name that means "modern" in Russian, they are the oldest class of destroyer in the Russian Navy.</v>
       </c>
-      <c r="Q58" cm="1">
+      <c r="Q58" t="str" cm="1">
         <f t="array" aca="1" ref="Q58" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B58)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -7809,9 +7811,9 @@
         <f t="array" aca="1" ref="P59" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B59)</f>
         <v>With a name that means "modern" in Russian, they are the oldest class of destroyer in the Russian Navy.</v>
       </c>
-      <c r="Q59" cm="1">
+      <c r="Q59" t="str" cm="1">
         <f t="array" aca="1" ref="Q59" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B59)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -7876,9 +7878,9 @@
         <f t="array" aca="1" ref="P60" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B60)</f>
         <v>The cutting-edge Gorshkov frigates stick out in the largely-outdated Russian surface warfare fleet.</v>
       </c>
-      <c r="Q60" cm="1">
+      <c r="Q60" t="str" cm="1">
         <f t="array" aca="1" ref="Q60" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B60)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -7943,9 +7945,9 @@
         <f t="array" aca="1" ref="P61" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B61)</f>
         <v>The cutting-edge Gorshkov frigates stick out in the largely-outdated Russian surface warfare fleet.</v>
       </c>
-      <c r="Q61" cm="1">
+      <c r="Q61" t="str" cm="1">
         <f t="array" aca="1" ref="Q61" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B61)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -8012,9 +8014,9 @@
         <f t="array" aca="1" ref="P62" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B62)</f>
         <v>With more than twice the firepower of western submarines, the Yasen is Russia's best effort in no-expense-spared attack submarine development.</v>
       </c>
-      <c r="Q62" cm="1">
+      <c r="Q62" t="str" cm="1">
         <f t="array" aca="1" ref="Q62" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B62)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -8081,9 +8083,9 @@
         <f t="array" aca="1" ref="P63" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B63)</f>
         <v>With more than twice the firepower of western submarines, the Yasen is Russia's best effort in no-expense-spared attack submarine development.</v>
       </c>
-      <c r="Q63" cm="1">
+      <c r="Q63" t="str" cm="1">
         <f t="array" aca="1" ref="Q63" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B63)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -8150,9 +8152,9 @@
         <f t="array" aca="1" ref="P64" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B64)</f>
         <v>With more than twice the firepower of western submarines, the Yasen is Russia's best effort in no-expense-spared attack submarine development.</v>
       </c>
-      <c r="Q64" cm="1">
+      <c r="Q64" t="str" cm="1">
         <f t="array" aca="1" ref="Q64" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B64)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -8219,9 +8221,9 @@
         <f t="array" aca="1" ref="P65" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B65)</f>
         <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carriers.</v>
       </c>
-      <c r="Q65" cm="1">
+      <c r="Q65" t="str" cm="1">
         <f t="array" aca="1" ref="Q65" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B65)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -8288,9 +8290,9 @@
         <f t="array" aca="1" ref="P66" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B66)</f>
         <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carriers.</v>
       </c>
-      <c r="Q66" cm="1">
+      <c r="Q66" t="str" cm="1">
         <f t="array" aca="1" ref="Q66" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B66)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -8357,9 +8359,9 @@
         <f t="array" aca="1" ref="P67" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B67)</f>
         <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carriers.</v>
       </c>
-      <c r="Q67" cm="1">
+      <c r="Q67" t="str" cm="1">
         <f t="array" aca="1" ref="Q67" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B67)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -8426,9 +8428,9 @@
         <f t="array" aca="1" ref="P68" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B68)</f>
         <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carriers.</v>
       </c>
-      <c r="Q68" cm="1">
+      <c r="Q68" t="str" cm="1">
         <f t="array" aca="1" ref="Q68" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B68)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -8495,9 +8497,9 @@
         <f t="array" aca="1" ref="P69" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B69)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q69" cm="1">
+      <c r="Q69" t="str" cm="1">
         <f t="array" aca="1" ref="Q69" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B69)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -8564,9 +8566,9 @@
         <f t="array" aca="1" ref="P70" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B70)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q70" cm="1">
+      <c r="Q70" t="str" cm="1">
         <f t="array" aca="1" ref="Q70" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B70)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8633,9 +8635,9 @@
         <f t="array" aca="1" ref="P71" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B71)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q71" cm="1">
+      <c r="Q71" t="str" cm="1">
         <f t="array" aca="1" ref="Q71" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B71)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -8702,9 +8704,9 @@
         <f t="array" aca="1" ref="P72" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B72)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q72" cm="1">
+      <c r="Q72" t="str" cm="1">
         <f t="array" aca="1" ref="Q72" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B72)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -8771,9 +8773,9 @@
         <f t="array" aca="1" ref="P73" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B73)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q73" cm="1">
+      <c r="Q73" t="str" cm="1">
         <f t="array" aca="1" ref="Q73" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B73)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8840,9 +8842,9 @@
         <f t="array" aca="1" ref="P74" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B74)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q74" cm="1">
+      <c r="Q74" t="str" cm="1">
         <f t="array" aca="1" ref="Q74" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B74)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -8909,9 +8911,9 @@
         <f t="array" aca="1" ref="P75" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B75)</f>
         <v>Nothing fancy, but it ain't bad for government work.</v>
       </c>
-      <c r="Q75" cm="1">
+      <c r="Q75" t="str" cm="1">
         <f t="array" aca="1" ref="Q75" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B75)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -8978,9 +8980,9 @@
         <f t="array" aca="1" ref="P76" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B76)</f>
         <v>Nothing fancy, but it ain't bad for government work.</v>
       </c>
-      <c r="Q76" cm="1">
+      <c r="Q76" t="str" cm="1">
         <f t="array" aca="1" ref="Q76" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B76)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -9047,9 +9049,9 @@
         <f t="array" aca="1" ref="P77" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B77)</f>
         <v>Nothing fancy, but it ain't bad for government work.</v>
       </c>
-      <c r="Q77" cm="1">
+      <c r="Q77" t="str" cm="1">
         <f t="array" aca="1" ref="Q77" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B77)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -9116,9 +9118,9 @@
         <f t="array" aca="1" ref="P78" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B78)</f>
         <v>Nothing fancy, but it ain't bad for government work.</v>
       </c>
-      <c r="Q78" cm="1">
+      <c r="Q78" t="str" cm="1">
         <f t="array" aca="1" ref="Q78" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B78)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -9185,9 +9187,9 @@
         <f t="array" aca="1" ref="P79" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B79)</f>
         <v>Although shorter-ranged than nuclear attack submarines, diesel-electric attack submarines are smaller, quieter and nearly as well armed.</v>
       </c>
-      <c r="Q79" cm="1">
+      <c r="Q79" t="str" cm="1">
         <f t="array" aca="1" ref="Q79" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B79)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -9254,9 +9256,9 @@
         <f t="array" aca="1" ref="P80" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B80)</f>
         <v>Although shorter-ranged than nuclear attack submarines, diesel-electric attack submarines are smaller, quieter and nearly as well armed.</v>
       </c>
-      <c r="Q80" cm="1">
+      <c r="Q80" t="str" cm="1">
         <f t="array" aca="1" ref="Q80" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B80)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -9322,9 +9324,9 @@
         <f t="array" aca="1" ref="P81" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B81)</f>
         <v>With a $15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
       </c>
-      <c r="Q81" cm="1">
+      <c r="Q81" t="str" cm="1">
         <f t="array" aca="1" ref="Q81" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B81)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -9390,9 +9392,9 @@
         <f t="array" aca="1" ref="P82" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B82)</f>
         <v>With a $15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
       </c>
-      <c r="Q82" cm="1">
+      <c r="Q82" t="str" cm="1">
         <f t="array" aca="1" ref="Q82" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B82)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -9458,9 +9460,9 @@
         <f t="array" aca="1" ref="P83" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B83)</f>
         <v>With a $15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
       </c>
-      <c r="Q83" cm="1">
+      <c r="Q83" t="str" cm="1">
         <f t="array" aca="1" ref="Q83" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B83)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -9541,9 +9543,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G3">
+      <c r="G3" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -9567,9 +9569,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G4">
+      <c r="G4" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -9600,9 +9602,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G6">
+      <c r="G6" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9626,9 +9628,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G7">
+      <c r="G7" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -9652,9 +9654,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G8">
+      <c r="G8" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9678,9 +9680,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G9">
+      <c r="G9" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9704,9 +9706,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G10">
+      <c r="G10" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -9730,9 +9732,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G11">
+      <c r="G11" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -9763,9 +9765,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G13">
+      <c r="G13" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9789,9 +9791,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G14">
+      <c r="G14" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9815,9 +9817,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G15">
+      <c r="G15" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9842,9 +9844,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G17">
+      <c r="G17" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -9868,9 +9870,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G18">
+      <c r="G18" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -9908,9 +9910,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G21">
+      <c r="G21" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9934,9 +9936,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G22">
+      <c r="G22" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -9974,9 +9976,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G25">
+      <c r="G25" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -10000,9 +10002,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G26">
+      <c r="G26" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10026,9 +10028,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G27">
+      <c r="G27" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10052,9 +10054,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="G28">
+      <c r="G28" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
   </sheetData>
@@ -10067,7 +10069,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K25"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10161,9 +10163,9 @@
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K2" cm="1">
+      <c r="K2" t="str" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10204,9 +10206,9 @@
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
         <v>Images/pearlharbor.jpg</v>
       </c>
-      <c r="K3" cm="1">
+      <c r="K3" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -10249,9 +10251,9 @@
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K4" cm="1">
+      <c r="K4" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10294,9 +10296,9 @@
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K5" cm="1">
+      <c r="K5" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10339,9 +10341,9 @@
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K6" cm="1">
+      <c r="K6" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -10384,9 +10386,9 @@
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K7" cm="1">
+      <c r="K7" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -10429,9 +10431,9 @@
         <f t="array" aca="1" ref="J8" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K8" cm="1">
+      <c r="K8" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -10474,9 +10476,9 @@
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K9" cm="1">
+      <c r="K9" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -10519,9 +10521,9 @@
         <f t="array" aca="1" ref="J10" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K10" cm="1">
+      <c r="K10" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -10564,9 +10566,9 @@
         <f t="array" aca="1" ref="J11" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K11" cm="1">
+      <c r="K11" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -10608,9 +10610,9 @@
         <f t="array" aca="1" ref="J12" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
         <v>Images/pinegap.jpg</v>
       </c>
-      <c r="K12" cm="1">
+      <c r="K12" t="str" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -10653,9 +10655,9 @@
         <f t="array" aca="1" ref="J13" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K13" cm="1">
+      <c r="K13" t="str" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -10697,9 +10699,9 @@
         <f t="array" aca="1" ref="J14" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K14" cm="1">
+      <c r="K14" t="str" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -10741,9 +10743,9 @@
         <f t="array" aca="1" ref="J15" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K15" cm="1">
+      <c r="K15" t="str" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -10785,9 +10787,9 @@
         <f t="array" aca="1" ref="J16" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K16" cm="1">
+      <c r="K16" t="str" cm="1">
         <f t="array" aca="1" ref="K16" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -10829,9 +10831,9 @@
         <f t="array" aca="1" ref="J17" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K17" cm="1">
+      <c r="K17" t="str" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -10873,9 +10875,9 @@
         <f t="array" aca="1" ref="J18" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K18" cm="1">
+      <c r="K18" t="str" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -10917,9 +10919,9 @@
         <f t="array" aca="1" ref="J19" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K19" cm="1">
+      <c r="K19" t="str" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -10961,9 +10963,9 @@
         <f t="array" aca="1" ref="J20" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K20" cm="1">
+      <c r="K20" t="str" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -11005,9 +11007,9 @@
         <f t="array" aca="1" ref="J21" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K21" cm="1">
+      <c r="K21" t="str" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -11049,9 +11051,9 @@
         <f t="array" aca="1" ref="J22" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K22" cm="1">
+      <c r="K22" t="str" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -11093,9 +11095,9 @@
         <f t="array" aca="1" ref="J23" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K23" cm="1">
+      <c r="K23" t="str" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -11137,9 +11139,9 @@
         <f t="array" aca="1" ref="J24" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K24" cm="1">
+      <c r="K24" t="str" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -11181,9 +11183,9 @@
         <f t="array" aca="1" ref="J25" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K25" cm="1">
+      <c r="K25" t="str" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
   </sheetData>
@@ -11287,9 +11289,9 @@
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K2" cm="1">
+      <c r="K2" t="str" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -11330,9 +11332,9 @@
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
         <v>Images/pearlharbor.jpg</v>
       </c>
-      <c r="K3" cm="1">
+      <c r="K3" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -11375,9 +11377,9 @@
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K4" cm="1">
+      <c r="K4" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -11420,9 +11422,9 @@
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K5" cm="1">
+      <c r="K5" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -11465,9 +11467,9 @@
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K6" cm="1">
+      <c r="K6" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -11510,9 +11512,9 @@
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K7" cm="1">
+      <c r="K7" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -11555,9 +11557,9 @@
         <f t="array" aca="1" ref="J8" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K8" cm="1">
+      <c r="K8" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -11600,9 +11602,9 @@
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K9" cm="1">
+      <c r="K9" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -11645,9 +11647,9 @@
         <f t="array" aca="1" ref="J10" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K10" cm="1">
+      <c r="K10" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -11690,9 +11692,9 @@
         <f t="array" aca="1" ref="J11" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K11" cm="1">
+      <c r="K11" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -11734,9 +11736,9 @@
         <f t="array" aca="1" ref="J12" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
         <v>Images/pinegap.jpg</v>
       </c>
-      <c r="K12" cm="1">
+      <c r="K12" t="str" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -11779,9 +11781,9 @@
         <f t="array" aca="1" ref="J13" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
         <v>Images/navalbase.jpg</v>
       </c>
-      <c r="K13" cm="1">
+      <c r="K13" t="str" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
   </sheetData>
@@ -11881,9 +11883,9 @@
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K2" cm="1">
+      <c r="K2" t="str" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -11925,9 +11927,9 @@
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K3" cm="1">
+      <c r="K3" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -11969,9 +11971,9 @@
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K4" cm="1">
+      <c r="K4" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12013,9 +12015,9 @@
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K5" cm="1">
+      <c r="K5" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12057,9 +12059,9 @@
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K6" cm="1">
+      <c r="K6" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12101,9 +12103,9 @@
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K7" cm="1">
+      <c r="K7" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12145,9 +12147,9 @@
         <f t="array" aca="1" ref="J8" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K8" cm="1">
+      <c r="K8" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12189,9 +12191,9 @@
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K9" cm="1">
+      <c r="K9" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12233,9 +12235,9 @@
         <f t="array" aca="1" ref="J10" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K10" cm="1">
+      <c r="K10" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12277,9 +12279,9 @@
         <f t="array" aca="1" ref="J11" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K11" cm="1">
+      <c r="K11" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12321,9 +12323,9 @@
         <f t="array" aca="1" ref="J12" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K12" cm="1">
+      <c r="K12" t="str" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12365,9 +12367,9 @@
         <f t="array" aca="1" ref="J13" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
         <v>Images/russnavybase.jpg</v>
       </c>
-      <c r="K13" cm="1">
+      <c r="K13" t="str" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
   </sheetData>
@@ -12446,9 +12448,9 @@
       <c r="G2" t="s">
         <v>222</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12476,9 +12478,9 @@
       <c r="G3" t="s">
         <v>224</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12504,9 +12506,9 @@
       <c r="G4" t="s">
         <v>317</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -12534,9 +12536,9 @@
       <c r="G5" t="s">
         <v>223</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14958,9 +14960,9 @@
         <f t="array" aca="1" ref="P2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v>A military airbase at sea, a Nimitz carrier is more than three times as long as a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
       </c>
-      <c r="Q2" cm="1">
+      <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -15027,9 +15029,9 @@
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
         <v>A military airbase at sea, a Nimitz carrier is more than three times as long as a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
       </c>
-      <c r="Q3" cm="1">
+      <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -15096,9 +15098,9 @@
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v>A military airbase at sea, a Nimitz carrier is more than three times as long as a football field and has more than twice the displacement of the German super-battleship Bismarck.</v>
       </c>
-      <c r="Q4" cm="1">
+      <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -15164,9 +15166,9 @@
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
         <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
-      <c r="Q5" cm="1">
+      <c r="Q5" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -15232,9 +15234,9 @@
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
         <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
-      <c r="Q6" cm="1">
+      <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -15300,9 +15302,9 @@
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
         <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
-      <c r="Q7" cm="1">
+      <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -15368,9 +15370,9 @@
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
         <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
-      <c r="Q8" cm="1">
+      <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -15436,9 +15438,9 @@
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
         <v>In addition to supporting VTOL aircraft, a Wasp amphibious assault ship is capable of delivering a Marine Expeditionary Unit complete with its armored vehicles to hostile shores via helicopters and landing craft.</v>
       </c>
-      <c r="Q9" cm="1">
+      <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -15506,9 +15508,9 @@
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
         <v>As the most expensive class of attack submarine ever built, the Seawolf is the apex predator of the US Navy's submarine fleet.</v>
       </c>
-      <c r="Q10" cm="1">
+      <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -15575,9 +15577,9 @@
         <f t="array" aca="1" ref="P11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
         <v>The advanced Virginia will be the standard attack submarine of the US Navy until at least the middle of the 21st century.</v>
       </c>
-      <c r="Q11" cm="1">
+      <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -15644,9 +15646,9 @@
         <f t="array" aca="1" ref="P12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
         <v>The advanced Virginia will be the standard attack submarine of the US Navy until at least the middle of the 21st century.</v>
       </c>
-      <c r="Q12" cm="1">
+      <c r="Q12" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -15713,9 +15715,9 @@
         <f t="array" aca="1" ref="P13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
         <v>The advanced Virginia will be the standard attack submarine of the US Navy until at least the middle of the 21st century.</v>
       </c>
-      <c r="Q13" cm="1">
+      <c r="Q13" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -15782,9 +15784,9 @@
         <f t="array" aca="1" ref="P14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
         <v>Although Ohio was originally intended to carry nuclear ballistic missiles, some Ohio's have been modified as SSGNs for surface warfare and land-attack missions.</v>
       </c>
-      <c r="Q14" cm="1">
+      <c r="Q14" t="str" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -15851,9 +15853,9 @@
         <f t="array" aca="1" ref="P15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
         <v>Although Ohio was originally intended to carry nuclear ballistic missiles, some Ohio's have been modified as SSGNs for surface warfare and land-attack missions.</v>
       </c>
-      <c r="Q15" cm="1">
+      <c r="Q15" t="str" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -15918,9 +15920,9 @@
         <f t="array" aca="1" ref="P16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
         <v>Despite a modest displacement by historical standards, the Ticonderoga is the largest surface combatant in the US Navy.</v>
       </c>
-      <c r="Q16" cm="1">
+      <c r="Q16" t="str" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -15985,9 +15987,9 @@
         <f t="array" aca="1" ref="P17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
         <v>Despite a modest displacement by historical standards, the Ticonderoga is the largest surface combatant in the US Navy.</v>
       </c>
-      <c r="Q17" cm="1">
+      <c r="Q17" t="str" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -16052,9 +16054,9 @@
         <f t="array" aca="1" ref="P18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
         <v>Despite a modest displacement by historical standards, the Ticonderoga is the largest surface combatant in the US Navy.</v>
       </c>
-      <c r="Q18" cm="1">
+      <c r="Q18" t="str" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -16119,9 +16121,9 @@
         <f t="array" aca="1" ref="P19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
         <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
-      <c r="Q19" cm="1">
+      <c r="Q19" t="str" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -16186,9 +16188,9 @@
         <f t="array" aca="1" ref="P20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
         <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
-      <c r="Q20" cm="1">
+      <c r="Q20" t="str" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -16253,9 +16255,9 @@
         <f t="array" aca="1" ref="P21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
         <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
-      <c r="Q21" cm="1">
+      <c r="Q21" t="str" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -16320,9 +16322,9 @@
         <f t="array" aca="1" ref="P22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
         <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
-      <c r="Q22" cm="1">
+      <c r="Q22" t="str" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -16387,9 +16389,9 @@
         <f t="array" aca="1" ref="P23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
         <v>The multi-mission Arleigh Burke is the most numerous ship in the US Navy.</v>
       </c>
-      <c r="Q23" cm="1">
+      <c r="Q23" t="str" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -16454,9 +16456,9 @@
         <f t="array" aca="1" ref="P24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
         <v>With a cost of $1M per shot from its main howitzer, it is important for the crew of a Zumwalt to aim carefully.</v>
       </c>
-      <c r="Q24" cm="1">
+      <c r="Q24" t="str" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -16521,9 +16523,9 @@
         <f t="array" aca="1" ref="P25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
         <v>With a cost of $1M per shot from its main howitzer, it is important for the crew of a Zumwalt to aim carefully.</v>
       </c>
-      <c r="Q25" cm="1">
+      <c r="Q25" t="str" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -16589,9 +16591,9 @@
         <f t="array" aca="1" ref="P26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
         <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
-      <c r="Q26" cm="1">
+      <c r="Q26" t="str" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -16657,9 +16659,9 @@
         <f t="array" aca="1" ref="P27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
         <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
-      <c r="Q27" cm="1">
+      <c r="Q27" t="str" cm="1">
         <f t="array" aca="1" ref="Q27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -16725,9 +16727,9 @@
         <f t="array" aca="1" ref="P28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
         <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
-      <c r="Q28" cm="1">
+      <c r="Q28" t="str" cm="1">
         <f t="array" aca="1" ref="Q28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -16793,9 +16795,9 @@
         <f t="array" aca="1" ref="P29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
         <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
-      <c r="Q29" cm="1">
+      <c r="Q29" t="str" cm="1">
         <f t="array" aca="1" ref="Q29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -16861,9 +16863,9 @@
         <f t="array" aca="1" ref="P30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
         <v>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</v>
       </c>
-      <c r="Q30" cm="1">
+      <c r="Q30" t="str" cm="1">
         <f t="array" aca="1" ref="Q30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -16930,9 +16932,9 @@
         <f t="array" aca="1" ref="P31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
         <v>The F-35B is a special variant of the F-35 capable of taking off and landing vertically. This allows it to be stationed on smaller carriers that have typically not been able to field cutting-edge aircraft.</v>
       </c>
-      <c r="Q31" cm="1">
+      <c r="Q31" t="str" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -16999,9 +17001,9 @@
         <f t="array" aca="1" ref="P32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
         <v>The F-35B is a special variant of the F-35 capable of taking off and landing vertically. This allows it to be stationed on smaller carriers that have typically not been able to field cutting-edge aircraft.</v>
       </c>
-      <c r="Q32" cm="1">
+      <c r="Q32" t="str" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -17068,9 +17070,9 @@
         <f t="array" aca="1" ref="P33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
         <v>The F-35B is a special variant of the F-35 capable of taking off and landing vertically. This allows it to be stationed on smaller carriers that have typically not been able to field cutting-edge aircraft.</v>
       </c>
-      <c r="Q33" cm="1">
+      <c r="Q33" t="str" cm="1">
         <f t="array" aca="1" ref="Q33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -17137,9 +17139,9 @@
         <f t="array" aca="1" ref="P34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
         <v>The F-35 acquisition program cost of just under $450 billion USD would be enough to buy 450 billion $1 cheeseburgers - enough to kill all humans on earth.</v>
       </c>
-      <c r="Q34" cm="1">
+      <c r="Q34" t="str" cm="1">
         <f t="array" aca="1" ref="Q34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -17206,9 +17208,9 @@
         <f t="array" aca="1" ref="P35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
         <v>The F-35 acquisition program cost of just under $450 billion USD would be enough to buy 450 billion $1 cheeseburgers - enough to kill all humans on earth.</v>
       </c>
-      <c r="Q35" cm="1">
+      <c r="Q35" t="str" cm="1">
         <f t="array" aca="1" ref="Q35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -17275,9 +17277,9 @@
         <f t="array" aca="1" ref="P36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
         <v>The F-35 acquisition program cost of just under $450 billion USD would be enough to buy 450 billion $1 cheeseburgers - enough to kill all humans on earth.</v>
       </c>
-      <c r="Q36" cm="1">
+      <c r="Q36" t="str" cm="1">
         <f t="array" aca="1" ref="Q36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -17343,9 +17345,9 @@
         <f t="array" aca="1" ref="P37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
         <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
-      <c r="Q37" cm="1">
+      <c r="Q37" t="str" cm="1">
         <f t="array" aca="1" ref="Q37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -17411,9 +17413,9 @@
         <f t="array" aca="1" ref="P38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
         <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
-      <c r="Q38" cm="1">
+      <c r="Q38" t="str" cm="1">
         <f t="array" aca="1" ref="Q38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -17479,9 +17481,9 @@
         <f t="array" aca="1" ref="P39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
         <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
-      <c r="Q39" cm="1">
+      <c r="Q39" t="str" cm="1">
         <f t="array" aca="1" ref="Q39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -17547,9 +17549,9 @@
         <f t="array" aca="1" ref="P40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
         <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
-      <c r="Q40" cm="1">
+      <c r="Q40" t="str" cm="1">
         <f t="array" aca="1" ref="Q40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -17615,9 +17617,9 @@
         <f t="array" aca="1" ref="P41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
         <v>A Pepsi ad campaign promised to award a Harrier to anyone who collected enough Pepsi points- a promise Pepsi did not keep. During its service history, the Harrier has proven it is more reliable than Pepsi Co.</v>
       </c>
-      <c r="Q41" cm="1">
+      <c r="Q41" t="str" cm="1">
         <f t="array" aca="1" ref="Q41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -17894,9 +17896,9 @@
         <f t="array" aca="1" ref="P2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v>Although sold to a company in Macau supposedly for use as a floating casino, Kuznetsov's sister ship has since unsurprisingly become the first aircraft carrier of the Chinese People's Liberation Army Navy.</v>
       </c>
-      <c r="Q2" cm="1">
+      <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -17961,9 +17963,9 @@
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
         <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
       </c>
-      <c r="Q3" cm="1">
+      <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -18028,9 +18030,9 @@
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
       </c>
-      <c r="Q4" cm="1">
+      <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -18095,9 +18097,9 @@
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
         <v>Since the decommisioning of the last retrofitted WWII-era battleship in 1991, the Kirov has been the largest surface combatant in the world.</v>
       </c>
-      <c r="Q5" cm="1">
+      <c r="Q5" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -18162,9 +18164,9 @@
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
         <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</v>
       </c>
-      <c r="Q6" cm="1">
+      <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -18229,9 +18231,9 @@
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
         <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</v>
       </c>
-      <c r="Q7" cm="1">
+      <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -18296,9 +18298,9 @@
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
         <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</v>
       </c>
-      <c r="Q8" cm="1">
+      <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -18363,9 +18365,9 @@
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
         <v>Equipped with the same massive anti-ship missiles as the Kirov class, the Slava packs a similar punch in a considerably smaller form-factor.</v>
       </c>
-      <c r="Q9" cm="1">
+      <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -18431,9 +18433,9 @@
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q10" cm="1">
+      <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -18499,9 +18501,9 @@
         <f t="array" aca="1" ref="P11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q11" cm="1">
+      <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -18567,9 +18569,9 @@
         <f t="array" aca="1" ref="P12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q12" cm="1">
+      <c r="Q12" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -18635,9 +18637,9 @@
         <f t="array" aca="1" ref="P13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q13" cm="1">
+      <c r="Q13" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -18703,9 +18705,9 @@
         <f t="array" aca="1" ref="P14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q14" cm="1">
+      <c r="Q14" t="str" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -18771,9 +18773,9 @@
         <f t="array" aca="1" ref="P15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
         <v>Udaloy II: the ship so nice they designed it twice.</v>
       </c>
-      <c r="Q15" cm="1">
+      <c r="Q15" t="str" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -18839,9 +18841,9 @@
         <f t="array" aca="1" ref="P16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
         <v>With a name that means "modern" in Russian, they are the oldest class of destroyer in the Russian Navy.</v>
       </c>
-      <c r="Q16" cm="1">
+      <c r="Q16" t="str" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -18907,9 +18909,9 @@
         <f t="array" aca="1" ref="P17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
         <v>With a name that means "modern" in Russian, they are the oldest class of destroyer in the Russian Navy.</v>
       </c>
-      <c r="Q17" cm="1">
+      <c r="Q17" t="str" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -18975,9 +18977,9 @@
         <f t="array" aca="1" ref="P18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
         <v>With a name that means "modern" in Russian, they are the oldest class of destroyer in the Russian Navy.</v>
       </c>
-      <c r="Q18" cm="1">
+      <c r="Q18" t="str" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -19043,9 +19045,9 @@
         <f t="array" aca="1" ref="P19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
         <v>With a name that means "modern" in Russian, they are the oldest class of destroyer in the Russian Navy.</v>
       </c>
-      <c r="Q19" cm="1">
+      <c r="Q19" t="str" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -19110,9 +19112,9 @@
         <f t="array" aca="1" ref="P20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
         <v>The cutting-edge Gorshkov frigates stick out in the largely-outdated Russian surface warfare fleet.</v>
       </c>
-      <c r="Q20" cm="1">
+      <c r="Q20" t="str" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -19177,9 +19179,9 @@
         <f t="array" aca="1" ref="P21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
         <v>The cutting-edge Gorshkov frigates stick out in the largely-outdated Russian surface warfare fleet.</v>
       </c>
-      <c r="Q21" cm="1">
+      <c r="Q21" t="str" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -19246,9 +19248,9 @@
         <f t="array" aca="1" ref="P22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
         <v>With more than twice the firepower of western submarines, the Yasen is Russia's best effort in no-expense-spared attack submarine development.</v>
       </c>
-      <c r="Q22" cm="1">
+      <c r="Q22" t="str" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -19315,9 +19317,9 @@
         <f t="array" aca="1" ref="P23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
         <v>With more than twice the firepower of western submarines, the Yasen is Russia's best effort in no-expense-spared attack submarine development.</v>
       </c>
-      <c r="Q23" cm="1">
+      <c r="Q23" t="str" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -19384,9 +19386,9 @@
         <f t="array" aca="1" ref="P24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
         <v>With more than twice the firepower of western submarines, the Yasen is Russia's best effort in no-expense-spared attack submarine development.</v>
       </c>
-      <c r="Q24" cm="1">
+      <c r="Q24" t="str" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -19453,9 +19455,9 @@
         <f t="array" aca="1" ref="P25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
         <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carriers.</v>
       </c>
-      <c r="Q25" cm="1">
+      <c r="Q25" t="str" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -19522,9 +19524,9 @@
         <f t="array" aca="1" ref="P26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
         <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carriers.</v>
       </c>
-      <c r="Q26" cm="1">
+      <c r="Q26" t="str" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -19591,9 +19593,9 @@
         <f t="array" aca="1" ref="P27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
         <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carriers.</v>
       </c>
-      <c r="Q27" cm="1">
+      <c r="Q27" t="str" cm="1">
         <f t="array" aca="1" ref="Q27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -19660,9 +19662,9 @@
         <f t="array" aca="1" ref="P28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
         <v>The massive but aging Oscar is a relic of Cold War Soviet strategy. That said, it's large guided missile batteries are still a formidable threat to US carriers.</v>
       </c>
-      <c r="Q28" cm="1">
+      <c r="Q28" t="str" cm="1">
         <f t="array" aca="1" ref="Q28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -19729,9 +19731,9 @@
         <f t="array" aca="1" ref="P29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q29" cm="1">
+      <c r="Q29" t="str" cm="1">
         <f t="array" aca="1" ref="Q29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -19798,9 +19800,9 @@
         <f t="array" aca="1" ref="P30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q30" cm="1">
+      <c r="Q30" t="str" cm="1">
         <f t="array" aca="1" ref="Q30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -19867,9 +19869,9 @@
         <f t="array" aca="1" ref="P31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q31" cm="1">
+      <c r="Q31" t="str" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -19936,9 +19938,9 @@
         <f t="array" aca="1" ref="P32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q32" cm="1">
+      <c r="Q32" t="str" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -20005,9 +20007,9 @@
         <f t="array" aca="1" ref="P33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q33" cm="1">
+      <c r="Q33" t="str" cm="1">
         <f t="array" aca="1" ref="Q33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -20074,9 +20076,9 @@
         <f t="array" aca="1" ref="P34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
         <v>In Russian, akula means shark</v>
       </c>
-      <c r="Q34" cm="1">
+      <c r="Q34" t="str" cm="1">
         <f t="array" aca="1" ref="Q34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -20143,9 +20145,9 @@
         <f t="array" aca="1" ref="P35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
         <v>Nothing fancy, but it ain't bad for government work.</v>
       </c>
-      <c r="Q35" cm="1">
+      <c r="Q35" t="str" cm="1">
         <f t="array" aca="1" ref="Q35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -20212,9 +20214,9 @@
         <f t="array" aca="1" ref="P36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
         <v>Nothing fancy, but it ain't bad for government work.</v>
       </c>
-      <c r="Q36" cm="1">
+      <c r="Q36" t="str" cm="1">
         <f t="array" aca="1" ref="Q36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -20281,9 +20283,9 @@
         <f t="array" aca="1" ref="P37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
         <v>Nothing fancy, but it ain't bad for government work.</v>
       </c>
-      <c r="Q37" cm="1">
+      <c r="Q37" t="str" cm="1">
         <f t="array" aca="1" ref="Q37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -20350,9 +20352,9 @@
         <f t="array" aca="1" ref="P38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
         <v>Nothing fancy, but it ain't bad for government work.</v>
       </c>
-      <c r="Q38" cm="1">
+      <c r="Q38" t="str" cm="1">
         <f t="array" aca="1" ref="Q38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -20419,9 +20421,9 @@
         <f t="array" aca="1" ref="P39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
         <v>Although shorter-ranged than nuclear attack submarines, diesel-electric attack submarines are smaller, quieter and nearly as well armed.</v>
       </c>
-      <c r="Q39" cm="1">
+      <c r="Q39" t="str" cm="1">
         <f t="array" aca="1" ref="Q39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -20488,9 +20490,9 @@
         <f t="array" aca="1" ref="P40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
         <v>Although shorter-ranged than nuclear attack submarines, diesel-electric attack submarines are smaller, quieter and nearly as well armed.</v>
       </c>
-      <c r="Q40" cm="1">
+      <c r="Q40" t="str" cm="1">
         <f t="array" aca="1" ref="Q40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -20556,9 +20558,9 @@
         <f t="array" aca="1" ref="P41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
         <v>With a $15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
       </c>
-      <c r="Q41" cm="1">
+      <c r="Q41" t="str" cm="1">
         <f t="array" aca="1" ref="Q41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -20624,9 +20626,9 @@
         <f t="array" aca="1" ref="P42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
         <v>With a $15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
       </c>
-      <c r="Q42" cm="1">
+      <c r="Q42" t="str" cm="1">
         <f t="array" aca="1" ref="Q42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -20692,9 +20694,9 @@
         <f t="array" aca="1" ref="P43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
         <v>With a $15M unit cost conceivably affordable by even second-tier NBA starters, the Mig-29K is proof that performance and price are not always at odds.</v>
       </c>
-      <c r="Q43" cm="1">
+      <c r="Q43" t="str" cm="1">
         <f t="array" aca="1" ref="Q43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
   </sheetData>
@@ -20706,9 +20708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA93C54-FC77-4A57-AEDF-D4D1B82432EF}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20804,9 +20806,9 @@
       <c r="M2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20840,9 +20842,9 @@
       <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20878,9 +20880,9 @@
       <c r="M4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20913,9 +20915,9 @@
       <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20953,9 +20955,9 @@
       <c r="M6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20992,9 +20994,9 @@
       <c r="M7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21031,9 +21033,9 @@
       <c r="M8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21068,9 +21070,9 @@
       <c r="M9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21105,9 +21107,9 @@
       <c r="M10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21142,9 +21144,9 @@
       <c r="M11" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21180,9 +21182,9 @@
       <c r="M12" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21219,9 +21221,9 @@
       <c r="M13" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21258,9 +21260,9 @@
       <c r="M14" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -21296,9 +21298,9 @@
       <c r="M15" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21334,9 +21336,9 @@
       <c r="M16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -21371,9 +21373,9 @@
       <c r="M17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -21408,9 +21410,9 @@
       <c r="M18" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21446,9 +21448,9 @@
       <c r="M19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21483,9 +21485,9 @@
       <c r="M20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21522,9 +21524,9 @@
       <c r="M21" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -21561,9 +21563,9 @@
       <c r="M22" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -21600,9 +21602,9 @@
       <c r="M23" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -21638,9 +21640,9 @@
       <c r="M24" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21676,9 +21678,9 @@
       <c r="M25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21715,9 +21717,9 @@
       <c r="M26" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21754,9 +21756,9 @@
       <c r="M27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -21792,9 +21794,9 @@
       <c r="M28" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="str">
         <f>version!$A$1</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
   </sheetData>
@@ -22000,8 +22002,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1.7</v>
+      <c r="A1" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -22014,7 +22016,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J24"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22101,9 +22103,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J2" cm="1">
+      <c r="J2" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -22141,9 +22143,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J3" cm="1">
+      <c r="J3" t="str" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -22181,9 +22183,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J4" cm="1">
+      <c r="J4" t="str" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -22221,9 +22223,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J5" cm="1">
+      <c r="J5" t="str" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -22261,9 +22263,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J6" cm="1">
+      <c r="J6" t="str" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -22301,9 +22303,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J7" cm="1">
+      <c r="J7" t="str" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -22341,9 +22343,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J8" cm="1">
+      <c r="J8" t="str" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -22381,9 +22383,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J9" cm="1">
+      <c r="J9" t="str" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -22421,9 +22423,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J10" cm="1">
+      <c r="J10" t="str" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -22461,9 +22463,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J11" cm="1">
+      <c r="J11" t="str" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -22501,9 +22503,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J12" cm="1">
+      <c r="J12" t="str" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -22541,9 +22543,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J13" cm="1">
+      <c r="J13" t="str" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -22581,9 +22583,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J14" cm="1">
+      <c r="J14" t="str" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -22621,9 +22623,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J15" cm="1">
+      <c r="J15" t="str" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -22661,9 +22663,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J16" cm="1">
+      <c r="J16" t="str" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -22701,9 +22703,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J17" cm="1">
+      <c r="J17" t="str" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -22741,9 +22743,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J18" cm="1">
+      <c r="J18" t="str" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -22781,9 +22783,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J19" cm="1">
+      <c r="J19" t="str" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -22821,9 +22823,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J20" cm="1">
+      <c r="J20" t="str" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -22861,9 +22863,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J21" cm="1">
+      <c r="J21" t="str" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -22901,9 +22903,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J22" cm="1">
+      <c r="J22" t="str" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -22941,9 +22943,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J23" cm="1">
+      <c r="J23" t="str" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -22981,9 +22983,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J24" cm="1">
+      <c r="J24" t="str" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -23021,9 +23023,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J25" cm="1">
+      <c r="J25" t="str" cm="1">
         <f t="array" aca="1" ref="J25" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -23061,9 +23063,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J26" cm="1">
+      <c r="J26" t="str" cm="1">
         <f t="array" aca="1" ref="J26" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -23101,9 +23103,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J27" cm="1">
+      <c r="J27" t="str" cm="1">
         <f t="array" aca="1" ref="J27" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -23141,9 +23143,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J28" cm="1">
+      <c r="J28" t="str" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -23181,9 +23183,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J29" cm="1">
+      <c r="J29" t="str" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -23221,9 +23223,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J30" cm="1">
+      <c r="J30" t="str" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -23261,9 +23263,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J31" cm="1">
+      <c r="J31" t="str" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -23301,9 +23303,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J32" cm="1">
+      <c r="J32" t="str" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -23341,9 +23343,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J33" cm="1">
+      <c r="J33" t="str" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -23381,9 +23383,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J34" cm="1">
+      <c r="J34" t="str" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -23421,9 +23423,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J35" cm="1">
+      <c r="J35" t="str" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -23461,9 +23463,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J36" cm="1">
+      <c r="J36" t="str" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -23501,9 +23503,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J37" cm="1">
+      <c r="J37" t="str" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -23541,9 +23543,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J38" cm="1">
+      <c r="J38" t="str" cm="1">
         <f t="array" aca="1" ref="J38" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -23581,9 +23583,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J39" cm="1">
+      <c r="J39" t="str" cm="1">
         <f t="array" aca="1" ref="J39" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -23621,9 +23623,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J40" cm="1">
+      <c r="J40" t="str" cm="1">
         <f t="array" aca="1" ref="J40" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -23661,9 +23663,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J41" cm="1">
+      <c r="J41" t="str" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -23701,9 +23703,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J42" cm="1">
+      <c r="J42" t="str" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -23741,9 +23743,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J43" cm="1">
+      <c r="J43" t="str" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -23781,9 +23783,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J44" cm="1">
+      <c r="J44" t="str" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B44)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -23821,9 +23823,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J45" cm="1">
+      <c r="J45" t="str" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B45)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
   </sheetData>
@@ -23835,7 +23837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED05A72-9DE0-4247-9F2F-531B551ED433}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -23918,9 +23920,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J2" cm="1">
+      <c r="J2" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -23958,9 +23960,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J3" cm="1">
+      <c r="J3" t="str" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -23998,9 +24000,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J4" cm="1">
+      <c r="J4" t="str" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -24038,9 +24040,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J5" cm="1">
+      <c r="J5" t="str" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -24078,9 +24080,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J6" cm="1">
+      <c r="J6" t="str" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -24118,9 +24120,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J7" cm="1">
+      <c r="J7" t="str" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -24158,9 +24160,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J8" cm="1">
+      <c r="J8" t="str" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -24198,9 +24200,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J9" cm="1">
+      <c r="J9" t="str" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -24238,9 +24240,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J10" cm="1">
+      <c r="J10" t="str" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -24278,9 +24280,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J11" cm="1">
+      <c r="J11" t="str" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -24318,9 +24320,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J12" cm="1">
+      <c r="J12" t="str" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -24358,9 +24360,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J13" cm="1">
+      <c r="J13" t="str" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -24398,9 +24400,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J14" cm="1">
+      <c r="J14" t="str" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -24438,9 +24440,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J15" cm="1">
+      <c r="J15" t="str" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -24478,9 +24480,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J16" cm="1">
+      <c r="J16" t="str" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -24518,9 +24520,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J17" cm="1">
+      <c r="J17" t="str" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -24558,9 +24560,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J18" cm="1">
+      <c r="J18" t="str" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -24598,9 +24600,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J19" cm="1">
+      <c r="J19" t="str" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -24638,9 +24640,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J20" cm="1">
+      <c r="J20" t="str" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -24678,9 +24680,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J21" cm="1">
+      <c r="J21" t="str" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -24718,9 +24720,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J22" cm="1">
+      <c r="J22" t="str" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -24758,9 +24760,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J23" cm="1">
+      <c r="J23" t="str" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -24798,9 +24800,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J24" cm="1">
+      <c r="J24" t="str" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
   </sheetData>
@@ -24895,9 +24897,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J2" cm="1">
+      <c r="J2" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -24935,9 +24937,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J3" cm="1">
+      <c r="J3" t="str" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -24975,9 +24977,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J4" cm="1">
+      <c r="J4" t="str" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -25015,9 +25017,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J5" cm="1">
+      <c r="J5" t="str" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -25055,9 +25057,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J6" cm="1">
+      <c r="J6" t="str" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -25095,9 +25097,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J7" cm="1">
+      <c r="J7" t="str" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -25135,9 +25137,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J8" cm="1">
+      <c r="J8" t="str" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -25175,9 +25177,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J9" cm="1">
+      <c r="J9" t="str" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -25215,9 +25217,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J10" cm="1">
+      <c r="J10" t="str" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -25255,9 +25257,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J11" cm="1">
+      <c r="J11" t="str" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -25295,9 +25297,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J12" cm="1">
+      <c r="J12" t="str" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -25335,9 +25337,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J13" cm="1">
+      <c r="J13" t="str" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -25375,9 +25377,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J14" cm="1">
+      <c r="J14" t="str" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -25415,9 +25417,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J15" cm="1">
+      <c r="J15" t="str" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -25455,9 +25457,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J16" cm="1">
+      <c r="J16" t="str" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -25495,9 +25497,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J17" cm="1">
+      <c r="J17" t="str" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -25535,9 +25537,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J18" cm="1">
+      <c r="J18" t="str" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -25575,9 +25577,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J19" cm="1">
+      <c r="J19" t="str" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -25615,9 +25617,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J20" cm="1">
+      <c r="J20" t="str" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -25655,9 +25657,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J21" cm="1">
+      <c r="J21" t="str" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -25695,9 +25697,9 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J22" cm="1">
+      <c r="J22" t="str" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>1.7</v>
+        <v>0.0.1</v>
       </c>
     </row>
   </sheetData>

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shipcards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC657CD-E64A-44FF-8CA6-D69363AD4F4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A583F5EB-E722-4C07-A501-752619F3B66C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="771" firstSheet="3" activeTab="7" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="771" firstSheet="2" activeTab="4" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
   </bookViews>
   <sheets>
     <sheet name="military_asset_final" sheetId="7" r:id="rId1"/>
@@ -752,9 +752,6 @@
     <t>Grants 2 logistics capacity to the USN player if controlled by their opponent.</t>
   </si>
   <si>
-    <t>Provides -1 logistics capacity if owned by a non-Russian player.</t>
-  </si>
-  <si>
     <t>The F/A-18 is one of the longest-tenured and most battle-proven multi-role carrier aircraft in the world.</t>
   </si>
   <si>
@@ -1047,6 +1044,9 @@
   </si>
   <si>
     <t>0.0.1</t>
+  </si>
+  <si>
+    <t>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1230,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19BA67ED-4F2F-41CA-87A3-6166B158FDCE}" type="CELLRANGE">
+                    <a:fld id="{1093AD3B-FDD9-4BD6-A452-775BB22ABFB3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1264,7 +1264,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E2B0500-1483-48A2-9DB7-2D2D99917D39}" type="CELLRANGE">
+                    <a:fld id="{CD29DDC8-BF31-4746-A47F-CD18A8F3C693}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1298,7 +1298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E74652AB-D54D-41E7-806F-819658DEF1A0}" type="CELLRANGE">
+                    <a:fld id="{3E3AE0DE-3F83-4E10-B073-B16092CE3A78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1338,7 +1338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39894B46-29A0-4FC2-A910-27540CFA4590}" type="CELLRANGE">
+                    <a:fld id="{1D7B0C5B-B585-4A2C-9BAA-1E1DF105EDB8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1377,7 +1377,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83A3DE41-B9ED-43B0-AF1B-E41308D6D5B7}" type="CELLRANGE">
+                    <a:fld id="{616841F2-87B9-4DE8-97A0-12B2176801DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1410,7 +1410,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F53F70E-912F-49E8-AED7-B1D1EA67BCA2}" type="CELLRANGE">
+                    <a:fld id="{C5A5FFC1-1346-487E-9CE6-FA68B31E7D84}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1444,7 +1444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9019098A-83AE-4542-B790-4355FA624914}" type="CELLRANGE">
+                    <a:fld id="{EF71FAF7-A53C-4A45-ACAB-0E2C9D5325B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1484,7 +1484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{616FC26D-5A7D-4B09-B80A-AE45A4B1BD76}" type="CELLRANGE">
+                    <a:fld id="{F07A231E-65D6-42BF-A556-25C99F463107}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1523,7 +1523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07F33445-D379-4262-A89F-CF041F6D3D08}" type="CELLRANGE">
+                    <a:fld id="{06DB3F7C-006F-4A6A-A2D3-21B08D11D3F1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1556,7 +1556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA4398A4-CCDA-4103-8ED9-0331E9D4A557}" type="CELLRANGE">
+                    <a:fld id="{B2F02FBC-FED1-485A-90F5-D9CA707A2DAD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1596,7 +1596,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F8E7AF0-3961-4275-BCD6-C0D6C2B378E7}" type="CELLRANGE">
+                    <a:fld id="{116EE131-CD51-4858-B06B-C321A76605F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1650,7 +1650,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{9E34D7E7-A15C-4811-9CD2-230BAC99A0E3}" type="CELLRANGE">
+                    <a:fld id="{65744709-D634-44EF-9C7D-A2DD050F75C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1720,7 +1720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0AB681F-341E-4FFA-ADCB-29964A00581A}" type="CELLRANGE">
+                    <a:fld id="{06DE9679-59FB-4C01-8818-C135F45D61ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1760,7 +1760,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DBAFC33-3F8F-4579-B0E3-60E1ECA3B0BF}" type="CELLRANGE">
+                    <a:fld id="{25E55B13-35FB-4646-9D99-9C08677996B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1799,7 +1799,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FCAD41C-10FD-441B-B5B1-EB8FE1EC9E46}" type="CELLRANGE">
+                    <a:fld id="{F8FCB11A-6B3B-46D6-B695-C0E81F9AB87D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1832,7 +1832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67DE8F01-B11E-45C3-BC67-DFA7E805815B}" type="CELLRANGE">
+                    <a:fld id="{C62E0FB3-E000-4112-81D5-011B101154FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1872,7 +1872,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD823903-9C45-42B9-AD32-D2E4ECC135EB}" type="CELLRANGE">
+                    <a:fld id="{A9BDC099-171F-4A86-B4AF-41E650C33461}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1926,7 +1926,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{E161E9DB-9B33-44F7-B8A4-C1FF4535152A}" type="CELLRANGE">
+                    <a:fld id="{29134F01-4405-47B8-85AC-96E6F36E82AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2002,7 +2002,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7903D458-807C-46A6-A6AB-2BFBBD70CCF1}" type="CELLRANGE">
+                    <a:fld id="{99387B77-0E75-4738-87E4-A039F5DEA55B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2041,7 +2041,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8180A7E4-2060-4688-B47C-A3A48CF709EE}" type="CELLRANGE">
+                    <a:fld id="{49177D63-6E9C-4CC6-8C3D-C8366CDCC699}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2080,7 +2080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81CC247B-EB05-43F1-8C11-F61E30A93409}" type="CELLRANGE">
+                    <a:fld id="{2D643E21-9B2C-444B-A99B-92D452335287}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2119,7 +2119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AD1A498-FB87-498E-B3D3-336B3BB56FE1}" type="CELLRANGE">
+                    <a:fld id="{5AC72BE9-CBFA-4842-8BAA-9631A152F404}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2152,7 +2152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5CE632A-64D5-4D8C-A9A1-BA101A9EEF7B}" type="CELLRANGE">
+                    <a:fld id="{1CCE9ACB-33F5-4119-B71F-F6FDCF6C2EF7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2192,7 +2192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFE0FD21-7B8C-4EBB-ADB4-D9C88F859919}" type="CELLRANGE">
+                    <a:fld id="{64DDDA78-AF72-49C1-B9FC-DEF5BF400EEF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2225,7 +2225,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11D789D7-720A-48DA-901D-136427CE4D93}" type="CELLRANGE">
+                    <a:fld id="{7AE71BE6-709F-4B4D-9F02-5DB0D2D50E69}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2265,7 +2265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AD3F2A5-1B94-4325-964F-94BDF7AAF084}" type="CELLRANGE">
+                    <a:fld id="{1AC7D9AE-E07E-4C84-AA41-828C818DDE74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2298,7 +2298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{298D96FA-95B3-4FFE-8FB8-8A5FF872DCB5}" type="CELLRANGE">
+                    <a:fld id="{0DFA2A5D-F1DD-46BD-9967-0FFB25CCE48D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4019,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -4224,7 +4224,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
@@ -4292,7 +4292,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
@@ -4360,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
@@ -4567,7 +4567,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -4636,7 +4636,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
@@ -4705,7 +4705,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
@@ -4774,7 +4774,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -4977,7 +4977,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -5245,7 +5245,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -5312,7 +5312,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D23" t="str" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
@@ -5379,7 +5379,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -5446,7 +5446,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" t="str" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -5513,7 +5513,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D26" t="str" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
@@ -5581,7 +5581,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D27" t="str" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
@@ -5649,7 +5649,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
@@ -5717,7 +5717,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D29" t="str" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
@@ -5785,7 +5785,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D30" t="str" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
@@ -5853,7 +5853,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D31" t="str" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
@@ -5922,7 +5922,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
@@ -5991,7 +5991,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
@@ -6060,7 +6060,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
@@ -6129,7 +6129,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
@@ -6198,7 +6198,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" t="str" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
@@ -6267,7 +6267,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
@@ -6335,7 +6335,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
@@ -6403,7 +6403,7 @@
         <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D39" t="str" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
@@ -6471,7 +6471,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D40" t="str" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
@@ -6539,7 +6539,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D41" t="str" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
@@ -6809,7 +6809,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D45" t="str" cm="1">
         <f t="array" aca="1" ref="D45" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B45)</f>
@@ -7280,7 +7280,7 @@
         <v>19</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D52" t="str" cm="1">
         <f t="array" aca="1" ref="D52" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B52)</f>
@@ -7348,7 +7348,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D53" t="str" cm="1">
         <f t="array" aca="1" ref="D53" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B53)</f>
@@ -7484,7 +7484,7 @@
         <v>19</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D55" t="str" cm="1">
         <f t="array" aca="1" ref="D55" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B55)</f>
@@ -7552,7 +7552,7 @@
         <v>28</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D56" t="str" cm="1">
         <f t="array" aca="1" ref="D56" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B56)</f>
@@ -7620,7 +7620,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D57" t="str" cm="1">
         <f t="array" aca="1" ref="D57" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B57)</f>
@@ -7688,7 +7688,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D58" t="str" cm="1">
         <f t="array" aca="1" ref="D58" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B58)</f>
@@ -7756,7 +7756,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D59" t="str" cm="1">
         <f t="array" aca="1" ref="D59" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B59)</f>
@@ -7891,7 +7891,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D61" t="str" cm="1">
         <f t="array" aca="1" ref="D61" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B61)</f>
@@ -8303,7 +8303,7 @@
         <v>23</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D67" t="str" cm="1">
         <f t="array" aca="1" ref="D67" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B67)</f>
@@ -8372,7 +8372,7 @@
         <v>23</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D68" t="str" cm="1">
         <f t="array" aca="1" ref="D68" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B68)</f>
@@ -8648,7 +8648,7 @@
         <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D72" t="str" cm="1">
         <f t="array" aca="1" ref="D72" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B72)</f>
@@ -8717,7 +8717,7 @@
         <v>27</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D73" t="str" cm="1">
         <f t="array" aca="1" ref="D73" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B73)</f>
@@ -8786,7 +8786,7 @@
         <v>27</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D74" t="str" cm="1">
         <f t="array" aca="1" ref="D74" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B74)</f>
@@ -8993,7 +8993,7 @@
         <v>26</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D77" t="str" cm="1">
         <f t="array" aca="1" ref="D77" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B77)</f>
@@ -9062,7 +9062,7 @@
         <v>26</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D78" t="str" cm="1">
         <f t="array" aca="1" ref="D78" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B78)</f>
@@ -9269,7 +9269,7 @@
         <v>24</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D81" t="str" cm="1">
         <f t="array" aca="1" ref="D81" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B81)</f>
@@ -9337,7 +9337,7 @@
         <v>24</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D82" t="str" cm="1">
         <f t="array" aca="1" ref="D82" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B82)</f>
@@ -9405,7 +9405,7 @@
         <v>24</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D83" t="str" cm="1">
         <f t="array" aca="1" ref="D83" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B83)</f>
@@ -9533,7 +9533,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
         <v>206</v>
@@ -9559,7 +9559,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
         <v>104</v>
@@ -9592,7 +9592,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6" t="s">
         <v>105</v>
@@ -9618,7 +9618,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
         <v>106</v>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -9644,7 +9644,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
         <v>107</v>
@@ -9670,7 +9670,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
         <v>168</v>
@@ -9696,7 +9696,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E10" t="s">
         <v>108</v>
@@ -9722,7 +9722,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -9781,7 +9781,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E14" t="s">
         <v>111</v>
@@ -9807,7 +9807,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E15" t="s">
         <v>112</v>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -9860,10 +9860,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -9929,7 +9929,7 @@
         <v>170</v>
       </c>
       <c r="E22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -9966,7 +9966,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E25" t="s">
         <v>115</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -9992,10 +9992,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -10009,7 +10009,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -10018,10 +10018,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -10035,7 +10035,7 @@
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -10044,10 +10044,10 @@
         <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="G14" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H14" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
@@ -10728,7 +10728,7 @@
       </c>
       <c r="G15" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H15" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="G16" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H16" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -10816,7 +10816,7 @@
       </c>
       <c r="G17" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H17" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="G18" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H18" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -10904,7 +10904,7 @@
       </c>
       <c r="G19" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H19" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="G20" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H20" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="G21" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H21" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="G22" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H22" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -11080,7 +11080,7 @@
       </c>
       <c r="G23" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H23" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="G24" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H24" t="str" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -11152,7 +11152,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D25" t="str" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -11168,7 +11168,7 @@
       </c>
       <c r="G25" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H25" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -11800,6 +11800,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11868,7 +11872,7 @@
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H2" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -11912,7 +11916,7 @@
       </c>
       <c r="G3" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H3" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -11956,7 +11960,7 @@
       </c>
       <c r="G4" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H4" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -12000,7 +12004,7 @@
       </c>
       <c r="G5" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H5" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
@@ -12044,7 +12048,7 @@
       </c>
       <c r="G6" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H6" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B6)</f>
@@ -12088,7 +12092,7 @@
       </c>
       <c r="G7" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H7" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
@@ -12132,7 +12136,7 @@
       </c>
       <c r="G8" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H8" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
@@ -12176,7 +12180,7 @@
       </c>
       <c r="G9" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H9" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
@@ -12220,7 +12224,7 @@
       </c>
       <c r="G10" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H10" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
@@ -12264,7 +12268,7 @@
       </c>
       <c r="G11" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H11" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
@@ -12308,7 +12312,7 @@
       </c>
       <c r="G12" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H12" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -12336,7 +12340,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
@@ -12352,7 +12356,7 @@
       </c>
       <c r="G13" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="H13" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDIRECT("territories!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
@@ -12382,7 +12386,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12424,7 +12428,7 @@
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -12504,7 +12508,7 @@
         <v>204</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H4" t="str">
         <f>version!$A$1</f>
@@ -12513,7 +12517,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -12523,7 +12527,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>effects!$A$32</f>
-        <v>Provides -1 logistics capacity if owned by a non-Russian player.</v>
+        <v>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -15042,7 +15046,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -15247,7 +15251,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B7)</f>
@@ -15315,7 +15319,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B8)</f>
@@ -15383,7 +15387,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B9)</f>
@@ -15590,7 +15594,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -15659,7 +15663,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
@@ -15728,7 +15732,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B14)</f>
@@ -15797,7 +15801,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -16000,7 +16004,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -16268,7 +16272,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -16335,7 +16339,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D23" t="str" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B23)</f>
@@ -16402,7 +16406,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -16469,7 +16473,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" t="str" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B25)</f>
@@ -16536,7 +16540,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D26" t="str" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B26)</f>
@@ -16604,7 +16608,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D27" t="str" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
@@ -16672,7 +16676,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
@@ -16740,7 +16744,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D29" t="str" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B29)</f>
@@ -16808,7 +16812,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D30" t="str" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B30)</f>
@@ -16876,7 +16880,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D31" t="str" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B31)</f>
@@ -16945,7 +16949,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
@@ -17014,7 +17018,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
@@ -17083,7 +17087,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
@@ -17152,7 +17156,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B35)</f>
@@ -17221,7 +17225,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" t="str" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B36)</f>
@@ -17290,7 +17294,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
@@ -17358,7 +17362,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
@@ -17426,7 +17430,7 @@
         <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D39" t="str" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
@@ -17494,7 +17498,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D40" t="str" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B40)</f>
@@ -17562,7 +17566,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D41" t="str" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
@@ -18043,7 +18047,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
@@ -18514,7 +18518,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B12)</f>
@@ -18582,7 +18586,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B13)</f>
@@ -18718,7 +18722,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B15)</f>
@@ -18786,7 +18790,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -18854,7 +18858,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B17)</f>
@@ -18922,7 +18926,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -18990,7 +18994,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B19)</f>
@@ -19125,7 +19129,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D21" t="str" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B21)</f>
@@ -19537,7 +19541,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D27" t="str" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
@@ -19606,7 +19610,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
@@ -19882,7 +19886,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B32)</f>
@@ -19951,7 +19955,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
@@ -20020,7 +20024,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B34)</f>
@@ -20227,7 +20231,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B37)</f>
@@ -20296,7 +20300,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B38)</f>
@@ -20503,7 +20507,7 @@
         <v>24</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D41" t="str" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
@@ -20571,7 +20575,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D42" t="str" cm="1">
         <f t="array" aca="1" ref="D42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
@@ -20639,7 +20643,7 @@
         <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D43" t="str" cm="1">
         <f t="array" aca="1" ref="D43" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
@@ -21142,7 +21146,7 @@
         <v>86</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N11" t="str">
         <f>version!$A$1</f>
@@ -21180,7 +21184,7 @@
         <v>87</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N12" t="str">
         <f>version!$A$1</f>
@@ -21219,7 +21223,7 @@
         <v>88</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N13" t="str">
         <f>version!$A$1</f>
@@ -21296,7 +21300,7 @@
         <v>90</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N15" t="str">
         <f>version!$A$1</f>
@@ -21408,7 +21412,7 @@
         <v>93</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N18" t="str">
         <f>version!$A$1</f>
@@ -21522,7 +21526,7 @@
         <v>96</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N21" t="str">
         <f>version!$A$1</f>
@@ -21561,7 +21565,7 @@
         <v>97</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N22" t="str">
         <f>version!$A$1</f>
@@ -21570,7 +21574,7 @@
     </row>
     <row r="23" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -21600,7 +21604,7 @@
         <v>98</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N23" t="str">
         <f>version!$A$1</f>
@@ -21638,7 +21642,7 @@
         <v>99</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N24" t="str">
         <f>version!$A$1</f>
@@ -21685,7 +21689,7 @@
     </row>
     <row r="26" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -21763,7 +21767,7 @@
     </row>
     <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -21789,10 +21793,10 @@
 </v>
       </c>
       <c r="L28" t="s">
+        <v>308</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="N28" t="str">
         <f>version!$A$1</f>
@@ -21809,8 +21813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424B9FA-5F3A-48BD-A332-49100C2F7779}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21905,7 +21909,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -21915,7 +21919,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -21975,7 +21979,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>227</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -22003,7 +22007,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -22396,7 +22400,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
@@ -22436,7 +22440,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
@@ -22636,7 +22640,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -22796,7 +22800,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D20" t="str" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -22876,7 +22880,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -22956,7 +22960,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -23076,7 +23080,7 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D27" t="str" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B27)</f>
@@ -23116,7 +23120,7 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B28)</f>
@@ -23316,7 +23320,7 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B33)</f>
@@ -23556,7 +23560,7 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D39" t="str" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B39)</f>
@@ -23636,7 +23640,7 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D41" t="str" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B41)</f>
@@ -23716,7 +23720,7 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D43" t="str" cm="1">
         <f t="array" aca="1" ref="D43" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B43)</f>
@@ -23796,7 +23800,7 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D45" t="str" cm="1">
         <f t="array" aca="1" ref="D45" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B45)</f>
@@ -23837,7 +23841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED05A72-9DE0-4247-9F2F-531B551ED433}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -24213,7 +24217,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
@@ -24253,7 +24257,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B11)</f>
@@ -24453,7 +24457,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -24613,7 +24617,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D20" t="str" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -24693,7 +24697,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>
@@ -24773,7 +24777,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B24)</f>
@@ -24950,7 +24954,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -24990,7 +24994,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B5)</f>
@@ -25190,7 +25194,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B10)</f>
@@ -25430,7 +25434,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B16)</f>
@@ -25510,7 +25514,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B18)</f>
@@ -25590,7 +25594,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D20" t="str" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B20)</f>
@@ -25670,7 +25674,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT("actions!"&amp;CHAR(COLUMN()+93)&amp;$B22)</f>

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shipcards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A583F5EB-E722-4C07-A501-752619F3B66C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64EA232-15DE-4BBA-A73C-6A25FFEBDE70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="771" firstSheet="2" activeTab="4" xr2:uid="{F50BFA29-F894-47F8-8978-4D4DA77633D4}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="327">
   <si>
     <t>Title</t>
   </si>
@@ -1047,6 +1047,9 @@
   </si>
   <si>
     <t>Partisans: Provides -4 logistics capacity if controlled by a non-Russian player.</t>
+  </si>
+  <si>
+    <t>CAP: +2 Help Defense</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1233,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1093AD3B-FDD9-4BD6-A452-775BB22ABFB3}" type="CELLRANGE">
+                    <a:fld id="{B31A5756-E93A-4C81-BFD5-02EFBB990D26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1264,7 +1267,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD29DDC8-BF31-4746-A47F-CD18A8F3C693}" type="CELLRANGE">
+                    <a:fld id="{97959442-8521-4D21-8485-9B09266DF168}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1298,7 +1301,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E3AE0DE-3F83-4E10-B073-B16092CE3A78}" type="CELLRANGE">
+                    <a:fld id="{0925825C-B1E3-4683-8B94-B6DCF555097F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1338,7 +1341,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D7B0C5B-B585-4A2C-9BAA-1E1DF105EDB8}" type="CELLRANGE">
+                    <a:fld id="{B5323A2F-2E8D-482F-B786-89DE3B0B2DF3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1377,7 +1380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{616841F2-87B9-4DE8-97A0-12B2176801DB}" type="CELLRANGE">
+                    <a:fld id="{4EBB023C-E623-4366-8F1E-3F4EEB87564C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1410,7 +1413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5A5FFC1-1346-487E-9CE6-FA68B31E7D84}" type="CELLRANGE">
+                    <a:fld id="{8C393150-269B-46C4-B70E-95CD5EB1C260}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1444,7 +1447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF71FAF7-A53C-4A45-ACAB-0E2C9D5325B6}" type="CELLRANGE">
+                    <a:fld id="{04BABB3C-99F7-4B7D-A38A-30D8561FAC67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1484,7 +1487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F07A231E-65D6-42BF-A556-25C99F463107}" type="CELLRANGE">
+                    <a:fld id="{9C97ADE2-AA07-45BE-BC5A-4CA27A2ABBD3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1523,7 +1526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06DB3F7C-006F-4A6A-A2D3-21B08D11D3F1}" type="CELLRANGE">
+                    <a:fld id="{5DECAA4E-ACFF-4E22-9596-06698ED7A12E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1556,7 +1559,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2F02FBC-FED1-485A-90F5-D9CA707A2DAD}" type="CELLRANGE">
+                    <a:fld id="{FBEC42DA-9BE9-46F9-B36A-92F30C23CB8F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1596,7 +1599,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{116EE131-CD51-4858-B06B-C321A76605F0}" type="CELLRANGE">
+                    <a:fld id="{B601B1EC-C426-4FEE-8B71-277CFE8330F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1650,7 +1653,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{65744709-D634-44EF-9C7D-A2DD050F75C1}" type="CELLRANGE">
+                    <a:fld id="{EE3A188D-FBB7-482E-8025-EC6BBE66FF8E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1720,7 +1723,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06DE9679-59FB-4C01-8818-C135F45D61ED}" type="CELLRANGE">
+                    <a:fld id="{26740249-B408-4AF3-AA54-88AE3F303A65}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1760,7 +1763,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25E55B13-35FB-4646-9D99-9C08677996B0}" type="CELLRANGE">
+                    <a:fld id="{3010890D-B353-434F-8C2B-7C33CB97CBA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1799,7 +1802,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8FCB11A-6B3B-46D6-B695-C0E81F9AB87D}" type="CELLRANGE">
+                    <a:fld id="{3364D886-84A1-46F6-A9D5-0701FEC0E439}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1827,12 +1830,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6668872417006637E-2"/>
+                  <c:y val="2.1802935010482211E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C62E0FB3-E000-4112-81D5-011B101154FB}" type="CELLRANGE">
+                    <a:fld id="{8511936F-7CA6-42A8-B2D2-46DED9B26DE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1841,7 +1850,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1851,7 +1860,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1872,7 +1880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9BDC099-171F-4A86-B4AF-41E650C33461}" type="CELLRANGE">
+                    <a:fld id="{76B539EB-E815-46C0-B902-CA14062F5293}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1926,7 +1934,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{29134F01-4405-47B8-85AC-96E6F36E82AE}" type="CELLRANGE">
+                    <a:fld id="{143E84F7-A0F0-42E8-85DC-FF6DA16C727E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2002,7 +2010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99387B77-0E75-4738-87E4-A039F5DEA55B}" type="CELLRANGE">
+                    <a:fld id="{11ADF897-4037-43C5-8C3C-9741DA33B633}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2041,7 +2049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49177D63-6E9C-4CC6-8C3D-C8366CDCC699}" type="CELLRANGE">
+                    <a:fld id="{ADF1C6E5-0244-4C85-944D-2B9682759F7C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2080,7 +2088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D643E21-9B2C-444B-A99B-92D452335287}" type="CELLRANGE">
+                    <a:fld id="{41BB1F0D-3AA2-4C2C-8B28-1E24F88C6C21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2119,7 +2127,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AC72BE9-CBFA-4842-8BAA-9631A152F404}" type="CELLRANGE">
+                    <a:fld id="{7690D551-B01F-40F5-84C8-032380D66A1B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2152,7 +2160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CCE9ACB-33F5-4119-B71F-F6FDCF6C2EF7}" type="CELLRANGE">
+                    <a:fld id="{1FBB4D66-CFAB-434C-9EC4-B0710543858A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2192,7 +2200,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64DDDA78-AF72-49C1-B9FC-DEF5BF400EEF}" type="CELLRANGE">
+                    <a:fld id="{3431988C-4BF2-49A9-9C0F-C4158B96FE01}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2225,7 +2233,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AE71BE6-709F-4B4D-9F02-5DB0D2D50E69}" type="CELLRANGE">
+                    <a:fld id="{AFE95769-257C-4526-95A7-521558C8B8C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2265,7 +2273,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AC7D9AE-E07E-4C84-AA41-828C818DDE74}" type="CELLRANGE">
+                    <a:fld id="{79FA131F-9664-4D7B-B0BE-18C091B05399}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2298,7 +2306,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DFA2A5D-F1DD-46BD-9967-0FFB25CCE48D}" type="CELLRANGE">
+                    <a:fld id="{B02D02E2-C7F0-4125-B14A-590E6751A82F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2508,10 +2516,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.5</c:v>
@@ -2550,7 +2558,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.5</c:v>
@@ -3909,7 +3917,7 @@
       </c>
       <c r="J2" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -3927,7 +3935,8 @@
         <f t="array" aca="1" ref="N2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v>CATOBAR: Compatible with CATOBAR, VTOL, and  STOBAR squadrons.
 E-2C Hawkeye: All squadrons you control in a combat including this asset have +1 attack and  defense.
-Carrier 3: Can station 3 aircraft squadron.</v>
+Carrier 3: Can station 3 aircraft squadron.
+CAP: +2 Help Defense</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -3978,7 +3987,7 @@
       </c>
       <c r="J3" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -3996,7 +4005,8 @@
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
         <v>CATOBAR: Compatible with CATOBAR, VTOL, and  STOBAR squadrons.
 E-2C Hawkeye: All squadrons you control in a combat including this asset have +1 attack and  defense.
-Carrier 3: Can station 3 aircraft squadron.</v>
+Carrier 3: Can station 3 aircraft squadron.
+CAP: +2 Help Defense</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -4047,7 +4057,7 @@
       </c>
       <c r="J4" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -4065,7 +4075,8 @@
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v>CATOBAR: Compatible with CATOBAR, VTOL, and  STOBAR squadrons.
 E-2C Hawkeye: All squadrons you control in a combat including this asset have +1 attack and  defense.
-Carrier 3: Can station 3 aircraft squadron.</v>
+Carrier 3: Can station 3 aircraft squadron.
+CAP: +2 Help Defense</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -6635,7 +6646,7 @@
       </c>
       <c r="J42" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" aca="1" ref="K42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
@@ -6652,7 +6663,8 @@
       <c r="N42" t="str" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
         <v>STOBAR: Compatible with STOBAR and VTOL squadrons.
-Carrier 1: Can station 1 aircraft squadron.</v>
+Carrier 1: Can station 1 aircraft squadron.
+CAP: +2 Help Defense</v>
       </c>
       <c r="O42" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B42)</f>
@@ -12559,8 +12571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8A294D-8A6F-470F-8FC6-DE99DB04E18C}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="R77" sqref="R77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12648,7 +12660,7 @@
       </c>
       <c r="F2">
         <f>military_assets!G2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <f>military_assets!H2</f>
@@ -12659,12 +12671,12 @@
         <v>USN</v>
       </c>
       <c r="J2">
-        <f>T17+T7</f>
-        <v>7.5</v>
+        <f>T17+T7+T8</f>
+        <v>10.5</v>
       </c>
       <c r="K2">
         <f>J2/G2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L25" si="0">C2/G2</f>
@@ -12672,7 +12684,7 @@
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M25" si="1">F2/G2</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N25" si="2">E2/G2</f>
@@ -12680,15 +12692,15 @@
       </c>
       <c r="O2">
         <f>M2+L2+N2+K2</f>
-        <v>1.9166666666666665</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="P2">
         <f>L2+M2</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q2">
         <f>C2+E2/2+F2+J2</f>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -12710,7 +12722,7 @@
       </c>
       <c r="F3">
         <f>military_assets!G3</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f>military_assets!H3</f>
@@ -12721,12 +12733,12 @@
         <v>USN</v>
       </c>
       <c r="J3">
-        <f>T17+T7+T12</f>
-        <v>8</v>
+        <f>T17+T7+T12+T8</f>
+        <v>11</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K25" si="3">J3/G3</f>
-        <v>1.1428571428571428</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
@@ -12734,7 +12746,7 @@
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N3">
         <f t="shared" si="2"/>
@@ -12742,15 +12754,15 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O25" si="4">M3+L3+N3+K3</f>
-        <v>1.7142857142857142</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="P3">
         <f>L3+M3</f>
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q25" si="5">C3+E3/2+F3+J3</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -13578,7 +13590,7 @@
       </c>
       <c r="F16">
         <f>military_assets!G16</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <f>military_assets!H16</f>
@@ -13589,12 +13601,12 @@
         <v>RUS</v>
       </c>
       <c r="J16">
-        <f>T19</f>
-        <v>3</v>
+        <f>T19+T8</f>
+        <v>6</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
@@ -13602,7 +13614,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
@@ -13610,15 +13622,15 @@
       </c>
       <c r="O16">
         <f t="shared" si="4"/>
-        <v>2.1666666666666665</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S16" t="s">
         <v>193</v>
@@ -14405,7 +14417,7 @@
       </c>
       <c r="O32">
         <f t="shared" ref="O32:O58" si="8">Q2</f>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="33" spans="14:15" x14ac:dyDescent="0.25">
@@ -14415,7 +14427,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="14:15" x14ac:dyDescent="0.25">
@@ -14545,7 +14557,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="14:15" x14ac:dyDescent="0.25">
@@ -14936,7 +14948,7 @@
       </c>
       <c r="J2" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -14954,7 +14966,8 @@
         <f t="array" aca="1" ref="N2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v>CATOBAR: Compatible with CATOBAR, VTOL, and  STOBAR squadrons.
 E-2C Hawkeye: All squadrons you control in a combat including this asset have +1 attack and  defense.
-Carrier 3: Can station 3 aircraft squadron.</v>
+Carrier 3: Can station 3 aircraft squadron.
+CAP: +2 Help Defense</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -15005,7 +15018,7 @@
       </c>
       <c r="J3" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -15023,7 +15036,8 @@
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
         <v>CATOBAR: Compatible with CATOBAR, VTOL, and  STOBAR squadrons.
 E-2C Hawkeye: All squadrons you control in a combat including this asset have +1 attack and  defense.
-Carrier 3: Can station 3 aircraft squadron.</v>
+Carrier 3: Can station 3 aircraft squadron.
+CAP: +2 Help Defense</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B3)</f>
@@ -15074,7 +15088,7 @@
       </c>
       <c r="J4" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -15092,7 +15106,8 @@
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
         <v>CATOBAR: Compatible with CATOBAR, VTOL, and  STOBAR squadrons.
 E-2C Hawkeye: All squadrons you control in a combat including this asset have +1 attack and  defense.
-Carrier 3: Can station 3 aircraft squadron.</v>
+Carrier 3: Can station 3 aircraft squadron.
+CAP: +2 Help Defense</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B4)</f>
@@ -17873,7 +17888,7 @@
       </c>
       <c r="J2" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -17890,7 +17905,8 @@
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
         <v>STOBAR: Compatible with STOBAR and VTOL squadrons.
-Carrier 1: Can station 1 aircraft squadron.</v>
+Carrier 1: Can station 1 aircraft squadron.
+CAP: +2 Help Defense</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDIRECT("military_assets!"&amp;CHAR(COLUMN()+93)&amp;$B2)</f>
@@ -20714,7 +20730,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20787,7 +20803,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -20799,10 +20815,11 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f>effects!$A3&amp;CHAR(10)&amp;effects!$A4&amp;CHAR(10)&amp;effects!$A$31</f>
+        <f>effects!$A3&amp;CHAR(10)&amp;effects!$A4&amp;CHAR(10)&amp;effects!$A$31&amp;CHAR(10)&amp;effects!$A$34</f>
         <v>CATOBAR: Compatible with CATOBAR, VTOL, and  STOBAR squadrons.
 E-2C Hawkeye: All squadrons you control in a combat including this asset have +1 attack and  defense.
-Carrier 3: Can station 3 aircraft squadron.</v>
+Carrier 3: Can station 3 aircraft squadron.
+CAP: +2 Help Defense</v>
       </c>
       <c r="L2" t="s">
         <v>77</v>
@@ -20826,7 +20843,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -20838,10 +20855,11 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f>effects!$A3&amp;CHAR(10)&amp;effects!$A25&amp;CHAR(10)&amp;effects!$A$31</f>
+        <f>effects!$A3&amp;CHAR(10)&amp;effects!$A25&amp;CHAR(10)&amp;effects!$A$31&amp;CHAR(10)&amp;effects!$A$34</f>
         <v>CATOBAR: Compatible with CATOBAR, VTOL, and  STOBAR squadrons.
 E-2D Hawkeye-I: All friendly air squadrons in combat with this asset have +1 attack and  defense. Enemy air squadrons lose Ambush.
-Carrier 3: Can station 3 aircraft squadron.</v>
+Carrier 3: Can station 3 aircraft squadron.
+CAP: +2 Help Defense</v>
       </c>
       <c r="L3" t="s">
         <v>78</v>
@@ -21318,7 +21336,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>6</v>
@@ -21330,9 +21348,10 @@
         <v>18</v>
       </c>
       <c r="K16" s="1" t="str">
-        <f>effects!$A23&amp;CHAR(10)&amp;effects!$A$29</f>
+        <f>effects!$A23&amp;CHAR(10)&amp;effects!$A$29&amp;CHAR(10)&amp;effects!$A$34</f>
         <v>STOBAR: Compatible with STOBAR and VTOL squadrons.
-Carrier 1: Can station 1 aircraft squadron.</v>
+Carrier 1: Can station 1 aircraft squadron.
+CAP: +2 Help Defense</v>
       </c>
       <c r="L16" t="s">
         <v>91</v>
@@ -21814,7 +21833,7 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21988,7 +22007,9 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
